--- a/tarea1/src/kmeans_resultado_final.xlsx
+++ b/tarea1/src/kmeans_resultado_final.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1368"/>
+  <dimension ref="A1:O1584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55217,6 +55217,8658 @@
         <v>0.175</v>
       </c>
     </row>
+    <row r="1369">
+      <c r="A1369" t="inlineStr">
+        <is>
+          <t>Iteración 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B1371" t="inlineStr">
+        <is>
+          <t>GDP (USD Billion)</t>
+        </is>
+      </c>
+      <c r="C1371" t="inlineStr">
+        <is>
+          <t>Population (Millions)</t>
+        </is>
+      </c>
+      <c r="D1371" t="inlineStr">
+        <is>
+          <t>Unemployment Rate (%)</t>
+        </is>
+      </c>
+      <c r="E1371" t="inlineStr">
+        <is>
+          <t>Average Age</t>
+        </is>
+      </c>
+      <c r="F1371" t="inlineStr">
+        <is>
+          <t>Women (%)</t>
+        </is>
+      </c>
+      <c r="G1371" t="inlineStr">
+        <is>
+          <t>Men (%)</t>
+        </is>
+      </c>
+      <c r="H1371" t="inlineStr">
+        <is>
+          <t>Budget (USD Billion)</t>
+        </is>
+      </c>
+      <c r="I1371" t="inlineStr">
+        <is>
+          <t>dis_C0</t>
+        </is>
+      </c>
+      <c r="J1371" t="inlineStr">
+        <is>
+          <t>dis_C1</t>
+        </is>
+      </c>
+      <c r="K1371" t="inlineStr">
+        <is>
+          <t>dis_C2</t>
+        </is>
+      </c>
+      <c r="L1371" t="inlineStr">
+        <is>
+          <t>dis_C3</t>
+        </is>
+      </c>
+      <c r="M1371" t="inlineStr">
+        <is>
+          <t>dis_C4</t>
+        </is>
+      </c>
+      <c r="N1371" t="inlineStr">
+        <is>
+          <t>dis_C5</t>
+        </is>
+      </c>
+      <c r="O1371" t="inlineStr">
+        <is>
+          <t>Cluster</t>
+        </is>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="inlineStr">
+        <is>
+          <t>Pasto</t>
+        </is>
+      </c>
+      <c r="B1372" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C1372" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D1372" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E1372" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1372" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1372" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1372" t="n">
+        <v>2.86537955600999</v>
+      </c>
+      <c r="J1372" t="n">
+        <v>5.379860592989376</v>
+      </c>
+      <c r="K1372" t="n">
+        <v>5.878988008152423</v>
+      </c>
+      <c r="L1372" t="n">
+        <v>9.76094769989062</v>
+      </c>
+      <c r="M1372" t="n">
+        <v>7.547343903652462</v>
+      </c>
+      <c r="N1372" t="n">
+        <v>102.036429278959</v>
+      </c>
+      <c r="O1372" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="inlineStr">
+        <is>
+          <t>Riohacha</t>
+        </is>
+      </c>
+      <c r="B1373" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C1373" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D1373" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E1373" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1373" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1373" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1373" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1373" t="n">
+        <v>7.973963882536715</v>
+      </c>
+      <c r="J1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1373" t="n">
+        <v>2.071328076379983</v>
+      </c>
+      <c r="L1373" t="n">
+        <v>4.820435664958096</v>
+      </c>
+      <c r="M1373" t="n">
+        <v>3.04927860321093</v>
+      </c>
+      <c r="N1373" t="n">
+        <v>104.0181311118403</v>
+      </c>
+      <c r="O1373" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="inlineStr">
+        <is>
+          <t>Villavicencio</t>
+        </is>
+      </c>
+      <c r="B1374" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C1374" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D1374" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1374" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1374" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1374" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1374" t="n">
+        <v>4.169520356108122</v>
+      </c>
+      <c r="J1374" t="n">
+        <v>4.540748836921065</v>
+      </c>
+      <c r="K1374" t="n">
+        <v>5.266877632905477</v>
+      </c>
+      <c r="L1374" t="n">
+        <v>9.090797544770206</v>
+      </c>
+      <c r="M1374" t="n">
+        <v>7.089915373260811</v>
+      </c>
+      <c r="N1374" t="n">
+        <v>101.7482795923351</v>
+      </c>
+      <c r="O1374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="inlineStr">
+        <is>
+          <t>San Andrés</t>
+        </is>
+      </c>
+      <c r="B1375" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C1375" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D1375" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1375" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>50</v>
+      </c>
+      <c r="G1375" t="n">
+        <v>50</v>
+      </c>
+      <c r="H1375" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1375" t="n">
+        <v>7.818727517953289</v>
+      </c>
+      <c r="J1375" t="n">
+        <v>2.238213573366044</v>
+      </c>
+      <c r="K1375" t="n">
+        <v>3.943906692608231</v>
+      </c>
+      <c r="L1375" t="n">
+        <v>6.502107350697925</v>
+      </c>
+      <c r="M1375" t="n">
+        <v>5.163574343417551</v>
+      </c>
+      <c r="N1375" t="n">
+        <v>104.2966442413178</v>
+      </c>
+      <c r="O1375" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="inlineStr">
+        <is>
+          <t>Sincelejo</t>
+        </is>
+      </c>
+      <c r="B1376" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1376" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D1376" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E1376" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1376" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1376" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1376" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1376" t="n">
+        <v>7.347958900266114</v>
+      </c>
+      <c r="J1376" t="n">
+        <v>2.221170862405682</v>
+      </c>
+      <c r="K1376" t="n">
+        <v>1.451344204522139</v>
+      </c>
+      <c r="L1376" t="n">
+        <v>5.496853645495758</v>
+      </c>
+      <c r="M1376" t="n">
+        <v>3.800328933131973</v>
+      </c>
+      <c r="N1376" t="n">
+        <v>103.4558359881162</v>
+      </c>
+      <c r="O1376" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="inlineStr">
+        <is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+      <c r="B1377" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C1377" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D1377" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E1377" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1377" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1377" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I1377" t="n">
+        <v>7.828793010419933</v>
+      </c>
+      <c r="J1377" t="n">
+        <v>10.95199068662862</v>
+      </c>
+      <c r="K1377" t="n">
+        <v>11.46511665880466</v>
+      </c>
+      <c r="L1377" t="n">
+        <v>14.57576413091266</v>
+      </c>
+      <c r="M1377" t="n">
+        <v>12.76675369857193</v>
+      </c>
+      <c r="N1377" t="n">
+        <v>94.46704451818105</v>
+      </c>
+      <c r="O1377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="B1378" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="C1378" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D1378" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E1378" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1378" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1378" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I1378" t="n">
+        <v>13.95779352190023</v>
+      </c>
+      <c r="J1378" t="n">
+        <v>16.05740016316465</v>
+      </c>
+      <c r="K1378" t="n">
+        <v>16.22870604823441</v>
+      </c>
+      <c r="L1378" t="n">
+        <v>18.540790166549</v>
+      </c>
+      <c r="M1378" t="n">
+        <v>17.14467847467546</v>
+      </c>
+      <c r="N1378" t="n">
+        <v>88.25481573262731</v>
+      </c>
+      <c r="O1378" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="inlineStr">
+        <is>
+          <t>Yopal</t>
+        </is>
+      </c>
+      <c r="B1379" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C1379" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D1379" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E1379" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1379" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1379" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1379" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1379" t="n">
+        <v>5.036705272298549</v>
+      </c>
+      <c r="J1379" t="n">
+        <v>4.670642354109336</v>
+      </c>
+      <c r="K1379" t="n">
+        <v>6.115758334008955</v>
+      </c>
+      <c r="L1379" t="n">
+        <v>9.404897660261913</v>
+      </c>
+      <c r="M1379" t="n">
+        <v>7.479331520931533</v>
+      </c>
+      <c r="N1379" t="n">
+        <v>104.2306140248632</v>
+      </c>
+      <c r="O1379" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="inlineStr">
+        <is>
+          <t>Popayán</t>
+        </is>
+      </c>
+      <c r="B1380" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C1380" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D1380" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E1380" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1380" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1380" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1380" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1380" t="n">
+        <v>5.059644256269407</v>
+      </c>
+      <c r="J1380" t="n">
+        <v>4.352252290481332</v>
+      </c>
+      <c r="K1380" t="n">
+        <v>4.083736034564429</v>
+      </c>
+      <c r="L1380" t="n">
+        <v>7.994054040347739</v>
+      </c>
+      <c r="M1380" t="n">
+        <v>5.922837157984339</v>
+      </c>
+      <c r="N1380" t="n">
+        <v>103.0422364858217</v>
+      </c>
+      <c r="O1380" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="inlineStr">
+        <is>
+          <t>Valledupar</t>
+        </is>
+      </c>
+      <c r="B1381" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C1381" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D1381" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E1381" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1381" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1381" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1381" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1381" t="n">
+        <v>6.469281258377936</v>
+      </c>
+      <c r="J1381" t="n">
+        <v>1.911151485361638</v>
+      </c>
+      <c r="K1381" t="n">
+        <v>2.934774267298934</v>
+      </c>
+      <c r="L1381" t="n">
+        <v>6.400320304484768</v>
+      </c>
+      <c r="M1381" t="n">
+        <v>4.473879748048665</v>
+      </c>
+      <c r="N1381" t="n">
+        <v>102.5902729307219</v>
+      </c>
+      <c r="O1381" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="B1382" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C1382" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D1382" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E1382" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1382" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1382" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1382" t="n">
+        <v>8.652334944972946</v>
+      </c>
+      <c r="J1382" t="n">
+        <v>2.071328076379983</v>
+      </c>
+      <c r="K1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1382" t="n">
+        <v>4.05075301641559</v>
+      </c>
+      <c r="M1382" t="n">
+        <v>2.581646761274671</v>
+      </c>
+      <c r="N1382" t="n">
+        <v>103.8687652761888</v>
+      </c>
+      <c r="O1382" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="inlineStr">
+        <is>
+          <t>Santa Marta</t>
+        </is>
+      </c>
+      <c r="B1383" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1383" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D1383" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E1383" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1383" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1383" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1383" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1383" t="n">
+        <v>4.227067541452349</v>
+      </c>
+      <c r="J1383" t="n">
+        <v>5.244997616777342</v>
+      </c>
+      <c r="K1383" t="n">
+        <v>6.438353826872208</v>
+      </c>
+      <c r="L1383" t="n">
+        <v>9.921320476630115</v>
+      </c>
+      <c r="M1383" t="n">
+        <v>7.896967772506103</v>
+      </c>
+      <c r="N1383" t="n">
+        <v>101.2384590953458</v>
+      </c>
+      <c r="O1383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="inlineStr">
+        <is>
+          <t>Neiva</t>
+        </is>
+      </c>
+      <c r="B1384" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C1384" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D1384" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E1384" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1384" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1384" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1384" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1384" t="n">
+        <v>4.392766781881323</v>
+      </c>
+      <c r="J1384" t="n">
+        <v>3.829738894493984</v>
+      </c>
+      <c r="K1384" t="n">
+        <v>4.27346463656832</v>
+      </c>
+      <c r="L1384" t="n">
+        <v>8.091235999524423</v>
+      </c>
+      <c r="M1384" t="n">
+        <v>5.864162344273904</v>
+      </c>
+      <c r="N1384" t="n">
+        <v>102.7977086320507</v>
+      </c>
+      <c r="O1384" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" t="inlineStr">
+        <is>
+          <t>Leticia</t>
+        </is>
+      </c>
+      <c r="B1385" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1385" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D1385" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E1385" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1385" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1385" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1385" t="n">
+        <v>7.802845634766845</v>
+      </c>
+      <c r="J1385" t="n">
+        <v>2.393512063892722</v>
+      </c>
+      <c r="K1385" t="n">
+        <v>4.451123453691214</v>
+      </c>
+      <c r="L1385" t="n">
+        <v>6.484913260792315</v>
+      </c>
+      <c r="M1385" t="n">
+        <v>4.826634438198111</v>
+      </c>
+      <c r="N1385" t="n">
+        <v>104.5232361726329</v>
+      </c>
+      <c r="O1385" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="B1386" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="C1386" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="D1386" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E1386" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1386" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1386" t="n">
+        <v>18</v>
+      </c>
+      <c r="I1386" t="n">
+        <v>101.4077536483281</v>
+      </c>
+      <c r="J1386" t="n">
+        <v>104.0181311118403</v>
+      </c>
+      <c r="K1386" t="n">
+        <v>103.8687652761888</v>
+      </c>
+      <c r="L1386" t="n">
+        <v>105.274409995972</v>
+      </c>
+      <c r="M1386" t="n">
+        <v>104.4180180811722</v>
+      </c>
+      <c r="N1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1386" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" t="inlineStr">
+        <is>
+          <t>Medellín</t>
+        </is>
+      </c>
+      <c r="B1387" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="C1387" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D1387" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E1387" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1387" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1387" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1387" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I1387" t="n">
+        <v>40.92443768703487</v>
+      </c>
+      <c r="J1387" t="n">
+        <v>43.7763920395457</v>
+      </c>
+      <c r="K1387" t="n">
+        <v>43.70900250520481</v>
+      </c>
+      <c r="L1387" t="n">
+        <v>45.464888650474</v>
+      </c>
+      <c r="M1387" t="n">
+        <v>44.33546661534082</v>
+      </c>
+      <c r="N1387" t="n">
+        <v>60.52563176043683</v>
+      </c>
+      <c r="O1387" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" t="inlineStr">
+        <is>
+          <t>Quibdó</t>
+        </is>
+      </c>
+      <c r="B1388" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C1388" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D1388" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E1388" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1388" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1388" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1388" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1388" t="n">
+        <v>10.04191216850655</v>
+      </c>
+      <c r="J1388" t="n">
+        <v>3.04927860321093</v>
+      </c>
+      <c r="K1388" t="n">
+        <v>2.581646761274671</v>
+      </c>
+      <c r="L1388" t="n">
+        <v>2.583969814065173</v>
+      </c>
+      <c r="M1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1388" t="n">
+        <v>104.4180180811722</v>
+      </c>
+      <c r="O1388" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="inlineStr">
+        <is>
+          <t>Manizales</t>
+        </is>
+      </c>
+      <c r="B1389" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C1389" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D1389" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E1389" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1389" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1389" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1389" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1389" t="n">
+        <v>7.973963882536715</v>
+      </c>
+      <c r="K1389" t="n">
+        <v>8.652334944972946</v>
+      </c>
+      <c r="L1389" t="n">
+        <v>12.40318104358717</v>
+      </c>
+      <c r="M1389" t="n">
+        <v>10.04191216850655</v>
+      </c>
+      <c r="N1389" t="n">
+        <v>101.4077536483281</v>
+      </c>
+      <c r="O1389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="B1390" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C1390" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D1390" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1390" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1390" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1390" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1390" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1390" t="n">
+        <v>2.771714270988263</v>
+      </c>
+      <c r="J1390" t="n">
+        <v>7.112728027979138</v>
+      </c>
+      <c r="K1390" t="n">
+        <v>8.201371836467361</v>
+      </c>
+      <c r="L1390" t="n">
+        <v>11.80635845635732</v>
+      </c>
+      <c r="M1390" t="n">
+        <v>9.618440622055115</v>
+      </c>
+      <c r="N1390" t="n">
+        <v>103.4501082648056</v>
+      </c>
+      <c r="O1390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="B1391" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C1391" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D1391" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E1391" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1391" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1391" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1391" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1391" t="n">
+        <v>3.123603688050071</v>
+      </c>
+      <c r="J1391" t="n">
+        <v>6.258306480190946</v>
+      </c>
+      <c r="K1391" t="n">
+        <v>6.466838485689896</v>
+      </c>
+      <c r="L1391" t="n">
+        <v>10.20473419546046</v>
+      </c>
+      <c r="M1391" t="n">
+        <v>7.919526500997391</v>
+      </c>
+      <c r="N1391" t="n">
+        <v>103.1764721242203</v>
+      </c>
+      <c r="O1391" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="inlineStr">
+        <is>
+          <t>Pereira</t>
+        </is>
+      </c>
+      <c r="B1392" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C1392" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D1392" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1392" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1392" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1392" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1392" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I1392" t="n">
+        <v>3.114883625434505</v>
+      </c>
+      <c r="J1392" t="n">
+        <v>7.990469322887111</v>
+      </c>
+      <c r="K1392" t="n">
+        <v>8.329969987941134</v>
+      </c>
+      <c r="L1392" t="n">
+        <v>12.12573296753644</v>
+      </c>
+      <c r="M1392" t="n">
+        <v>9.978602106507704</v>
+      </c>
+      <c r="N1392" t="n">
+        <v>98.96120451975106</v>
+      </c>
+      <c r="O1392" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="inlineStr">
+        <is>
+          <t>Mitú</t>
+        </is>
+      </c>
+      <c r="B1393" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C1393" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1393" t="n">
+        <v>20</v>
+      </c>
+      <c r="E1393" t="n">
+        <v>25</v>
+      </c>
+      <c r="F1393" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1393" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1393" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1393" t="n">
+        <v>12.40318104358717</v>
+      </c>
+      <c r="J1393" t="n">
+        <v>4.820435664958096</v>
+      </c>
+      <c r="K1393" t="n">
+        <v>4.05075301641559</v>
+      </c>
+      <c r="L1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1393" t="n">
+        <v>2.583969814065173</v>
+      </c>
+      <c r="N1393" t="n">
+        <v>105.274409995972</v>
+      </c>
+      <c r="O1393" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="inlineStr">
+        <is>
+          <t>Cali</t>
+        </is>
+      </c>
+      <c r="B1394" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="C1394" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="D1394" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E1394" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1394" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1394" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1394" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I1394" t="n">
+        <v>19.40025773024678</v>
+      </c>
+      <c r="J1394" t="n">
+        <v>21.69493258804922</v>
+      </c>
+      <c r="K1394" t="n">
+        <v>21.60418709417227</v>
+      </c>
+      <c r="L1394" t="n">
+        <v>23.63220049000939</v>
+      </c>
+      <c r="M1394" t="n">
+        <v>22.36492790062154</v>
+      </c>
+      <c r="N1394" t="n">
+        <v>82.50480289049844</v>
+      </c>
+      <c r="O1394" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="inlineStr">
+        <is>
+          <t>Montería</t>
+        </is>
+      </c>
+      <c r="B1395" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1395" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D1395" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E1395" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1395" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1395" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1395" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1395" t="n">
+        <v>5.049118734987325</v>
+      </c>
+      <c r="J1395" t="n">
+        <v>3.364951708420196</v>
+      </c>
+      <c r="K1395" t="n">
+        <v>4.343282169051419</v>
+      </c>
+      <c r="L1395" t="n">
+        <v>8.012047179092246</v>
+      </c>
+      <c r="M1395" t="n">
+        <v>6.022424760841765</v>
+      </c>
+      <c r="N1395" t="n">
+        <v>102.2951421133966</v>
+      </c>
+      <c r="O1395" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="inlineStr">
+        <is>
+          <t>Centroides Iteración 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="inlineStr">
+        <is>
+          <t>GDP (USD Billion)</t>
+        </is>
+      </c>
+      <c r="B1398" t="inlineStr">
+        <is>
+          <t>Population (Millions)</t>
+        </is>
+      </c>
+      <c r="C1398" t="inlineStr">
+        <is>
+          <t>Unemployment Rate (%)</t>
+        </is>
+      </c>
+      <c r="D1398" t="inlineStr">
+        <is>
+          <t>Average Age</t>
+        </is>
+      </c>
+      <c r="E1398" t="inlineStr">
+        <is>
+          <t>Women (%)</t>
+        </is>
+      </c>
+      <c r="F1398" t="inlineStr">
+        <is>
+          <t>Men (%)</t>
+        </is>
+      </c>
+      <c r="G1398" t="inlineStr">
+        <is>
+          <t>Budget (USD Billion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="B1399" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="C1399" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="D1399" t="n">
+        <v>32</v>
+      </c>
+      <c r="E1399" t="n">
+        <v>53</v>
+      </c>
+      <c r="F1399" t="n">
+        <v>47</v>
+      </c>
+      <c r="G1399" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B1400" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="C1400" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D1400" t="n">
+        <v>27</v>
+      </c>
+      <c r="E1400" t="n">
+        <v>51</v>
+      </c>
+      <c r="F1400" t="n">
+        <v>49</v>
+      </c>
+      <c r="G1400" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="B1401" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C1401" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="D1401" t="n">
+        <v>28</v>
+      </c>
+      <c r="E1401" t="n">
+        <v>51</v>
+      </c>
+      <c r="F1401" t="n">
+        <v>49</v>
+      </c>
+      <c r="G1401" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B1402" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C1402" t="n">
+        <v>20</v>
+      </c>
+      <c r="D1402" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1402" t="n">
+        <v>51</v>
+      </c>
+      <c r="F1402" t="n">
+        <v>49</v>
+      </c>
+      <c r="G1402" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="B1403" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="C1403" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D1403" t="n">
+        <v>26</v>
+      </c>
+      <c r="E1403" t="n">
+        <v>52</v>
+      </c>
+      <c r="F1403" t="n">
+        <v>48</v>
+      </c>
+      <c r="G1403" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="B1404" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="C1404" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D1404" t="n">
+        <v>32</v>
+      </c>
+      <c r="E1404" t="n">
+        <v>52</v>
+      </c>
+      <c r="F1404" t="n">
+        <v>48</v>
+      </c>
+      <c r="G1404" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" t="inlineStr">
+        <is>
+          <t>Iteración 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B1407" t="inlineStr">
+        <is>
+          <t>GDP (USD Billion)</t>
+        </is>
+      </c>
+      <c r="C1407" t="inlineStr">
+        <is>
+          <t>Population (Millions)</t>
+        </is>
+      </c>
+      <c r="D1407" t="inlineStr">
+        <is>
+          <t>Unemployment Rate (%)</t>
+        </is>
+      </c>
+      <c r="E1407" t="inlineStr">
+        <is>
+          <t>Average Age</t>
+        </is>
+      </c>
+      <c r="F1407" t="inlineStr">
+        <is>
+          <t>Women (%)</t>
+        </is>
+      </c>
+      <c r="G1407" t="inlineStr">
+        <is>
+          <t>Men (%)</t>
+        </is>
+      </c>
+      <c r="H1407" t="inlineStr">
+        <is>
+          <t>Budget (USD Billion)</t>
+        </is>
+      </c>
+      <c r="I1407" t="inlineStr">
+        <is>
+          <t>dis_C0</t>
+        </is>
+      </c>
+      <c r="J1407" t="inlineStr">
+        <is>
+          <t>dis_C1</t>
+        </is>
+      </c>
+      <c r="K1407" t="inlineStr">
+        <is>
+          <t>dis_C2</t>
+        </is>
+      </c>
+      <c r="L1407" t="inlineStr">
+        <is>
+          <t>dis_C3</t>
+        </is>
+      </c>
+      <c r="M1407" t="inlineStr">
+        <is>
+          <t>dis_C4</t>
+        </is>
+      </c>
+      <c r="N1407" t="inlineStr">
+        <is>
+          <t>dis_C5</t>
+        </is>
+      </c>
+      <c r="O1407" t="inlineStr">
+        <is>
+          <t>Cluster</t>
+        </is>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408" t="inlineStr">
+        <is>
+          <t>Pasto</t>
+        </is>
+      </c>
+      <c r="B1408" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C1408" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D1408" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E1408" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1408" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1408" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1408" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1408" t="n">
+        <v>7.768202617132641</v>
+      </c>
+      <c r="J1408" t="n">
+        <v>3.724534212762827</v>
+      </c>
+      <c r="K1408" t="n">
+        <v>4.176542961722186</v>
+      </c>
+      <c r="L1408" t="n">
+        <v>9.76094769989062</v>
+      </c>
+      <c r="M1408" t="n">
+        <v>7.547343903652462</v>
+      </c>
+      <c r="N1408" t="n">
+        <v>102.036429278959</v>
+      </c>
+      <c r="O1408" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409" t="inlineStr">
+        <is>
+          <t>Riohacha</t>
+        </is>
+      </c>
+      <c r="B1409" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C1409" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D1409" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E1409" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1409" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1409" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1409" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1409" t="n">
+        <v>10.87183596985219</v>
+      </c>
+      <c r="J1409" t="n">
+        <v>2.106757349723087</v>
+      </c>
+      <c r="K1409" t="n">
+        <v>2.537113407879996</v>
+      </c>
+      <c r="L1409" t="n">
+        <v>4.820435664958096</v>
+      </c>
+      <c r="M1409" t="n">
+        <v>3.04927860321093</v>
+      </c>
+      <c r="N1409" t="n">
+        <v>104.0181311118403</v>
+      </c>
+      <c r="O1409" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410" t="inlineStr">
+        <is>
+          <t>Villavicencio</t>
+        </is>
+      </c>
+      <c r="B1410" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C1410" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D1410" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1410" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1410" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1410" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1410" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1410" t="n">
+        <v>7.595262823324276</v>
+      </c>
+      <c r="J1410" t="n">
+        <v>2.768872532645881</v>
+      </c>
+      <c r="K1410" t="n">
+        <v>3.826313862946661</v>
+      </c>
+      <c r="L1410" t="n">
+        <v>9.090797544770206</v>
+      </c>
+      <c r="M1410" t="n">
+        <v>7.089915373260811</v>
+      </c>
+      <c r="N1410" t="n">
+        <v>101.7482795923351</v>
+      </c>
+      <c r="O1410" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" t="inlineStr">
+        <is>
+          <t>San Andrés</t>
+        </is>
+      </c>
+      <c r="B1411" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C1411" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D1411" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1411" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1411" t="n">
+        <v>50</v>
+      </c>
+      <c r="G1411" t="n">
+        <v>50</v>
+      </c>
+      <c r="H1411" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1411" t="n">
+        <v>10.96859231421115</v>
+      </c>
+      <c r="J1411" t="n">
+        <v>1.878897310137203</v>
+      </c>
+      <c r="K1411" t="n">
+        <v>3.937919642541113</v>
+      </c>
+      <c r="L1411" t="n">
+        <v>6.502107350697925</v>
+      </c>
+      <c r="M1411" t="n">
+        <v>5.163574343417551</v>
+      </c>
+      <c r="N1411" t="n">
+        <v>104.2966442413178</v>
+      </c>
+      <c r="O1411" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412" t="inlineStr">
+        <is>
+          <t>Sincelejo</t>
+        </is>
+      </c>
+      <c r="B1412" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1412" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D1412" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E1412" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1412" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1412" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1412" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1412" t="n">
+        <v>10.22112869994437</v>
+      </c>
+      <c r="J1412" t="n">
+        <v>2.804378864619853</v>
+      </c>
+      <c r="K1412" t="n">
+        <v>0.5869790834812143</v>
+      </c>
+      <c r="L1412" t="n">
+        <v>5.496853645495758</v>
+      </c>
+      <c r="M1412" t="n">
+        <v>3.800328933131973</v>
+      </c>
+      <c r="N1412" t="n">
+        <v>103.4558359881162</v>
+      </c>
+      <c r="O1412" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413" t="inlineStr">
+        <is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+      <c r="B1413" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C1413" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D1413" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E1413" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1413" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1413" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1413" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I1413" t="n">
+        <v>1.953288390686351</v>
+      </c>
+      <c r="J1413" t="n">
+        <v>9.684555345750157</v>
+      </c>
+      <c r="K1413" t="n">
+        <v>10.44934022372279</v>
+      </c>
+      <c r="L1413" t="n">
+        <v>14.57576413091266</v>
+      </c>
+      <c r="M1413" t="n">
+        <v>12.76675369857193</v>
+      </c>
+      <c r="N1413" t="n">
+        <v>94.46704451818105</v>
+      </c>
+      <c r="O1413" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="B1414" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="C1414" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D1414" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E1414" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1414" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1414" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1414" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I1414" t="n">
+        <v>6.485751452285731</v>
+      </c>
+      <c r="J1414" t="n">
+        <v>15.30949418644842</v>
+      </c>
+      <c r="K1414" t="n">
+        <v>15.5958128283773</v>
+      </c>
+      <c r="L1414" t="n">
+        <v>18.540790166549</v>
+      </c>
+      <c r="M1414" t="n">
+        <v>17.14467847467546</v>
+      </c>
+      <c r="N1414" t="n">
+        <v>88.25481573262731</v>
+      </c>
+      <c r="O1414" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415" t="inlineStr">
+        <is>
+          <t>Yopal</t>
+        </is>
+      </c>
+      <c r="B1415" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C1415" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D1415" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E1415" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1415" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1415" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1415" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1415" t="n">
+        <v>10.10440358956561</v>
+      </c>
+      <c r="J1415" t="n">
+        <v>2.707953516014991</v>
+      </c>
+      <c r="K1415" t="n">
+        <v>5.023827668665046</v>
+      </c>
+      <c r="L1415" t="n">
+        <v>9.404897660261913</v>
+      </c>
+      <c r="M1415" t="n">
+        <v>7.479331520931533</v>
+      </c>
+      <c r="N1415" t="n">
+        <v>104.2306140248632</v>
+      </c>
+      <c r="O1415" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" t="inlineStr">
+        <is>
+          <t>Popayán</t>
+        </is>
+      </c>
+      <c r="B1416" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C1416" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D1416" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E1416" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1416" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1416" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1416" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1416" t="n">
+        <v>9.219754931218914</v>
+      </c>
+      <c r="J1416" t="n">
+        <v>3.595717407342989</v>
+      </c>
+      <c r="K1416" t="n">
+        <v>2.280652927952384</v>
+      </c>
+      <c r="L1416" t="n">
+        <v>7.994054040347739</v>
+      </c>
+      <c r="M1416" t="n">
+        <v>5.922837157984339</v>
+      </c>
+      <c r="N1416" t="n">
+        <v>103.0422364858217</v>
+      </c>
+      <c r="O1416" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417" t="inlineStr">
+        <is>
+          <t>Valledupar</t>
+        </is>
+      </c>
+      <c r="B1417" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C1417" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D1417" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E1417" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1417" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1417" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1417" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1417" t="n">
+        <v>9.076330310253502</v>
+      </c>
+      <c r="J1417" t="n">
+        <v>1.337454176212924</v>
+      </c>
+      <c r="K1417" t="n">
+        <v>2.292984469589313</v>
+      </c>
+      <c r="L1417" t="n">
+        <v>6.400320304484768</v>
+      </c>
+      <c r="M1417" t="n">
+        <v>4.473879748048665</v>
+      </c>
+      <c r="N1417" t="n">
+        <v>102.5902729307219</v>
+      </c>
+      <c r="O1417" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="B1418" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C1418" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D1418" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E1418" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1418" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1418" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1418" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1418" t="n">
+        <v>11.16081697445084</v>
+      </c>
+      <c r="J1418" t="n">
+        <v>3.618851153815172</v>
+      </c>
+      <c r="K1418" t="n">
+        <v>1.819160367984208</v>
+      </c>
+      <c r="L1418" t="n">
+        <v>4.05075301641559</v>
+      </c>
+      <c r="M1418" t="n">
+        <v>2.581646761274671</v>
+      </c>
+      <c r="N1418" t="n">
+        <v>103.8687652761888</v>
+      </c>
+      <c r="O1418" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419" t="inlineStr">
+        <is>
+          <t>Santa Marta</t>
+        </is>
+      </c>
+      <c r="B1419" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1419" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D1419" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E1419" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1419" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1419" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1419" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1419" t="n">
+        <v>7.196672153338973</v>
+      </c>
+      <c r="J1419" t="n">
+        <v>3.329886006506308</v>
+      </c>
+      <c r="K1419" t="n">
+        <v>5.255816883331376</v>
+      </c>
+      <c r="L1419" t="n">
+        <v>9.921320476630115</v>
+      </c>
+      <c r="M1419" t="n">
+        <v>7.896967772506103</v>
+      </c>
+      <c r="N1419" t="n">
+        <v>101.2384590953458</v>
+      </c>
+      <c r="O1419" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420" t="inlineStr">
+        <is>
+          <t>Neiva</t>
+        </is>
+      </c>
+      <c r="B1420" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C1420" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D1420" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E1420" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1420" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1420" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1420" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1420" t="n">
+        <v>8.702312602297113</v>
+      </c>
+      <c r="J1420" t="n">
+        <v>2.548587443895868</v>
+      </c>
+      <c r="K1420" t="n">
+        <v>2.626311312680033</v>
+      </c>
+      <c r="L1420" t="n">
+        <v>8.091235999524423</v>
+      </c>
+      <c r="M1420" t="n">
+        <v>5.864162344273904</v>
+      </c>
+      <c r="N1420" t="n">
+        <v>102.7977086320507</v>
+      </c>
+      <c r="O1420" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" t="inlineStr">
+        <is>
+          <t>Leticia</t>
+        </is>
+      </c>
+      <c r="B1421" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1421" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D1421" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E1421" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1421" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1421" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1421" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1421" t="n">
+        <v>11.21588439713594</v>
+      </c>
+      <c r="J1421" t="n">
+        <v>2.22848717789464</v>
+      </c>
+      <c r="K1421" t="n">
+        <v>4.511782106637885</v>
+      </c>
+      <c r="L1421" t="n">
+        <v>6.484913260792315</v>
+      </c>
+      <c r="M1421" t="n">
+        <v>4.826634438198111</v>
+      </c>
+      <c r="N1421" t="n">
+        <v>104.5232361726329</v>
+      </c>
+      <c r="O1421" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="B1422" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="C1422" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="D1422" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E1422" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1422" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1422" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1422" t="n">
+        <v>18</v>
+      </c>
+      <c r="I1422" t="n">
+        <v>94.32147070278955</v>
+      </c>
+      <c r="J1422" t="n">
+        <v>103.5181086889179</v>
+      </c>
+      <c r="K1422" t="n">
+        <v>103.4418961435732</v>
+      </c>
+      <c r="L1422" t="n">
+        <v>105.274409995972</v>
+      </c>
+      <c r="M1422" t="n">
+        <v>104.4180180811722</v>
+      </c>
+      <c r="N1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1422" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423" t="inlineStr">
+        <is>
+          <t>Medellín</t>
+        </is>
+      </c>
+      <c r="B1423" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="C1423" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D1423" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E1423" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1423" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1423" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1423" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I1423" t="n">
+        <v>33.85936622253488</v>
+      </c>
+      <c r="J1423" t="n">
+        <v>43.16736115849282</v>
+      </c>
+      <c r="K1423" t="n">
+        <v>43.15716755199664</v>
+      </c>
+      <c r="L1423" t="n">
+        <v>45.464888650474</v>
+      </c>
+      <c r="M1423" t="n">
+        <v>44.33546661534082</v>
+      </c>
+      <c r="N1423" t="n">
+        <v>60.52563176043683</v>
+      </c>
+      <c r="O1423" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424" t="inlineStr">
+        <is>
+          <t>Quibdó</t>
+        </is>
+      </c>
+      <c r="B1424" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C1424" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D1424" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E1424" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1424" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1424" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1424" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1424" t="n">
+        <v>12.39159059020963</v>
+      </c>
+      <c r="J1424" t="n">
+        <v>4.996345603313997</v>
+      </c>
+      <c r="K1424" t="n">
+        <v>3.972074744737032</v>
+      </c>
+      <c r="L1424" t="n">
+        <v>2.583969814065173</v>
+      </c>
+      <c r="M1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1424" t="n">
+        <v>104.4180180811722</v>
+      </c>
+      <c r="O1424" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425" t="inlineStr">
+        <is>
+          <t>Manizales</t>
+        </is>
+      </c>
+      <c r="B1425" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C1425" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D1425" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E1425" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1425" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1425" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1425" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1425" t="n">
+        <v>7.50133740141832</v>
+      </c>
+      <c r="J1425" t="n">
+        <v>6.170022988082733</v>
+      </c>
+      <c r="K1425" t="n">
+        <v>6.966590111222118</v>
+      </c>
+      <c r="L1425" t="n">
+        <v>12.40318104358717</v>
+      </c>
+      <c r="M1425" t="n">
+        <v>10.04191216850655</v>
+      </c>
+      <c r="N1425" t="n">
+        <v>101.4077536483281</v>
+      </c>
+      <c r="O1425" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="B1426" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C1426" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D1426" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1426" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1426" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1426" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1426" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1426" t="n">
+        <v>9.365656269337022</v>
+      </c>
+      <c r="J1426" t="n">
+        <v>5.109222553582963</v>
+      </c>
+      <c r="K1426" t="n">
+        <v>6.683674970486756</v>
+      </c>
+      <c r="L1426" t="n">
+        <v>11.80635845635732</v>
+      </c>
+      <c r="M1426" t="n">
+        <v>9.618440622055115</v>
+      </c>
+      <c r="N1426" t="n">
+        <v>103.4501082648056</v>
+      </c>
+      <c r="O1426" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="B1427" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C1427" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D1427" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E1427" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1427" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1427" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1427" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1427" t="n">
+        <v>9.161699876556707</v>
+      </c>
+      <c r="J1427" t="n">
+        <v>4.940656198671325</v>
+      </c>
+      <c r="K1427" t="n">
+        <v>4.721088622105899</v>
+      </c>
+      <c r="L1427" t="n">
+        <v>10.20473419546046</v>
+      </c>
+      <c r="M1427" t="n">
+        <v>7.919526500997391</v>
+      </c>
+      <c r="N1427" t="n">
+        <v>103.1764721242203</v>
+      </c>
+      <c r="O1427" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428" t="inlineStr">
+        <is>
+          <t>Pereira</t>
+        </is>
+      </c>
+      <c r="B1428" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C1428" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D1428" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1428" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1428" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1428" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1428" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I1428" t="n">
+        <v>4.848919194559947</v>
+      </c>
+      <c r="J1428" t="n">
+        <v>6.416961738952764</v>
+      </c>
+      <c r="K1428" t="n">
+        <v>6.763027757184237</v>
+      </c>
+      <c r="L1428" t="n">
+        <v>12.12573296753644</v>
+      </c>
+      <c r="M1428" t="n">
+        <v>9.978602106507704</v>
+      </c>
+      <c r="N1428" t="n">
+        <v>98.96120451975106</v>
+      </c>
+      <c r="O1428" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429" t="inlineStr">
+        <is>
+          <t>Mitú</t>
+        </is>
+      </c>
+      <c r="B1429" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C1429" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1429" t="n">
+        <v>20</v>
+      </c>
+      <c r="E1429" t="n">
+        <v>25</v>
+      </c>
+      <c r="F1429" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1429" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1429" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1429" t="n">
+        <v>14.28151058635252</v>
+      </c>
+      <c r="J1429" t="n">
+        <v>6.923238153538578</v>
+      </c>
+      <c r="K1429" t="n">
+        <v>5.821615850527334</v>
+      </c>
+      <c r="L1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1429" t="n">
+        <v>2.583969814065173</v>
+      </c>
+      <c r="N1429" t="n">
+        <v>105.274409995972</v>
+      </c>
+      <c r="O1429" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" t="inlineStr">
+        <is>
+          <t>Cali</t>
+        </is>
+      </c>
+      <c r="B1430" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="C1430" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="D1430" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E1430" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1430" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1430" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1430" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I1430" t="n">
+        <v>12.05519386710781</v>
+      </c>
+      <c r="J1430" t="n">
+        <v>21.1155132061521</v>
+      </c>
+      <c r="K1430" t="n">
+        <v>21.02457398167942</v>
+      </c>
+      <c r="L1430" t="n">
+        <v>23.63220049000939</v>
+      </c>
+      <c r="M1430" t="n">
+        <v>22.36492790062154</v>
+      </c>
+      <c r="N1430" t="n">
+        <v>82.50480289049844</v>
+      </c>
+      <c r="O1430" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431" t="inlineStr">
+        <is>
+          <t>Montería</t>
+        </is>
+      </c>
+      <c r="B1431" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1431" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D1431" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E1431" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1431" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1431" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1431" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1431" t="n">
+        <v>8.307767947196332</v>
+      </c>
+      <c r="J1431" t="n">
+        <v>1.604613247318302</v>
+      </c>
+      <c r="K1431" t="n">
+        <v>3.137861975577924</v>
+      </c>
+      <c r="L1431" t="n">
+        <v>8.012047179092246</v>
+      </c>
+      <c r="M1431" t="n">
+        <v>6.022424760841765</v>
+      </c>
+      <c r="N1431" t="n">
+        <v>102.2951421133966</v>
+      </c>
+      <c r="O1431" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432" t="inlineStr">
+        <is>
+          <t>Centroides Iteración 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434" t="inlineStr">
+        <is>
+          <t>GDP (USD Billion)</t>
+        </is>
+      </c>
+      <c r="B1434" t="inlineStr">
+        <is>
+          <t>Population (Millions)</t>
+        </is>
+      </c>
+      <c r="C1434" t="inlineStr">
+        <is>
+          <t>Unemployment Rate (%)</t>
+        </is>
+      </c>
+      <c r="D1434" t="inlineStr">
+        <is>
+          <t>Average Age</t>
+        </is>
+      </c>
+      <c r="E1434" t="inlineStr">
+        <is>
+          <t>Women (%)</t>
+        </is>
+      </c>
+      <c r="F1434" t="inlineStr">
+        <is>
+          <t>Men (%)</t>
+        </is>
+      </c>
+      <c r="G1434" t="inlineStr">
+        <is>
+          <t>Budget (USD Billion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" t="n">
+        <v>10.76363636363636</v>
+      </c>
+      <c r="B1435" t="n">
+        <v>0.9081818181818182</v>
+      </c>
+      <c r="C1435" t="n">
+        <v>11.98181818181818</v>
+      </c>
+      <c r="D1435" t="n">
+        <v>30.63636363636364</v>
+      </c>
+      <c r="E1435" t="n">
+        <v>51.90909090909091</v>
+      </c>
+      <c r="F1435" t="n">
+        <v>48.09090909090909</v>
+      </c>
+      <c r="G1435" t="n">
+        <v>2.090909090909091</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" t="n">
+        <v>1.871428571428571</v>
+      </c>
+      <c r="B1436" t="n">
+        <v>0.2585714285714286</v>
+      </c>
+      <c r="C1436" t="n">
+        <v>13.88571428571428</v>
+      </c>
+      <c r="D1436" t="n">
+        <v>28</v>
+      </c>
+      <c r="E1436" t="n">
+        <v>51</v>
+      </c>
+      <c r="F1436" t="n">
+        <v>49</v>
+      </c>
+      <c r="G1436" t="n">
+        <v>0.3857142857142857</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437" t="n">
+        <v>2</v>
+      </c>
+      <c r="B1437" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="C1437" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D1437" t="n">
+        <v>29.33333333333333</v>
+      </c>
+      <c r="E1437" t="n">
+        <v>51.33333333333334</v>
+      </c>
+      <c r="F1437" t="n">
+        <v>48.66666666666666</v>
+      </c>
+      <c r="G1437" t="n">
+        <v>0.4666666666666666</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B1438" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C1438" t="n">
+        <v>20</v>
+      </c>
+      <c r="D1438" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1438" t="n">
+        <v>51</v>
+      </c>
+      <c r="F1438" t="n">
+        <v>49</v>
+      </c>
+      <c r="G1438" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="B1439" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="C1439" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D1439" t="n">
+        <v>26</v>
+      </c>
+      <c r="E1439" t="n">
+        <v>52</v>
+      </c>
+      <c r="F1439" t="n">
+        <v>48</v>
+      </c>
+      <c r="G1439" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="B1440" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="C1440" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D1440" t="n">
+        <v>32</v>
+      </c>
+      <c r="E1440" t="n">
+        <v>52</v>
+      </c>
+      <c r="F1440" t="n">
+        <v>48</v>
+      </c>
+      <c r="G1440" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441" t="inlineStr">
+        <is>
+          <t>Iteración 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B1443" t="inlineStr">
+        <is>
+          <t>GDP (USD Billion)</t>
+        </is>
+      </c>
+      <c r="C1443" t="inlineStr">
+        <is>
+          <t>Population (Millions)</t>
+        </is>
+      </c>
+      <c r="D1443" t="inlineStr">
+        <is>
+          <t>Unemployment Rate (%)</t>
+        </is>
+      </c>
+      <c r="E1443" t="inlineStr">
+        <is>
+          <t>Average Age</t>
+        </is>
+      </c>
+      <c r="F1443" t="inlineStr">
+        <is>
+          <t>Women (%)</t>
+        </is>
+      </c>
+      <c r="G1443" t="inlineStr">
+        <is>
+          <t>Men (%)</t>
+        </is>
+      </c>
+      <c r="H1443" t="inlineStr">
+        <is>
+          <t>Budget (USD Billion)</t>
+        </is>
+      </c>
+      <c r="I1443" t="inlineStr">
+        <is>
+          <t>dis_C0</t>
+        </is>
+      </c>
+      <c r="J1443" t="inlineStr">
+        <is>
+          <t>dis_C1</t>
+        </is>
+      </c>
+      <c r="K1443" t="inlineStr">
+        <is>
+          <t>dis_C2</t>
+        </is>
+      </c>
+      <c r="L1443" t="inlineStr">
+        <is>
+          <t>dis_C3</t>
+        </is>
+      </c>
+      <c r="M1443" t="inlineStr">
+        <is>
+          <t>dis_C4</t>
+        </is>
+      </c>
+      <c r="N1443" t="inlineStr">
+        <is>
+          <t>dis_C5</t>
+        </is>
+      </c>
+      <c r="O1443" t="inlineStr">
+        <is>
+          <t>Cluster</t>
+        </is>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444" t="inlineStr">
+        <is>
+          <t>Pasto</t>
+        </is>
+      </c>
+      <c r="B1444" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C1444" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D1444" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E1444" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1444" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1444" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1444" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1444" t="n">
+        <v>17.14617636675886</v>
+      </c>
+      <c r="J1444" t="n">
+        <v>2.274318579267205</v>
+      </c>
+      <c r="K1444" t="n">
+        <v>3.164116187816117</v>
+      </c>
+      <c r="L1444" t="n">
+        <v>9.76094769989062</v>
+      </c>
+      <c r="M1444" t="n">
+        <v>7.547343903652462</v>
+      </c>
+      <c r="N1444" t="n">
+        <v>102.036429278959</v>
+      </c>
+      <c r="O1444" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" t="inlineStr">
+        <is>
+          <t>Riohacha</t>
+        </is>
+      </c>
+      <c r="B1445" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C1445" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D1445" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E1445" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1445" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1445" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1445" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1445" t="n">
+        <v>19.54760711698493</v>
+      </c>
+      <c r="J1445" t="n">
+        <v>3.618041597328589</v>
+      </c>
+      <c r="K1445" t="n">
+        <v>3.231126931892339</v>
+      </c>
+      <c r="L1445" t="n">
+        <v>4.820435664958096</v>
+      </c>
+      <c r="M1445" t="n">
+        <v>3.04927860321093</v>
+      </c>
+      <c r="N1445" t="n">
+        <v>104.0181311118403</v>
+      </c>
+      <c r="O1445" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446" t="inlineStr">
+        <is>
+          <t>Villavicencio</t>
+        </is>
+      </c>
+      <c r="B1446" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C1446" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D1446" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1446" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1446" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1446" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1446" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1446" t="n">
+        <v>16.86624036351908</v>
+      </c>
+      <c r="J1446" t="n">
+        <v>1.507323787379475</v>
+      </c>
+      <c r="K1446" t="n">
+        <v>3.216579122297476</v>
+      </c>
+      <c r="L1446" t="n">
+        <v>9.090797544770206</v>
+      </c>
+      <c r="M1446" t="n">
+        <v>7.089915373260811</v>
+      </c>
+      <c r="N1446" t="n">
+        <v>101.7482795923351</v>
+      </c>
+      <c r="O1446" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447" t="inlineStr">
+        <is>
+          <t>San Andrés</t>
+        </is>
+      </c>
+      <c r="B1447" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C1447" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D1447" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1447" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1447" t="n">
+        <v>50</v>
+      </c>
+      <c r="G1447" t="n">
+        <v>50</v>
+      </c>
+      <c r="H1447" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1447" t="n">
+        <v>19.75092868702634</v>
+      </c>
+      <c r="J1447" t="n">
+        <v>3.275508866318842</v>
+      </c>
+      <c r="K1447" t="n">
+        <v>4.308234122004049</v>
+      </c>
+      <c r="L1447" t="n">
+        <v>6.502107350697925</v>
+      </c>
+      <c r="M1447" t="n">
+        <v>5.163574343417551</v>
+      </c>
+      <c r="N1447" t="n">
+        <v>104.2966442413178</v>
+      </c>
+      <c r="O1447" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448" t="inlineStr">
+        <is>
+          <t>Sincelejo</t>
+        </is>
+      </c>
+      <c r="B1448" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1448" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D1448" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E1448" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1448" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1448" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1448" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1448" t="n">
+        <v>18.95309958819401</v>
+      </c>
+      <c r="J1448" t="n">
+        <v>3.610718995804947</v>
+      </c>
+      <c r="K1448" t="n">
+        <v>1.700553218808515</v>
+      </c>
+      <c r="L1448" t="n">
+        <v>5.496853645495758</v>
+      </c>
+      <c r="M1448" t="n">
+        <v>3.800328933131973</v>
+      </c>
+      <c r="N1448" t="n">
+        <v>103.4558359881162</v>
+      </c>
+      <c r="O1448" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" t="inlineStr">
+        <is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+      <c r="B1449" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C1449" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D1449" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E1449" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1449" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1449" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1449" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I1449" t="n">
+        <v>9.706929689659857</v>
+      </c>
+      <c r="J1449" t="n">
+        <v>8.702478095347324</v>
+      </c>
+      <c r="K1449" t="n">
+        <v>10.06221303938651</v>
+      </c>
+      <c r="L1449" t="n">
+        <v>14.57576413091266</v>
+      </c>
+      <c r="M1449" t="n">
+        <v>12.76675369857193</v>
+      </c>
+      <c r="N1449" t="n">
+        <v>94.46704451818105</v>
+      </c>
+      <c r="O1449" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="B1450" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="C1450" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D1450" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E1450" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1450" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1450" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1450" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I1450" t="n">
+        <v>3.759692008662409</v>
+      </c>
+      <c r="J1450" t="n">
+        <v>14.62514244944871</v>
+      </c>
+      <c r="K1450" t="n">
+        <v>15.44746358629791</v>
+      </c>
+      <c r="L1450" t="n">
+        <v>18.540790166549</v>
+      </c>
+      <c r="M1450" t="n">
+        <v>17.14467847467546</v>
+      </c>
+      <c r="N1450" t="n">
+        <v>88.25481573262731</v>
+      </c>
+      <c r="O1450" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451" t="inlineStr">
+        <is>
+          <t>Yopal</t>
+        </is>
+      </c>
+      <c r="B1451" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C1451" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D1451" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E1451" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1451" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1451" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1451" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1451" t="n">
+        <v>19.37586550324913</v>
+      </c>
+      <c r="J1451" t="n">
+        <v>2.071760523483991</v>
+      </c>
+      <c r="K1451" t="n">
+        <v>4.481978497271044</v>
+      </c>
+      <c r="L1451" t="n">
+        <v>9.404897660261913</v>
+      </c>
+      <c r="M1451" t="n">
+        <v>7.479331520931533</v>
+      </c>
+      <c r="N1451" t="n">
+        <v>104.2306140248632</v>
+      </c>
+      <c r="O1451" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452" t="inlineStr">
+        <is>
+          <t>Popayán</t>
+        </is>
+      </c>
+      <c r="B1452" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C1452" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D1452" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E1452" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1452" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1452" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1452" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1452" t="n">
+        <v>18.32309155137309</v>
+      </c>
+      <c r="J1452" t="n">
+        <v>3.106143106812692</v>
+      </c>
+      <c r="K1452" t="n">
+        <v>1.176703552301938</v>
+      </c>
+      <c r="L1452" t="n">
+        <v>7.994054040347739</v>
+      </c>
+      <c r="M1452" t="n">
+        <v>5.922837157984339</v>
+      </c>
+      <c r="N1452" t="n">
+        <v>103.0422364858217</v>
+      </c>
+      <c r="O1452" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453" t="inlineStr">
+        <is>
+          <t>Valledupar</t>
+        </is>
+      </c>
+      <c r="B1453" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C1453" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D1453" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E1453" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1453" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1453" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1453" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1453" t="n">
+        <v>17.93258051703658</v>
+      </c>
+      <c r="J1453" t="n">
+        <v>2.228465466040106</v>
+      </c>
+      <c r="K1453" t="n">
+        <v>2.541442749699469</v>
+      </c>
+      <c r="L1453" t="n">
+        <v>6.400320304484768</v>
+      </c>
+      <c r="M1453" t="n">
+        <v>4.473879748048665</v>
+      </c>
+      <c r="N1453" t="n">
+        <v>102.5902729307219</v>
+      </c>
+      <c r="O1453" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="B1454" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C1454" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D1454" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E1454" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1454" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1454" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1454" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1454" t="n">
+        <v>19.61272199364484</v>
+      </c>
+      <c r="J1454" t="n">
+        <v>4.763754646634665</v>
+      </c>
+      <c r="K1454" t="n">
+        <v>2.959371766101718</v>
+      </c>
+      <c r="L1454" t="n">
+        <v>4.05075301641559</v>
+      </c>
+      <c r="M1454" t="n">
+        <v>2.581646761274671</v>
+      </c>
+      <c r="N1454" t="n">
+        <v>103.8687652761888</v>
+      </c>
+      <c r="O1454" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455" t="inlineStr">
+        <is>
+          <t>Santa Marta</t>
+        </is>
+      </c>
+      <c r="B1455" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1455" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D1455" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E1455" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1455" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1455" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1455" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1455" t="n">
+        <v>16.39274668870351</v>
+      </c>
+      <c r="J1455" t="n">
+        <v>2.151950665481591</v>
+      </c>
+      <c r="K1455" t="n">
+        <v>4.739797595889512</v>
+      </c>
+      <c r="L1455" t="n">
+        <v>9.921320476630115</v>
+      </c>
+      <c r="M1455" t="n">
+        <v>7.896967772506103</v>
+      </c>
+      <c r="N1455" t="n">
+        <v>101.2384590953458</v>
+      </c>
+      <c r="O1455" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456" t="inlineStr">
+        <is>
+          <t>Neiva</t>
+        </is>
+      </c>
+      <c r="B1456" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C1456" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D1456" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E1456" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1456" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1456" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1456" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1456" t="n">
+        <v>17.94728291413494</v>
+      </c>
+      <c r="J1456" t="n">
+        <v>1.749340351866002</v>
+      </c>
+      <c r="K1456" t="n">
+        <v>1.642294507693429</v>
+      </c>
+      <c r="L1456" t="n">
+        <v>8.091235999524423</v>
+      </c>
+      <c r="M1456" t="n">
+        <v>5.864162344273904</v>
+      </c>
+      <c r="N1456" t="n">
+        <v>102.7977086320507</v>
+      </c>
+      <c r="O1456" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457" t="inlineStr">
+        <is>
+          <t>Leticia</t>
+        </is>
+      </c>
+      <c r="B1457" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1457" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D1457" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E1457" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1457" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1457" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1457" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1457" t="n">
+        <v>19.99199249699739</v>
+      </c>
+      <c r="J1457" t="n">
+        <v>3.537398997380231</v>
+      </c>
+      <c r="K1457" t="n">
+        <v>4.740108780397344</v>
+      </c>
+      <c r="L1457" t="n">
+        <v>6.484913260792315</v>
+      </c>
+      <c r="M1457" t="n">
+        <v>4.826634438198111</v>
+      </c>
+      <c r="N1457" t="n">
+        <v>104.5232361726329</v>
+      </c>
+      <c r="O1457" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="B1458" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="C1458" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="D1458" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E1458" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1458" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1458" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1458" t="n">
+        <v>18</v>
+      </c>
+      <c r="I1458" t="n">
+        <v>84.92174977000886</v>
+      </c>
+      <c r="J1458" t="n">
+        <v>102.8532885149198</v>
+      </c>
+      <c r="K1458" t="n">
+        <v>103.3553887383237</v>
+      </c>
+      <c r="L1458" t="n">
+        <v>105.274409995972</v>
+      </c>
+      <c r="M1458" t="n">
+        <v>104.4180180811722</v>
+      </c>
+      <c r="N1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1458" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="inlineStr">
+        <is>
+          <t>Medellín</t>
+        </is>
+      </c>
+      <c r="B1459" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="C1459" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D1459" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E1459" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1459" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1459" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1459" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I1459" t="n">
+        <v>24.48991310723662</v>
+      </c>
+      <c r="J1459" t="n">
+        <v>42.43444817205317</v>
+      </c>
+      <c r="K1459" t="n">
+        <v>42.99555129603527</v>
+      </c>
+      <c r="L1459" t="n">
+        <v>45.464888650474</v>
+      </c>
+      <c r="M1459" t="n">
+        <v>44.33546661534082</v>
+      </c>
+      <c r="N1459" t="n">
+        <v>60.52563176043683</v>
+      </c>
+      <c r="O1459" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="inlineStr">
+        <is>
+          <t>Quibdó</t>
+        </is>
+      </c>
+      <c r="B1460" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C1460" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D1460" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E1460" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1460" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1460" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1460" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1460" t="n">
+        <v>20.51435799629128</v>
+      </c>
+      <c r="J1460" t="n">
+        <v>6.27466798590438</v>
+      </c>
+      <c r="K1460" t="n">
+        <v>4.830489752602731</v>
+      </c>
+      <c r="L1460" t="n">
+        <v>2.583969814065173</v>
+      </c>
+      <c r="M1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1460" t="n">
+        <v>104.4180180811722</v>
+      </c>
+      <c r="O1460" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="inlineStr">
+        <is>
+          <t>Manizales</t>
+        </is>
+      </c>
+      <c r="B1461" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C1461" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D1461" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E1461" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1461" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1461" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1461" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1461" t="n">
+        <v>16.72638885115374</v>
+      </c>
+      <c r="J1461" t="n">
+        <v>4.586188504629959</v>
+      </c>
+      <c r="K1461" t="n">
+        <v>5.887285558727384</v>
+      </c>
+      <c r="L1461" t="n">
+        <v>12.40318104358717</v>
+      </c>
+      <c r="M1461" t="n">
+        <v>10.04191216850655</v>
+      </c>
+      <c r="N1461" t="n">
+        <v>101.4077536483281</v>
+      </c>
+      <c r="O1461" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="B1462" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C1462" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D1462" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1462" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1462" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1462" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1462" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1462" t="n">
+        <v>18.6796831878916</v>
+      </c>
+      <c r="J1462" t="n">
+        <v>3.702637573406285</v>
+      </c>
+      <c r="K1462" t="n">
+        <v>5.729103878443818</v>
+      </c>
+      <c r="L1462" t="n">
+        <v>11.80635845635732</v>
+      </c>
+      <c r="M1462" t="n">
+        <v>9.618440622055115</v>
+      </c>
+      <c r="N1462" t="n">
+        <v>103.4501082648056</v>
+      </c>
+      <c r="O1462" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="B1463" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C1463" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D1463" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E1463" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1463" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1463" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1463" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1463" t="n">
+        <v>18.4283820233899</v>
+      </c>
+      <c r="J1463" t="n">
+        <v>3.782727190797665</v>
+      </c>
+      <c r="K1463" t="n">
+        <v>3.540816466579424</v>
+      </c>
+      <c r="L1463" t="n">
+        <v>10.20473419546046</v>
+      </c>
+      <c r="M1463" t="n">
+        <v>7.919526500997391</v>
+      </c>
+      <c r="N1463" t="n">
+        <v>103.1764721242203</v>
+      </c>
+      <c r="O1463" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="inlineStr">
+        <is>
+          <t>Pereira</t>
+        </is>
+      </c>
+      <c r="B1464" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C1464" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D1464" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1464" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1464" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1464" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1464" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I1464" t="n">
+        <v>14.1524126565049</v>
+      </c>
+      <c r="J1464" t="n">
+        <v>4.998395575915669</v>
+      </c>
+      <c r="K1464" t="n">
+        <v>5.951292401655291</v>
+      </c>
+      <c r="L1464" t="n">
+        <v>12.12573296753644</v>
+      </c>
+      <c r="M1464" t="n">
+        <v>9.978602106507704</v>
+      </c>
+      <c r="N1464" t="n">
+        <v>98.96120451975106</v>
+      </c>
+      <c r="O1464" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="inlineStr">
+        <is>
+          <t>Mitú</t>
+        </is>
+      </c>
+      <c r="B1465" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C1465" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1465" t="n">
+        <v>20</v>
+      </c>
+      <c r="E1465" t="n">
+        <v>25</v>
+      </c>
+      <c r="F1465" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1465" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1465" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1465" t="n">
+        <v>21.95747034610317</v>
+      </c>
+      <c r="J1465" t="n">
+        <v>8.365934396905905</v>
+      </c>
+      <c r="K1465" t="n">
+        <v>6.875567703833625</v>
+      </c>
+      <c r="L1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1465" t="n">
+        <v>2.583969814065173</v>
+      </c>
+      <c r="N1465" t="n">
+        <v>105.274409995972</v>
+      </c>
+      <c r="O1465" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="inlineStr">
+        <is>
+          <t>Cali</t>
+        </is>
+      </c>
+      <c r="B1466" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="C1466" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="D1466" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E1466" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1466" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1466" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1466" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I1466" t="n">
+        <v>3.118538760381214</v>
+      </c>
+      <c r="J1466" t="n">
+        <v>20.43452450307241</v>
+      </c>
+      <c r="K1466" t="n">
+        <v>20.88741561921915</v>
+      </c>
+      <c r="L1466" t="n">
+        <v>23.63220049000939</v>
+      </c>
+      <c r="M1466" t="n">
+        <v>22.36492790062154</v>
+      </c>
+      <c r="N1466" t="n">
+        <v>82.50480289049844</v>
+      </c>
+      <c r="O1466" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="inlineStr">
+        <is>
+          <t>Montería</t>
+        </is>
+      </c>
+      <c r="B1467" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1467" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D1467" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E1467" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1467" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1467" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1467" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1467" t="n">
+        <v>17.45956253747498</v>
+      </c>
+      <c r="J1467" t="n">
+        <v>0.943605673290847</v>
+      </c>
+      <c r="K1467" t="n">
+        <v>2.772549593785475</v>
+      </c>
+      <c r="L1467" t="n">
+        <v>8.012047179092246</v>
+      </c>
+      <c r="M1467" t="n">
+        <v>6.022424760841765</v>
+      </c>
+      <c r="N1467" t="n">
+        <v>102.2951421133966</v>
+      </c>
+      <c r="O1467" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="inlineStr">
+        <is>
+          <t>Centroides Iteración 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="inlineStr">
+        <is>
+          <t>GDP (USD Billion)</t>
+        </is>
+      </c>
+      <c r="B1470" t="inlineStr">
+        <is>
+          <t>Population (Millions)</t>
+        </is>
+      </c>
+      <c r="C1470" t="inlineStr">
+        <is>
+          <t>Unemployment Rate (%)</t>
+        </is>
+      </c>
+      <c r="D1470" t="inlineStr">
+        <is>
+          <t>Average Age</t>
+        </is>
+      </c>
+      <c r="E1470" t="inlineStr">
+        <is>
+          <t>Women (%)</t>
+        </is>
+      </c>
+      <c r="F1470" t="inlineStr">
+        <is>
+          <t>Men (%)</t>
+        </is>
+      </c>
+      <c r="G1470" t="inlineStr">
+        <is>
+          <t>Budget (USD Billion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="n">
+        <v>20</v>
+      </c>
+      <c r="B1471" t="n">
+        <v>1.508</v>
+      </c>
+      <c r="C1471" t="n">
+        <v>12.06</v>
+      </c>
+      <c r="D1471" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E1471" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="F1471" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="G1471" t="n">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="B1472" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C1472" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="D1472" t="n">
+        <v>29.08333333333333</v>
+      </c>
+      <c r="E1472" t="n">
+        <v>51.33333333333334</v>
+      </c>
+      <c r="F1472" t="n">
+        <v>48.66666666666666</v>
+      </c>
+      <c r="G1472" t="n">
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="n">
+        <v>2.025</v>
+      </c>
+      <c r="B1473" t="n">
+        <v>0.2775</v>
+      </c>
+      <c r="C1473" t="n">
+        <v>15.625</v>
+      </c>
+      <c r="D1473" t="n">
+        <v>30</v>
+      </c>
+      <c r="E1473" t="n">
+        <v>51.75</v>
+      </c>
+      <c r="F1473" t="n">
+        <v>48.25</v>
+      </c>
+      <c r="G1473" t="n">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B1474" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C1474" t="n">
+        <v>20</v>
+      </c>
+      <c r="D1474" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1474" t="n">
+        <v>51</v>
+      </c>
+      <c r="F1474" t="n">
+        <v>49</v>
+      </c>
+      <c r="G1474" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="B1475" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="C1475" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D1475" t="n">
+        <v>26</v>
+      </c>
+      <c r="E1475" t="n">
+        <v>52</v>
+      </c>
+      <c r="F1475" t="n">
+        <v>48</v>
+      </c>
+      <c r="G1475" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="B1476" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="C1476" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D1476" t="n">
+        <v>32</v>
+      </c>
+      <c r="E1476" t="n">
+        <v>52</v>
+      </c>
+      <c r="F1476" t="n">
+        <v>48</v>
+      </c>
+      <c r="G1476" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="inlineStr">
+        <is>
+          <t>Iteración 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B1479" t="inlineStr">
+        <is>
+          <t>GDP (USD Billion)</t>
+        </is>
+      </c>
+      <c r="C1479" t="inlineStr">
+        <is>
+          <t>Population (Millions)</t>
+        </is>
+      </c>
+      <c r="D1479" t="inlineStr">
+        <is>
+          <t>Unemployment Rate (%)</t>
+        </is>
+      </c>
+      <c r="E1479" t="inlineStr">
+        <is>
+          <t>Average Age</t>
+        </is>
+      </c>
+      <c r="F1479" t="inlineStr">
+        <is>
+          <t>Women (%)</t>
+        </is>
+      </c>
+      <c r="G1479" t="inlineStr">
+        <is>
+          <t>Men (%)</t>
+        </is>
+      </c>
+      <c r="H1479" t="inlineStr">
+        <is>
+          <t>Budget (USD Billion)</t>
+        </is>
+      </c>
+      <c r="I1479" t="inlineStr">
+        <is>
+          <t>dis_C0</t>
+        </is>
+      </c>
+      <c r="J1479" t="inlineStr">
+        <is>
+          <t>dis_C1</t>
+        </is>
+      </c>
+      <c r="K1479" t="inlineStr">
+        <is>
+          <t>dis_C2</t>
+        </is>
+      </c>
+      <c r="L1479" t="inlineStr">
+        <is>
+          <t>dis_C3</t>
+        </is>
+      </c>
+      <c r="M1479" t="inlineStr">
+        <is>
+          <t>dis_C4</t>
+        </is>
+      </c>
+      <c r="N1479" t="inlineStr">
+        <is>
+          <t>dis_C5</t>
+        </is>
+      </c>
+      <c r="O1479" t="inlineStr">
+        <is>
+          <t>Cluster</t>
+        </is>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480" t="inlineStr">
+        <is>
+          <t>Pasto</t>
+        </is>
+      </c>
+      <c r="B1480" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C1480" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D1480" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E1480" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1480" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1480" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1480" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1480" t="n">
+        <v>25.00127196764197</v>
+      </c>
+      <c r="J1480" t="n">
+        <v>1.876092274442336</v>
+      </c>
+      <c r="K1480" t="n">
+        <v>2.182910900609549</v>
+      </c>
+      <c r="L1480" t="n">
+        <v>9.76094769989062</v>
+      </c>
+      <c r="M1480" t="n">
+        <v>6.156748781260738</v>
+      </c>
+      <c r="N1480" t="n">
+        <v>102.036429278959</v>
+      </c>
+      <c r="O1480" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481" t="inlineStr">
+        <is>
+          <t>Riohacha</t>
+        </is>
+      </c>
+      <c r="B1481" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C1481" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D1481" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E1481" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1481" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1481" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1481" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1481" t="n">
+        <v>27.13050128545361</v>
+      </c>
+      <c r="J1481" t="n">
+        <v>4.673163334996494</v>
+      </c>
+      <c r="K1481" t="n">
+        <v>3.961174068379222</v>
+      </c>
+      <c r="L1481" t="n">
+        <v>4.820435664958096</v>
+      </c>
+      <c r="M1481" t="n">
+        <v>1.509676197806084</v>
+      </c>
+      <c r="N1481" t="n">
+        <v>104.0181311118403</v>
+      </c>
+      <c r="O1481" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482" t="inlineStr">
+        <is>
+          <t>Villavicencio</t>
+        </is>
+      </c>
+      <c r="B1482" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C1482" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D1482" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1482" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1482" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1482" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1482" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1482" t="n">
+        <v>24.70870494380473</v>
+      </c>
+      <c r="J1482" t="n">
+        <v>0.9334821309960315</v>
+      </c>
+      <c r="K1482" t="n">
+        <v>2.671347974338048</v>
+      </c>
+      <c r="L1482" t="n">
+        <v>9.090797544770206</v>
+      </c>
+      <c r="M1482" t="n">
+        <v>5.533960807796008</v>
+      </c>
+      <c r="N1482" t="n">
+        <v>101.7482795923351</v>
+      </c>
+      <c r="O1482" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" t="inlineStr">
+        <is>
+          <t>San Andrés</t>
+        </is>
+      </c>
+      <c r="B1483" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C1483" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D1483" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1483" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1483" t="n">
+        <v>50</v>
+      </c>
+      <c r="G1483" t="n">
+        <v>50</v>
+      </c>
+      <c r="H1483" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1483" t="n">
+        <v>27.4092727618471</v>
+      </c>
+      <c r="J1483" t="n">
+        <v>4.269947957007857</v>
+      </c>
+      <c r="K1483" t="n">
+        <v>4.697030977117353</v>
+      </c>
+      <c r="L1483" t="n">
+        <v>6.502107350697925</v>
+      </c>
+      <c r="M1483" t="n">
+        <v>3.673117053524012</v>
+      </c>
+      <c r="N1483" t="n">
+        <v>104.2966442413178</v>
+      </c>
+      <c r="O1483" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484" t="inlineStr">
+        <is>
+          <t>Sincelejo</t>
+        </is>
+      </c>
+      <c r="B1484" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1484" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D1484" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E1484" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1484" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1484" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1484" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1484" t="n">
+        <v>26.567578612537</v>
+      </c>
+      <c r="J1484" t="n">
+        <v>4.456955861970764</v>
+      </c>
+      <c r="K1484" t="n">
+        <v>2.697795396244868</v>
+      </c>
+      <c r="L1484" t="n">
+        <v>5.496853645495758</v>
+      </c>
+      <c r="M1484" t="n">
+        <v>2.215954772903897</v>
+      </c>
+      <c r="N1484" t="n">
+        <v>103.4558359881162</v>
+      </c>
+      <c r="O1484" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485" t="inlineStr">
+        <is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+      <c r="B1485" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C1485" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D1485" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E1485" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1485" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1485" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1485" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I1485" t="n">
+        <v>17.55288390360209</v>
+      </c>
+      <c r="J1485" t="n">
+        <v>7.480048276730721</v>
+      </c>
+      <c r="K1485" t="n">
+        <v>9.561804223053304</v>
+      </c>
+      <c r="L1485" t="n">
+        <v>14.57576413091266</v>
+      </c>
+      <c r="M1485" t="n">
+        <v>11.65667000285912</v>
+      </c>
+      <c r="N1485" t="n">
+        <v>94.46704451818105</v>
+      </c>
+      <c r="O1485" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="B1486" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="C1486" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D1486" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E1486" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1486" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1486" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1486" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I1486" t="n">
+        <v>11.28014775316943</v>
+      </c>
+      <c r="J1486" t="n">
+        <v>13.5330997516788</v>
+      </c>
+      <c r="K1486" t="n">
+        <v>15.15879612634196</v>
+      </c>
+      <c r="L1486" t="n">
+        <v>18.540790166549</v>
+      </c>
+      <c r="M1486" t="n">
+        <v>16.41543853274174</v>
+      </c>
+      <c r="N1486" t="n">
+        <v>88.25481573262731</v>
+      </c>
+      <c r="O1486" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" t="inlineStr">
+        <is>
+          <t>Yopal</t>
+        </is>
+      </c>
+      <c r="B1487" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C1487" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D1487" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E1487" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1487" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1487" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1487" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1487" t="n">
+        <v>27.21965466349638</v>
+      </c>
+      <c r="J1487" t="n">
+        <v>2.730333719936489</v>
+      </c>
+      <c r="K1487" t="n">
+        <v>4.04649230816024</v>
+      </c>
+      <c r="L1487" t="n">
+        <v>9.404897660261913</v>
+      </c>
+      <c r="M1487" t="n">
+        <v>6.011285682410677</v>
+      </c>
+      <c r="N1487" t="n">
+        <v>104.2306140248632</v>
+      </c>
+      <c r="O1487" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488" t="inlineStr">
+        <is>
+          <t>Popayán</t>
+        </is>
+      </c>
+      <c r="B1488" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C1488" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D1488" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E1488" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1488" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1488" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1488" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1488" t="n">
+        <v>26.06720289303528</v>
+      </c>
+      <c r="J1488" t="n">
+        <v>3.559605159127748</v>
+      </c>
+      <c r="K1488" t="n">
+        <v>0.6611353870426242</v>
+      </c>
+      <c r="L1488" t="n">
+        <v>7.994054040347739</v>
+      </c>
+      <c r="M1488" t="n">
+        <v>4.61692057063532</v>
+      </c>
+      <c r="N1488" t="n">
+        <v>103.0422364858217</v>
+      </c>
+      <c r="O1488" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489" t="inlineStr">
+        <is>
+          <t>Valledupar</t>
+        </is>
+      </c>
+      <c r="B1489" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D1489" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E1489" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1489" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1489" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1489" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1489" t="n">
+        <v>25.61109655338222</v>
+      </c>
+      <c r="J1489" t="n">
+        <v>2.982469148578444</v>
+      </c>
+      <c r="K1489" t="n">
+        <v>2.934433505806529</v>
+      </c>
+      <c r="L1489" t="n">
+        <v>6.400320304484768</v>
+      </c>
+      <c r="M1489" t="n">
+        <v>2.917182811473352</v>
+      </c>
+      <c r="N1489" t="n">
+        <v>102.5902729307219</v>
+      </c>
+      <c r="O1489" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="B1490" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E1490" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1490" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1490" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1490" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1490" t="n">
+        <v>27.10410977447271</v>
+      </c>
+      <c r="J1490" t="n">
+        <v>5.674920459550268</v>
+      </c>
+      <c r="K1490" t="n">
+        <v>3.997511726061602</v>
+      </c>
+      <c r="L1490" t="n">
+        <v>4.05075301641559</v>
+      </c>
+      <c r="M1490" t="n">
+        <v>1.183802723805318</v>
+      </c>
+      <c r="N1490" t="n">
+        <v>103.8687652761888</v>
+      </c>
+      <c r="O1490" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491" t="inlineStr">
+        <is>
+          <t>Santa Marta</t>
+        </is>
+      </c>
+      <c r="B1491" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D1491" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E1491" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1491" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1491" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1491" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1491" t="n">
+        <v>24.23001100563789</v>
+      </c>
+      <c r="J1491" t="n">
+        <v>1.157060451700296</v>
+      </c>
+      <c r="K1491" t="n">
+        <v>4.202844275011863</v>
+      </c>
+      <c r="L1491" t="n">
+        <v>9.921320476630115</v>
+      </c>
+      <c r="M1491" t="n">
+        <v>6.443947203039112</v>
+      </c>
+      <c r="N1491" t="n">
+        <v>101.2384590953458</v>
+      </c>
+      <c r="O1491" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" t="inlineStr">
+        <is>
+          <t>Neiva</t>
+        </is>
+      </c>
+      <c r="B1492" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D1492" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E1492" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1492" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1492" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1492" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1492" t="n">
+        <v>25.74112662647073</v>
+      </c>
+      <c r="J1492" t="n">
+        <v>2.274068795988565</v>
+      </c>
+      <c r="K1492" t="n">
+        <v>0.8877499647986468</v>
+      </c>
+      <c r="L1492" t="n">
+        <v>8.091235999524423</v>
+      </c>
+      <c r="M1492" t="n">
+        <v>4.493204745934566</v>
+      </c>
+      <c r="N1492" t="n">
+        <v>102.7977086320507</v>
+      </c>
+      <c r="O1492" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493" t="inlineStr">
+        <is>
+          <t>Leticia</t>
+        </is>
+      </c>
+      <c r="B1493" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D1493" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E1493" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1493" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1493" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1493" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1493" t="n">
+        <v>27.62139750266087</v>
+      </c>
+      <c r="J1493" t="n">
+        <v>4.568521521114779</v>
+      </c>
+      <c r="K1493" t="n">
+        <v>5.03806510477981</v>
+      </c>
+      <c r="L1493" t="n">
+        <v>6.484913260792315</v>
+      </c>
+      <c r="M1493" t="n">
+        <v>3.745515837490067</v>
+      </c>
+      <c r="N1493" t="n">
+        <v>104.5232361726329</v>
+      </c>
+      <c r="O1493" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="B1494" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="D1494" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E1494" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1494" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1494" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1494" t="n">
+        <v>18</v>
+      </c>
+      <c r="I1494" t="n">
+        <v>77.07705387035323</v>
+      </c>
+      <c r="J1494" t="n">
+        <v>101.7397175257639</v>
+      </c>
+      <c r="K1494" t="n">
+        <v>103.1002187194576</v>
+      </c>
+      <c r="L1494" t="n">
+        <v>105.274409995972</v>
+      </c>
+      <c r="M1494" t="n">
+        <v>104.0910873012457</v>
+      </c>
+      <c r="N1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1494" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495" t="inlineStr">
+        <is>
+          <t>Medellín</t>
+        </is>
+      </c>
+      <c r="B1495" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D1495" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E1495" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1495" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1495" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1495" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I1495" t="n">
+        <v>16.68183443150063</v>
+      </c>
+      <c r="J1495" t="n">
+        <v>41.3103391685692</v>
+      </c>
+      <c r="K1495" t="n">
+        <v>42.68819391822522</v>
+      </c>
+      <c r="L1495" t="n">
+        <v>45.464888650474</v>
+      </c>
+      <c r="M1495" t="n">
+        <v>43.91557000528275</v>
+      </c>
+      <c r="N1495" t="n">
+        <v>60.52563176043683</v>
+      </c>
+      <c r="O1495" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" t="inlineStr">
+        <is>
+          <t>Quibdó</t>
+        </is>
+      </c>
+      <c r="B1496" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D1496" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E1496" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1496" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1496" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1496" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1496" t="n">
+        <v>27.82728397334769</v>
+      </c>
+      <c r="J1496" t="n">
+        <v>7.22948515148593</v>
+      </c>
+      <c r="K1496" t="n">
+        <v>5.737691173285645</v>
+      </c>
+      <c r="L1496" t="n">
+        <v>2.583969814065173</v>
+      </c>
+      <c r="M1496" t="n">
+        <v>1.752319098287241</v>
+      </c>
+      <c r="N1496" t="n">
+        <v>104.4180180811722</v>
+      </c>
+      <c r="O1496" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497" t="inlineStr">
+        <is>
+          <t>Manizales</t>
+        </is>
+      </c>
+      <c r="B1497" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D1497" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E1497" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1497" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1497" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1497" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1497" t="n">
+        <v>24.55815682551658</v>
+      </c>
+      <c r="J1497" t="n">
+        <v>3.833639118238553</v>
+      </c>
+      <c r="K1497" t="n">
+        <v>4.839948346831812</v>
+      </c>
+      <c r="L1497" t="n">
+        <v>12.40318104358717</v>
+      </c>
+      <c r="M1497" t="n">
+        <v>8.804087434570127</v>
+      </c>
+      <c r="N1497" t="n">
+        <v>101.4077536483281</v>
+      </c>
+      <c r="O1497" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="B1498" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D1498" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1498" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1498" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1498" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1498" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1498" t="n">
+        <v>26.55185367038116</v>
+      </c>
+      <c r="J1498" t="n">
+        <v>3.446213703311053</v>
+      </c>
+      <c r="K1498" t="n">
+        <v>4.821939443833776</v>
+      </c>
+      <c r="L1498" t="n">
+        <v>11.80635845635732</v>
+      </c>
+      <c r="M1498" t="n">
+        <v>8.238459942381359</v>
+      </c>
+      <c r="N1498" t="n">
+        <v>103.4501082648056</v>
+      </c>
+      <c r="O1498" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="B1499" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C1499" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D1499" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E1499" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1499" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1499" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1499" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1499" t="n">
+        <v>26.23072180986766</v>
+      </c>
+      <c r="J1499" t="n">
+        <v>3.839451639087133</v>
+      </c>
+      <c r="K1499" t="n">
+        <v>2.538129232328408</v>
+      </c>
+      <c r="L1499" t="n">
+        <v>10.20473419546046</v>
+      </c>
+      <c r="M1499" t="n">
+        <v>6.756581153874265</v>
+      </c>
+      <c r="N1499" t="n">
+        <v>103.1764721242203</v>
+      </c>
+      <c r="O1499" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500" t="inlineStr">
+        <is>
+          <t>Pereira</t>
+        </is>
+      </c>
+      <c r="B1500" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C1500" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D1500" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1500" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1500" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1500" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1500" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I1500" t="n">
+        <v>22.02001135331225</v>
+      </c>
+      <c r="J1500" t="n">
+        <v>3.845532761818863</v>
+      </c>
+      <c r="K1500" t="n">
+        <v>5.13605880028646</v>
+      </c>
+      <c r="L1500" t="n">
+        <v>12.12573296753644</v>
+      </c>
+      <c r="M1500" t="n">
+        <v>8.680579217745528</v>
+      </c>
+      <c r="N1500" t="n">
+        <v>98.96120451975106</v>
+      </c>
+      <c r="O1500" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501" t="inlineStr">
+        <is>
+          <t>Mitú</t>
+        </is>
+      </c>
+      <c r="B1501" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C1501" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1501" t="n">
+        <v>20</v>
+      </c>
+      <c r="E1501" t="n">
+        <v>25</v>
+      </c>
+      <c r="F1501" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1501" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1501" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1501" t="n">
+        <v>29.05516305237333</v>
+      </c>
+      <c r="J1501" t="n">
+        <v>9.338539619352815</v>
+      </c>
+      <c r="K1501" t="n">
+        <v>7.886374325379186</v>
+      </c>
+      <c r="L1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1501" t="n">
+        <v>3.631848320376583</v>
+      </c>
+      <c r="N1501" t="n">
+        <v>105.274409995972</v>
+      </c>
+      <c r="O1501" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" t="inlineStr">
+        <is>
+          <t>Cali</t>
+        </is>
+      </c>
+      <c r="B1502" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="C1502" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="D1502" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E1502" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1502" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1502" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1502" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I1502" t="n">
+        <v>5.582568106764727</v>
+      </c>
+      <c r="J1502" t="n">
+        <v>19.36491128017087</v>
+      </c>
+      <c r="K1502" t="n">
+        <v>20.62532666407977</v>
+      </c>
+      <c r="L1502" t="n">
+        <v>23.63220049000939</v>
+      </c>
+      <c r="M1502" t="n">
+        <v>21.8391839489381</v>
+      </c>
+      <c r="N1502" t="n">
+        <v>82.50480289049844</v>
+      </c>
+      <c r="O1502" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503" t="inlineStr">
+        <is>
+          <t>Montería</t>
+        </is>
+      </c>
+      <c r="B1503" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D1503" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E1503" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1503" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1503" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1503" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1503" t="n">
+        <v>25.25246654619439</v>
+      </c>
+      <c r="J1503" t="n">
+        <v>1.41821092303727</v>
+      </c>
+      <c r="K1503" t="n">
+        <v>2.556853535109119</v>
+      </c>
+      <c r="L1503" t="n">
+        <v>8.012047179092246</v>
+      </c>
+      <c r="M1503" t="n">
+        <v>4.461145841846268</v>
+      </c>
+      <c r="N1503" t="n">
+        <v>102.2951421133966</v>
+      </c>
+      <c r="O1503" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504" t="inlineStr">
+        <is>
+          <t>Centroides Iteración 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506" t="inlineStr">
+        <is>
+          <t>GDP (USD Billion)</t>
+        </is>
+      </c>
+      <c r="B1506" t="inlineStr">
+        <is>
+          <t>Population (Millions)</t>
+        </is>
+      </c>
+      <c r="C1506" t="inlineStr">
+        <is>
+          <t>Unemployment Rate (%)</t>
+        </is>
+      </c>
+      <c r="D1506" t="inlineStr">
+        <is>
+          <t>Average Age</t>
+        </is>
+      </c>
+      <c r="E1506" t="inlineStr">
+        <is>
+          <t>Women (%)</t>
+        </is>
+      </c>
+      <c r="F1506" t="inlineStr">
+        <is>
+          <t>Men (%)</t>
+        </is>
+      </c>
+      <c r="G1506" t="inlineStr">
+        <is>
+          <t>Budget (USD Billion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" t="n">
+        <v>27.76666666666667</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>12.46666666666667</v>
+      </c>
+      <c r="D1507" t="n">
+        <v>30</v>
+      </c>
+      <c r="E1507" t="n">
+        <v>52</v>
+      </c>
+      <c r="F1507" t="n">
+        <v>48</v>
+      </c>
+      <c r="G1507" t="n">
+        <v>4.933333333333334</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" t="n">
+        <v>3.508333333333333</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>0.4083333333333334</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>12.375</v>
+      </c>
+      <c r="D1508" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E1508" t="n">
+        <v>51.33333333333334</v>
+      </c>
+      <c r="F1508" t="n">
+        <v>48.66666666666666</v>
+      </c>
+      <c r="G1508" t="n">
+        <v>0.7916666666666666</v>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509" t="n">
+        <v>2.225</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>14.775</v>
+      </c>
+      <c r="D1509" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>52</v>
+      </c>
+      <c r="F1509" t="n">
+        <v>48</v>
+      </c>
+      <c r="G1509" t="n">
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>20</v>
+      </c>
+      <c r="D1510" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1510" t="n">
+        <v>51</v>
+      </c>
+      <c r="F1510" t="n">
+        <v>49</v>
+      </c>
+      <c r="G1510" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B1511" t="n">
+        <v>0.1833333333333333</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>17.13333333333334</v>
+      </c>
+      <c r="D1511" t="n">
+        <v>27</v>
+      </c>
+      <c r="E1511" t="n">
+        <v>51.33333333333334</v>
+      </c>
+      <c r="F1511" t="n">
+        <v>48.66666666666666</v>
+      </c>
+      <c r="G1511" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="B1512" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="C1512" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D1512" t="n">
+        <v>32</v>
+      </c>
+      <c r="E1512" t="n">
+        <v>52</v>
+      </c>
+      <c r="F1512" t="n">
+        <v>48</v>
+      </c>
+      <c r="G1512" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513" t="inlineStr">
+        <is>
+          <t>Iteración 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B1515" t="inlineStr">
+        <is>
+          <t>GDP (USD Billion)</t>
+        </is>
+      </c>
+      <c r="C1515" t="inlineStr">
+        <is>
+          <t>Population (Millions)</t>
+        </is>
+      </c>
+      <c r="D1515" t="inlineStr">
+        <is>
+          <t>Unemployment Rate (%)</t>
+        </is>
+      </c>
+      <c r="E1515" t="inlineStr">
+        <is>
+          <t>Average Age</t>
+        </is>
+      </c>
+      <c r="F1515" t="inlineStr">
+        <is>
+          <t>Women (%)</t>
+        </is>
+      </c>
+      <c r="G1515" t="inlineStr">
+        <is>
+          <t>Men (%)</t>
+        </is>
+      </c>
+      <c r="H1515" t="inlineStr">
+        <is>
+          <t>Budget (USD Billion)</t>
+        </is>
+      </c>
+      <c r="I1515" t="inlineStr">
+        <is>
+          <t>dis_C0</t>
+        </is>
+      </c>
+      <c r="J1515" t="inlineStr">
+        <is>
+          <t>dis_C1</t>
+        </is>
+      </c>
+      <c r="K1515" t="inlineStr">
+        <is>
+          <t>dis_C2</t>
+        </is>
+      </c>
+      <c r="L1515" t="inlineStr">
+        <is>
+          <t>dis_C3</t>
+        </is>
+      </c>
+      <c r="M1515" t="inlineStr">
+        <is>
+          <t>dis_C4</t>
+        </is>
+      </c>
+      <c r="N1515" t="inlineStr">
+        <is>
+          <t>dis_C5</t>
+        </is>
+      </c>
+      <c r="O1515" t="inlineStr">
+        <is>
+          <t>Cluster</t>
+        </is>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516" t="inlineStr">
+        <is>
+          <t>Pasto</t>
+        </is>
+      </c>
+      <c r="B1516" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C1516" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D1516" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E1516" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1516" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1516" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1516" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1516" t="n">
+        <v>25.00127196764197</v>
+      </c>
+      <c r="J1516" t="n">
+        <v>1.729349053299579</v>
+      </c>
+      <c r="K1516" t="n">
+        <v>1.662892393124434</v>
+      </c>
+      <c r="L1516" t="n">
+        <v>9.76094769989062</v>
+      </c>
+      <c r="M1516" t="n">
+        <v>5.154784581496365</v>
+      </c>
+      <c r="N1516" t="n">
+        <v>102.036429278959</v>
+      </c>
+      <c r="O1516" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" t="inlineStr">
+        <is>
+          <t>Riohacha</t>
+        </is>
+      </c>
+      <c r="B1517" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C1517" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D1517" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E1517" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1517" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1517" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1517" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1517" t="n">
+        <v>27.13050128545361</v>
+      </c>
+      <c r="J1517" t="n">
+        <v>5.864932824597144</v>
+      </c>
+      <c r="K1517" t="n">
+        <v>4.744615661755733</v>
+      </c>
+      <c r="L1517" t="n">
+        <v>4.820435664958096</v>
+      </c>
+      <c r="M1517" t="n">
+        <v>0.3277038234723036</v>
+      </c>
+      <c r="N1517" t="n">
+        <v>104.0181311118403</v>
+      </c>
+      <c r="O1517" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518" t="inlineStr">
+        <is>
+          <t>Villavicencio</t>
+        </is>
+      </c>
+      <c r="B1518" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C1518" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D1518" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1518" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1518" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1518" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1518" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1518" t="n">
+        <v>24.70870494380473</v>
+      </c>
+      <c r="J1518" t="n">
+        <v>1.614632167720265</v>
+      </c>
+      <c r="K1518" t="n">
+        <v>2.745307106884605</v>
+      </c>
+      <c r="L1518" t="n">
+        <v>9.090797544770206</v>
+      </c>
+      <c r="M1518" t="n">
+        <v>4.326036268446945</v>
+      </c>
+      <c r="N1518" t="n">
+        <v>101.7482795923351</v>
+      </c>
+      <c r="O1518" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519" t="inlineStr">
+        <is>
+          <t>San Andrés</t>
+        </is>
+      </c>
+      <c r="B1519" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C1519" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D1519" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1519" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1519" t="n">
+        <v>50</v>
+      </c>
+      <c r="G1519" t="n">
+        <v>50</v>
+      </c>
+      <c r="H1519" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1519" t="n">
+        <v>27.4092727618471</v>
+      </c>
+      <c r="J1519" t="n">
+        <v>5.487085173724179</v>
+      </c>
+      <c r="K1519" t="n">
+        <v>5.320793591603086</v>
+      </c>
+      <c r="L1519" t="n">
+        <v>6.502107350697925</v>
+      </c>
+      <c r="M1519" t="n">
+        <v>2.324039850021895</v>
+      </c>
+      <c r="N1519" t="n">
+        <v>104.2966442413178</v>
+      </c>
+      <c r="O1519" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520" t="inlineStr">
+        <is>
+          <t>Sincelejo</t>
+        </is>
+      </c>
+      <c r="B1520" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1520" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D1520" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E1520" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1520" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1520" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1520" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1520" t="n">
+        <v>26.567578612537</v>
+      </c>
+      <c r="J1520" t="n">
+        <v>5.416650598266766</v>
+      </c>
+      <c r="K1520" t="n">
+        <v>3.597060528326493</v>
+      </c>
+      <c r="L1520" t="n">
+        <v>5.496853645495758</v>
+      </c>
+      <c r="M1520" t="n">
+        <v>1.910128214523405</v>
+      </c>
+      <c r="N1520" t="n">
+        <v>103.4558359881162</v>
+      </c>
+      <c r="O1520" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521" t="inlineStr">
+        <is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+      <c r="B1521" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C1521" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D1521" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E1521" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1521" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1521" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1521" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I1521" t="n">
+        <v>17.55288390360209</v>
+      </c>
+      <c r="J1521" t="n">
+        <v>6.775064028671063</v>
+      </c>
+      <c r="K1521" t="n">
+        <v>9.397766283064881</v>
+      </c>
+      <c r="L1521" t="n">
+        <v>14.57576413091266</v>
+      </c>
+      <c r="M1521" t="n">
+        <v>10.77624787982102</v>
+      </c>
+      <c r="N1521" t="n">
+        <v>94.46704451818105</v>
+      </c>
+      <c r="O1521" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="B1522" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="C1522" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D1522" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E1522" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1522" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1522" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1522" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I1522" t="n">
+        <v>11.28014775316943</v>
+      </c>
+      <c r="J1522" t="n">
+        <v>12.98687984652773</v>
+      </c>
+      <c r="K1522" t="n">
+        <v>15.11454082810472</v>
+      </c>
+      <c r="L1522" t="n">
+        <v>18.540790166549</v>
+      </c>
+      <c r="M1522" t="n">
+        <v>15.89346059849517</v>
+      </c>
+      <c r="N1522" t="n">
+        <v>88.25481573262731</v>
+      </c>
+      <c r="O1522" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523" t="inlineStr">
+        <is>
+          <t>Yopal</t>
+        </is>
+      </c>
+      <c r="B1523" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C1523" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D1523" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E1523" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1523" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1523" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1523" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1523" t="n">
+        <v>27.21965466349638</v>
+      </c>
+      <c r="J1523" t="n">
+        <v>3.505802069163083</v>
+      </c>
+      <c r="K1523" t="n">
+        <v>4.053131848062407</v>
+      </c>
+      <c r="L1523" t="n">
+        <v>9.404897660261913</v>
+      </c>
+      <c r="M1523" t="n">
+        <v>4.623860918747272</v>
+      </c>
+      <c r="N1523" t="n">
+        <v>104.2306140248632</v>
+      </c>
+      <c r="O1523" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524" t="inlineStr">
+        <is>
+          <t>Popayán</t>
+        </is>
+      </c>
+      <c r="B1524" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C1524" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D1524" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E1524" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1524" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1524" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1524" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1524" t="n">
+        <v>26.06720289303528</v>
+      </c>
+      <c r="J1524" t="n">
+        <v>4.003129794067156</v>
+      </c>
+      <c r="K1524" t="n">
+        <v>1.106049024430857</v>
+      </c>
+      <c r="L1524" t="n">
+        <v>7.994054040347739</v>
+      </c>
+      <c r="M1524" t="n">
+        <v>4.071690217156728</v>
+      </c>
+      <c r="N1524" t="n">
+        <v>103.0422364858217</v>
+      </c>
+      <c r="O1524" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525" t="inlineStr">
+        <is>
+          <t>Valledupar</t>
+        </is>
+      </c>
+      <c r="B1525" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C1525" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D1525" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E1525" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1525" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1525" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1525" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1525" t="n">
+        <v>25.61109655338222</v>
+      </c>
+      <c r="J1525" t="n">
+        <v>4.12350219720693</v>
+      </c>
+      <c r="K1525" t="n">
+        <v>3.631878913791656</v>
+      </c>
+      <c r="L1525" t="n">
+        <v>6.400320304484768</v>
+      </c>
+      <c r="M1525" t="n">
+        <v>1.703535339539871</v>
+      </c>
+      <c r="N1525" t="n">
+        <v>102.5902729307219</v>
+      </c>
+      <c r="O1525" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="B1526" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C1526" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D1526" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E1526" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1526" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1526" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1526" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1526" t="n">
+        <v>27.10410977447271</v>
+      </c>
+      <c r="J1526" t="n">
+        <v>6.703094918131586</v>
+      </c>
+      <c r="K1526" t="n">
+        <v>4.882558527839457</v>
+      </c>
+      <c r="L1526" t="n">
+        <v>4.05075301641559</v>
+      </c>
+      <c r="M1526" t="n">
+        <v>1.885286206821834</v>
+      </c>
+      <c r="N1526" t="n">
+        <v>103.8687652761888</v>
+      </c>
+      <c r="O1526" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" t="inlineStr">
+        <is>
+          <t>Santa Marta</t>
+        </is>
+      </c>
+      <c r="B1527" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1527" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D1527" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E1527" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1527" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1527" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1527" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1527" t="n">
+        <v>24.23001100563789</v>
+      </c>
+      <c r="J1527" t="n">
+        <v>1.565422673960023</v>
+      </c>
+      <c r="K1527" t="n">
+        <v>4.168618209644268</v>
+      </c>
+      <c r="L1527" t="n">
+        <v>9.921320476630115</v>
+      </c>
+      <c r="M1527" t="n">
+        <v>5.117305772312902</v>
+      </c>
+      <c r="N1527" t="n">
+        <v>101.2384590953458</v>
+      </c>
+      <c r="O1527" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" t="inlineStr">
+        <is>
+          <t>Neiva</t>
+        </is>
+      </c>
+      <c r="B1528" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C1528" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D1528" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E1528" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1528" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1528" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1528" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1528" t="n">
+        <v>25.74112662647073</v>
+      </c>
+      <c r="J1528" t="n">
+        <v>2.936283238936472</v>
+      </c>
+      <c r="K1528" t="n">
+        <v>1.130137651399649</v>
+      </c>
+      <c r="L1528" t="n">
+        <v>8.091235999524423</v>
+      </c>
+      <c r="M1528" t="n">
+        <v>3.596598165954454</v>
+      </c>
+      <c r="N1528" t="n">
+        <v>102.7977086320507</v>
+      </c>
+      <c r="O1528" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529" t="inlineStr">
+        <is>
+          <t>Leticia</t>
+        </is>
+      </c>
+      <c r="B1529" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1529" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D1529" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E1529" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1529" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1529" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1529" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1529" t="n">
+        <v>27.62139750266087</v>
+      </c>
+      <c r="J1529" t="n">
+        <v>5.773943706508224</v>
+      </c>
+      <c r="K1529" t="n">
+        <v>5.556066754258609</v>
+      </c>
+      <c r="L1529" t="n">
+        <v>6.484913260792315</v>
+      </c>
+      <c r="M1529" t="n">
+        <v>2.608136405597697</v>
+      </c>
+      <c r="N1529" t="n">
+        <v>104.5232361726329</v>
+      </c>
+      <c r="O1529" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="B1530" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="C1530" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="D1530" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E1530" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1530" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1530" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1530" t="n">
+        <v>18</v>
+      </c>
+      <c r="I1530" t="n">
+        <v>77.07705387035323</v>
+      </c>
+      <c r="J1530" t="n">
+        <v>101.075267297491</v>
+      </c>
+      <c r="K1530" t="n">
+        <v>102.9971108548412</v>
+      </c>
+      <c r="L1530" t="n">
+        <v>105.274409995972</v>
+      </c>
+      <c r="M1530" t="n">
+        <v>103.8613252154535</v>
+      </c>
+      <c r="N1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1530" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531" t="inlineStr">
+        <is>
+          <t>Medellín</t>
+        </is>
+      </c>
+      <c r="B1531" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="C1531" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D1531" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E1531" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1531" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1531" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1531" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I1531" t="n">
+        <v>16.68183443150063</v>
+      </c>
+      <c r="J1531" t="n">
+        <v>40.62504076351231</v>
+      </c>
+      <c r="K1531" t="n">
+        <v>42.55227229864203</v>
+      </c>
+      <c r="L1531" t="n">
+        <v>45.464888650474</v>
+      </c>
+      <c r="M1531" t="n">
+        <v>43.61185328484419</v>
+      </c>
+      <c r="N1531" t="n">
+        <v>60.52563176043683</v>
+      </c>
+      <c r="O1531" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532" t="inlineStr">
+        <is>
+          <t>Quibdó</t>
+        </is>
+      </c>
+      <c r="B1532" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C1532" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D1532" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E1532" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1532" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1532" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1532" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1532" t="n">
+        <v>27.82728397334769</v>
+      </c>
+      <c r="J1532" t="n">
+        <v>8.294023506472955</v>
+      </c>
+      <c r="K1532" t="n">
+        <v>6.505024553715725</v>
+      </c>
+      <c r="L1532" t="n">
+        <v>2.583969814065173</v>
+      </c>
+      <c r="M1532" t="n">
+        <v>3.121781281151346</v>
+      </c>
+      <c r="N1532" t="n">
+        <v>104.4180180811722</v>
+      </c>
+      <c r="O1532" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533" t="inlineStr">
+        <is>
+          <t>Manizales</t>
+        </is>
+      </c>
+      <c r="B1533" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C1533" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D1533" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E1533" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1533" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1533" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1533" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1533" t="n">
+        <v>24.55815682551658</v>
+      </c>
+      <c r="J1533" t="n">
+        <v>2.875170204301599</v>
+      </c>
+      <c r="K1533" t="n">
+        <v>4.058408281306572</v>
+      </c>
+      <c r="L1533" t="n">
+        <v>12.40318104358717</v>
+      </c>
+      <c r="M1533" t="n">
+        <v>7.791814648090911</v>
+      </c>
+      <c r="N1533" t="n">
+        <v>101.4077536483281</v>
+      </c>
+      <c r="O1533" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="B1534" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C1534" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D1534" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1534" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1534" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1534" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1534" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1534" t="n">
+        <v>26.55185367038116</v>
+      </c>
+      <c r="J1534" t="n">
+        <v>3.12935622299066</v>
+      </c>
+      <c r="K1534" t="n">
+        <v>4.258623930071516</v>
+      </c>
+      <c r="L1534" t="n">
+        <v>11.80635845635732</v>
+      </c>
+      <c r="M1534" t="n">
+        <v>6.997904059394484</v>
+      </c>
+      <c r="N1534" t="n">
+        <v>103.4501082648056</v>
+      </c>
+      <c r="O1534" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="B1535" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C1535" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D1535" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E1535" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1535" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1535" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1535" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1535" t="n">
+        <v>26.23072180986766</v>
+      </c>
+      <c r="J1535" t="n">
+        <v>3.682742536832109</v>
+      </c>
+      <c r="K1535" t="n">
+        <v>1.655509320756334</v>
+      </c>
+      <c r="L1535" t="n">
+        <v>10.20473419546046</v>
+      </c>
+      <c r="M1535" t="n">
+        <v>6.041926473419227</v>
+      </c>
+      <c r="N1535" t="n">
+        <v>103.1764721242203</v>
+      </c>
+      <c r="O1535" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" t="inlineStr">
+        <is>
+          <t>Pereira</t>
+        </is>
+      </c>
+      <c r="B1536" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C1536" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D1536" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1536" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1536" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1536" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1536" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I1536" t="n">
+        <v>22.02001135331225</v>
+      </c>
+      <c r="J1536" t="n">
+        <v>2.76644443551914</v>
+      </c>
+      <c r="K1536" t="n">
+        <v>4.677981521031384</v>
+      </c>
+      <c r="L1536" t="n">
+        <v>12.12573296753644</v>
+      </c>
+      <c r="M1536" t="n">
+        <v>7.752438589349332</v>
+      </c>
+      <c r="N1536" t="n">
+        <v>98.96120451975106</v>
+      </c>
+      <c r="O1536" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" t="inlineStr">
+        <is>
+          <t>Mitú</t>
+        </is>
+      </c>
+      <c r="B1537" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C1537" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1537" t="n">
+        <v>20</v>
+      </c>
+      <c r="E1537" t="n">
+        <v>25</v>
+      </c>
+      <c r="F1537" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1537" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1537" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1537" t="n">
+        <v>29.05516305237333</v>
+      </c>
+      <c r="J1537" t="n">
+        <v>10.45153222862208</v>
+      </c>
+      <c r="K1537" t="n">
+        <v>8.722926369312336</v>
+      </c>
+      <c r="L1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1537" t="n">
+        <v>4.923293447210611</v>
+      </c>
+      <c r="N1537" t="n">
+        <v>105.274409995972</v>
+      </c>
+      <c r="O1537" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" t="inlineStr">
+        <is>
+          <t>Cali</t>
+        </is>
+      </c>
+      <c r="B1538" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="C1538" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="D1538" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E1538" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1538" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1538" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1538" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I1538" t="n">
+        <v>5.582568106764727</v>
+      </c>
+      <c r="J1538" t="n">
+        <v>18.76764779357561</v>
+      </c>
+      <c r="K1538" t="n">
+        <v>20.55381581226329</v>
+      </c>
+      <c r="L1538" t="n">
+        <v>23.63220049000939</v>
+      </c>
+      <c r="M1538" t="n">
+        <v>21.51831322575338</v>
+      </c>
+      <c r="N1538" t="n">
+        <v>82.50480289049844</v>
+      </c>
+      <c r="O1538" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" t="inlineStr">
+        <is>
+          <t>Montería</t>
+        </is>
+      </c>
+      <c r="B1539" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1539" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D1539" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E1539" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1539" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1539" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1539" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1539" t="n">
+        <v>25.25246654619439</v>
+      </c>
+      <c r="J1539" t="n">
+        <v>2.578333512892331</v>
+      </c>
+      <c r="K1539" t="n">
+        <v>2.930872073481052</v>
+      </c>
+      <c r="L1539" t="n">
+        <v>8.012047179092246</v>
+      </c>
+      <c r="M1539" t="n">
+        <v>3.175608570954293</v>
+      </c>
+      <c r="N1539" t="n">
+        <v>102.2951421133966</v>
+      </c>
+      <c r="O1539" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" t="inlineStr">
+        <is>
+          <t>Centroides Iteración 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" t="inlineStr">
+        <is>
+          <t>GDP (USD Billion)</t>
+        </is>
+      </c>
+      <c r="B1542" t="inlineStr">
+        <is>
+          <t>Population (Millions)</t>
+        </is>
+      </c>
+      <c r="C1542" t="inlineStr">
+        <is>
+          <t>Unemployment Rate (%)</t>
+        </is>
+      </c>
+      <c r="D1542" t="inlineStr">
+        <is>
+          <t>Average Age</t>
+        </is>
+      </c>
+      <c r="E1542" t="inlineStr">
+        <is>
+          <t>Women (%)</t>
+        </is>
+      </c>
+      <c r="F1542" t="inlineStr">
+        <is>
+          <t>Men (%)</t>
+        </is>
+      </c>
+      <c r="G1542" t="inlineStr">
+        <is>
+          <t>Budget (USD Billion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" t="n">
+        <v>27.76666666666667</v>
+      </c>
+      <c r="B1543" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="C1543" t="n">
+        <v>12.46666666666667</v>
+      </c>
+      <c r="D1543" t="n">
+        <v>30</v>
+      </c>
+      <c r="E1543" t="n">
+        <v>52</v>
+      </c>
+      <c r="F1543" t="n">
+        <v>48</v>
+      </c>
+      <c r="G1543" t="n">
+        <v>4.933333333333334</v>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" t="n">
+        <v>4.122222222222223</v>
+      </c>
+      <c r="B1544" t="n">
+        <v>0.4777777777777777</v>
+      </c>
+      <c r="C1544" t="n">
+        <v>11.78888888888889</v>
+      </c>
+      <c r="D1544" t="n">
+        <v>30.33333333333333</v>
+      </c>
+      <c r="E1544" t="n">
+        <v>51.55555555555556</v>
+      </c>
+      <c r="F1544" t="n">
+        <v>48.44444444444444</v>
+      </c>
+      <c r="G1544" t="n">
+        <v>0.9555555555555555</v>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="B1545" t="n">
+        <v>0.3266666666666667</v>
+      </c>
+      <c r="C1545" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="D1545" t="n">
+        <v>31</v>
+      </c>
+      <c r="E1545" t="n">
+        <v>52.33333333333334</v>
+      </c>
+      <c r="F1545" t="n">
+        <v>47.66666666666666</v>
+      </c>
+      <c r="G1545" t="n">
+        <v>0.5333333333333333</v>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="B1546" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C1546" t="n">
+        <v>20</v>
+      </c>
+      <c r="D1546" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1546" t="n">
+        <v>51</v>
+      </c>
+      <c r="F1546" t="n">
+        <v>49</v>
+      </c>
+      <c r="G1546" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" t="n">
+        <v>1.642857142857143</v>
+      </c>
+      <c r="B1547" t="n">
+        <v>0.2042857142857143</v>
+      </c>
+      <c r="C1547" t="n">
+        <v>15.75714285714286</v>
+      </c>
+      <c r="D1547" t="n">
+        <v>27.28571428571428</v>
+      </c>
+      <c r="E1547" t="n">
+        <v>51</v>
+      </c>
+      <c r="F1547" t="n">
+        <v>49</v>
+      </c>
+      <c r="G1547" t="n">
+        <v>0.3428571428571429</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="B1548" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="C1548" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D1548" t="n">
+        <v>32</v>
+      </c>
+      <c r="E1548" t="n">
+        <v>52</v>
+      </c>
+      <c r="F1548" t="n">
+        <v>48</v>
+      </c>
+      <c r="G1548" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" t="inlineStr">
+        <is>
+          <t>Iteración 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B1551" t="inlineStr">
+        <is>
+          <t>GDP (USD Billion)</t>
+        </is>
+      </c>
+      <c r="C1551" t="inlineStr">
+        <is>
+          <t>Population (Millions)</t>
+        </is>
+      </c>
+      <c r="D1551" t="inlineStr">
+        <is>
+          <t>Unemployment Rate (%)</t>
+        </is>
+      </c>
+      <c r="E1551" t="inlineStr">
+        <is>
+          <t>Average Age</t>
+        </is>
+      </c>
+      <c r="F1551" t="inlineStr">
+        <is>
+          <t>Women (%)</t>
+        </is>
+      </c>
+      <c r="G1551" t="inlineStr">
+        <is>
+          <t>Men (%)</t>
+        </is>
+      </c>
+      <c r="H1551" t="inlineStr">
+        <is>
+          <t>Budget (USD Billion)</t>
+        </is>
+      </c>
+      <c r="I1551" t="inlineStr">
+        <is>
+          <t>dis_C0</t>
+        </is>
+      </c>
+      <c r="J1551" t="inlineStr">
+        <is>
+          <t>dis_C1</t>
+        </is>
+      </c>
+      <c r="K1551" t="inlineStr">
+        <is>
+          <t>dis_C2</t>
+        </is>
+      </c>
+      <c r="L1551" t="inlineStr">
+        <is>
+          <t>dis_C3</t>
+        </is>
+      </c>
+      <c r="M1551" t="inlineStr">
+        <is>
+          <t>dis_C4</t>
+        </is>
+      </c>
+      <c r="N1551" t="inlineStr">
+        <is>
+          <t>dis_C5</t>
+        </is>
+      </c>
+      <c r="O1551" t="inlineStr">
+        <is>
+          <t>Cluster</t>
+        </is>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" t="inlineStr">
+        <is>
+          <t>Pasto</t>
+        </is>
+      </c>
+      <c r="B1552" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C1552" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D1552" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E1552" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1552" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1552" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1552" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1552" t="n">
+        <v>25.00127196764197</v>
+      </c>
+      <c r="J1552" t="n">
+        <v>1.945517684962026</v>
+      </c>
+      <c r="K1552" t="n">
+        <v>1.247169294843326</v>
+      </c>
+      <c r="L1552" t="n">
+        <v>8.628442791141401</v>
+      </c>
+      <c r="M1552" t="n">
+        <v>4.837526916376451</v>
+      </c>
+      <c r="N1552" t="n">
+        <v>102.036429278959</v>
+      </c>
+      <c r="O1552" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" t="inlineStr">
+        <is>
+          <t>Riohacha</t>
+        </is>
+      </c>
+      <c r="B1553" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C1553" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D1553" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E1553" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1553" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1553" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1553" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1553" t="n">
+        <v>27.13050128545361</v>
+      </c>
+      <c r="J1553" t="n">
+        <v>5.958172040357679</v>
+      </c>
+      <c r="K1553" t="n">
+        <v>4.858063528814747</v>
+      </c>
+      <c r="L1553" t="n">
+        <v>3.820749272066935</v>
+      </c>
+      <c r="M1553" t="n">
+        <v>0.6859786196862587</v>
+      </c>
+      <c r="N1553" t="n">
+        <v>104.0181311118403</v>
+      </c>
+      <c r="O1553" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" t="inlineStr">
+        <is>
+          <t>Villavicencio</t>
+        </is>
+      </c>
+      <c r="B1554" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C1554" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D1554" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1554" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1554" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1554" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1554" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1554" t="n">
+        <v>24.70870494380473</v>
+      </c>
+      <c r="J1554" t="n">
+        <v>1.721747386378153</v>
+      </c>
+      <c r="K1554" t="n">
+        <v>2.431497738020745</v>
+      </c>
+      <c r="L1554" t="n">
+        <v>8.048945583118327</v>
+      </c>
+      <c r="M1554" t="n">
+        <v>3.91801395267211</v>
+      </c>
+      <c r="N1554" t="n">
+        <v>101.7482795923351</v>
+      </c>
+      <c r="O1554" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" t="inlineStr">
+        <is>
+          <t>San Andrés</t>
+        </is>
+      </c>
+      <c r="B1555" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C1555" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D1555" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1555" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1555" t="n">
+        <v>50</v>
+      </c>
+      <c r="G1555" t="n">
+        <v>50</v>
+      </c>
+      <c r="H1555" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1555" t="n">
+        <v>27.4092727618471</v>
+      </c>
+      <c r="J1555" t="n">
+        <v>5.53105451631965</v>
+      </c>
+      <c r="K1555" t="n">
+        <v>5.302252469469932</v>
+      </c>
+      <c r="L1555" t="n">
+        <v>5.727191720206337</v>
+      </c>
+      <c r="M1555" t="n">
+        <v>1.937154270229058</v>
+      </c>
+      <c r="N1555" t="n">
+        <v>104.2966442413178</v>
+      </c>
+      <c r="O1555" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" t="inlineStr">
+        <is>
+          <t>Sincelejo</t>
+        </is>
+      </c>
+      <c r="B1556" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1556" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D1556" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E1556" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1556" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1556" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1556" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1556" t="n">
+        <v>26.567578612537</v>
+      </c>
+      <c r="J1556" t="n">
+        <v>5.55603852240965</v>
+      </c>
+      <c r="K1556" t="n">
+        <v>3.781915024164345</v>
+      </c>
+      <c r="L1556" t="n">
+        <v>4.545297019997704</v>
+      </c>
+      <c r="M1556" t="n">
+        <v>1.935088283946411</v>
+      </c>
+      <c r="N1556" t="n">
+        <v>103.4558359881162</v>
+      </c>
+      <c r="O1556" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" t="inlineStr">
+        <is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+      <c r="B1557" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C1557" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D1557" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E1557" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1557" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1557" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1557" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I1557" t="n">
+        <v>17.55288390360209</v>
+      </c>
+      <c r="J1557" t="n">
+        <v>6.627985294378677</v>
+      </c>
+      <c r="K1557" t="n">
+        <v>9.05423278086001</v>
+      </c>
+      <c r="L1557" t="n">
+        <v>13.64009622400077</v>
+      </c>
+      <c r="M1557" t="n">
+        <v>10.49819349539085</v>
+      </c>
+      <c r="N1557" t="n">
+        <v>94.46704451818105</v>
+      </c>
+      <c r="O1557" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="B1558" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="C1558" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D1558" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E1558" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1558" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1558" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1558" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I1558" t="n">
+        <v>11.28014775316943</v>
+      </c>
+      <c r="J1558" t="n">
+        <v>12.86330785849814</v>
+      </c>
+      <c r="K1558" t="n">
+        <v>14.83957988792136</v>
+      </c>
+      <c r="L1558" t="n">
+        <v>17.80958239263347</v>
+      </c>
+      <c r="M1558" t="n">
+        <v>15.73554574840034</v>
+      </c>
+      <c r="N1558" t="n">
+        <v>88.25481573262731</v>
+      </c>
+      <c r="O1558" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" t="inlineStr">
+        <is>
+          <t>Yopal</t>
+        </is>
+      </c>
+      <c r="B1559" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C1559" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D1559" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E1559" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1559" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1559" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1559" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1559" t="n">
+        <v>27.21965466349638</v>
+      </c>
+      <c r="J1559" t="n">
+        <v>3.557919204043285</v>
+      </c>
+      <c r="K1559" t="n">
+        <v>3.870391614552719</v>
+      </c>
+      <c r="L1559" t="n">
+        <v>8.398036973007443</v>
+      </c>
+      <c r="M1559" t="n">
+        <v>4.185092591568315</v>
+      </c>
+      <c r="N1559" t="n">
+        <v>104.2306140248632</v>
+      </c>
+      <c r="O1559" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" t="inlineStr">
+        <is>
+          <t>Popayán</t>
+        </is>
+      </c>
+      <c r="B1560" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C1560" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D1560" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E1560" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1560" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1560" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1560" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1560" t="n">
+        <v>26.06720289303528</v>
+      </c>
+      <c r="J1560" t="n">
+        <v>4.204692505106645</v>
+      </c>
+      <c r="K1560" t="n">
+        <v>1.391988236300867</v>
+      </c>
+      <c r="L1560" t="n">
+        <v>6.915433825870942</v>
+      </c>
+      <c r="M1560" t="n">
+        <v>3.923017546056435</v>
+      </c>
+      <c r="N1560" t="n">
+        <v>103.0422364858217</v>
+      </c>
+      <c r="O1560" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" t="inlineStr">
+        <is>
+          <t>Valledupar</t>
+        </is>
+      </c>
+      <c r="B1561" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C1561" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D1561" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E1561" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1561" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1561" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1561" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1561" t="n">
+        <v>25.61109655338222</v>
+      </c>
+      <c r="J1561" t="n">
+        <v>4.207337526571882</v>
+      </c>
+      <c r="K1561" t="n">
+        <v>3.615180666301478</v>
+      </c>
+      <c r="L1561" t="n">
+        <v>5.368484423000592</v>
+      </c>
+      <c r="M1561" t="n">
+        <v>1.394536960189055</v>
+      </c>
+      <c r="N1561" t="n">
+        <v>102.5902729307219</v>
+      </c>
+      <c r="O1561" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="B1562" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C1562" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D1562" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E1562" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1562" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1562" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1562" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1562" t="n">
+        <v>27.10410977447271</v>
+      </c>
+      <c r="J1562" t="n">
+        <v>6.829946124421481</v>
+      </c>
+      <c r="K1562" t="n">
+        <v>5.099184371053865</v>
+      </c>
+      <c r="L1562" t="n">
+        <v>3.141261689194328</v>
+      </c>
+      <c r="M1562" t="n">
+        <v>2.220547980416846</v>
+      </c>
+      <c r="N1562" t="n">
+        <v>103.8687652761888</v>
+      </c>
+      <c r="O1562" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" t="inlineStr">
+        <is>
+          <t>Santa Marta</t>
+        </is>
+      </c>
+      <c r="B1563" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1563" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D1563" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E1563" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1563" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1563" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1563" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1563" t="n">
+        <v>24.23001100563789</v>
+      </c>
+      <c r="J1563" t="n">
+        <v>1.459645183768987</v>
+      </c>
+      <c r="K1563" t="n">
+        <v>3.822078132377726</v>
+      </c>
+      <c r="L1563" t="n">
+        <v>8.872887072424625</v>
+      </c>
+      <c r="M1563" t="n">
+        <v>4.696016041994178</v>
+      </c>
+      <c r="N1563" t="n">
+        <v>101.2384590953458</v>
+      </c>
+      <c r="O1563" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" t="inlineStr">
+        <is>
+          <t>Neiva</t>
+        </is>
+      </c>
+      <c r="B1564" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C1564" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D1564" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E1564" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1564" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1564" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1564" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1564" t="n">
+        <v>25.74112662647073</v>
+      </c>
+      <c r="J1564" t="n">
+        <v>3.122705407575296</v>
+      </c>
+      <c r="K1564" t="n">
+        <v>1.084864622890801</v>
+      </c>
+      <c r="L1564" t="n">
+        <v>6.946871598064845</v>
+      </c>
+      <c r="M1564" t="n">
+        <v>3.354847239443249</v>
+      </c>
+      <c r="N1564" t="n">
+        <v>102.7977086320507</v>
+      </c>
+      <c r="O1564" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" t="inlineStr">
+        <is>
+          <t>Leticia</t>
+        </is>
+      </c>
+      <c r="B1565" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1565" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D1565" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E1565" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1565" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1565" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1565" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1565" t="n">
+        <v>27.62139750266087</v>
+      </c>
+      <c r="J1565" t="n">
+        <v>5.815499897902157</v>
+      </c>
+      <c r="K1565" t="n">
+        <v>5.553956360109432</v>
+      </c>
+      <c r="L1565" t="n">
+        <v>5.568305397515479</v>
+      </c>
+      <c r="M1565" t="n">
+        <v>2.4389205262438</v>
+      </c>
+      <c r="N1565" t="n">
+        <v>104.5232361726329</v>
+      </c>
+      <c r="O1565" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="B1566" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="C1566" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="D1566" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E1566" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1566" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1566" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1566" t="n">
+        <v>18</v>
+      </c>
+      <c r="I1566" t="n">
+        <v>77.07705387035323</v>
+      </c>
+      <c r="J1566" t="n">
+        <v>100.9565615205991</v>
+      </c>
+      <c r="K1566" t="n">
+        <v>102.7552596281572</v>
+      </c>
+      <c r="L1566" t="n">
+        <v>104.8391278340296</v>
+      </c>
+      <c r="M1566" t="n">
+        <v>103.7773830530204</v>
+      </c>
+      <c r="N1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1566" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" t="inlineStr">
+        <is>
+          <t>Medellín</t>
+        </is>
+      </c>
+      <c r="B1567" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="C1567" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D1567" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E1567" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1567" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1567" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1567" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I1567" t="n">
+        <v>16.68183443150063</v>
+      </c>
+      <c r="J1567" t="n">
+        <v>40.50999184229121</v>
+      </c>
+      <c r="K1567" t="n">
+        <v>42.30380634470142</v>
+      </c>
+      <c r="L1567" t="n">
+        <v>44.88513813056612</v>
+      </c>
+      <c r="M1567" t="n">
+        <v>43.51186121813989</v>
+      </c>
+      <c r="N1567" t="n">
+        <v>60.52563176043683</v>
+      </c>
+      <c r="O1567" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" t="inlineStr">
+        <is>
+          <t>Quibdó</t>
+        </is>
+      </c>
+      <c r="B1568" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C1568" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D1568" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E1568" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1568" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1568" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1568" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1568" t="n">
+        <v>27.82728397334769</v>
+      </c>
+      <c r="J1568" t="n">
+        <v>8.407730910447837</v>
+      </c>
+      <c r="K1568" t="n">
+        <v>6.742301628524194</v>
+      </c>
+      <c r="L1568" t="n">
+        <v>1.291984907032588</v>
+      </c>
+      <c r="M1568" t="n">
+        <v>3.642078161343235</v>
+      </c>
+      <c r="N1568" t="n">
+        <v>104.4180180811722</v>
+      </c>
+      <c r="O1568" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" t="inlineStr">
+        <is>
+          <t>Manizales</t>
+        </is>
+      </c>
+      <c r="B1569" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C1569" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D1569" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E1569" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1569" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1569" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1569" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1569" t="n">
+        <v>24.55815682551658</v>
+      </c>
+      <c r="J1569" t="n">
+        <v>2.948591030051472</v>
+      </c>
+      <c r="K1569" t="n">
+        <v>3.726544143036548</v>
+      </c>
+      <c r="L1569" t="n">
+        <v>11.21027319024831</v>
+      </c>
+      <c r="M1569" t="n">
+        <v>7.477927520376216</v>
+      </c>
+      <c r="N1569" t="n">
+        <v>101.4077536483281</v>
+      </c>
+      <c r="O1569" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="B1570" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C1570" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D1570" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1570" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1570" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1570" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1570" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1570" t="n">
+        <v>26.55185367038116</v>
+      </c>
+      <c r="J1570" t="n">
+        <v>3.181986653413242</v>
+      </c>
+      <c r="K1570" t="n">
+        <v>3.963386336202919</v>
+      </c>
+      <c r="L1570" t="n">
+        <v>10.69032389593505</v>
+      </c>
+      <c r="M1570" t="n">
+        <v>6.603660601010119</v>
+      </c>
+      <c r="N1570" t="n">
+        <v>103.4501082648056</v>
+      </c>
+      <c r="O1570" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="B1571" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C1571" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D1571" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E1571" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1571" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1571" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1571" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1571" t="n">
+        <v>26.23072180986766</v>
+      </c>
+      <c r="J1571" t="n">
+        <v>3.889011964818314</v>
+      </c>
+      <c r="K1571" t="n">
+        <v>1.626401318863213</v>
+      </c>
+      <c r="L1571" t="n">
+        <v>9.0420420813</v>
+      </c>
+      <c r="M1571" t="n">
+        <v>5.833595232216005</v>
+      </c>
+      <c r="N1571" t="n">
+        <v>103.1764721242203</v>
+      </c>
+      <c r="O1571" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" t="inlineStr">
+        <is>
+          <t>Pereira</t>
+        </is>
+      </c>
+      <c r="B1572" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C1572" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D1572" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1572" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1572" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1572" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1572" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I1572" t="n">
+        <v>22.02001135331225</v>
+      </c>
+      <c r="J1572" t="n">
+        <v>2.762981010159136</v>
+      </c>
+      <c r="K1572" t="n">
+        <v>4.322832549382407</v>
+      </c>
+      <c r="L1572" t="n">
+        <v>11.02876806356902</v>
+      </c>
+      <c r="M1572" t="n">
+        <v>7.444230428101125</v>
+      </c>
+      <c r="N1572" t="n">
+        <v>98.96120451975106</v>
+      </c>
+      <c r="O1572" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" t="inlineStr">
+        <is>
+          <t>Mitú</t>
+        </is>
+      </c>
+      <c r="B1573" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C1573" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1573" t="n">
+        <v>20</v>
+      </c>
+      <c r="E1573" t="n">
+        <v>25</v>
+      </c>
+      <c r="F1573" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1573" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1573" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1573" t="n">
+        <v>29.05516305237333</v>
+      </c>
+      <c r="J1573" t="n">
+        <v>10.55461458616562</v>
+      </c>
+      <c r="K1573" t="n">
+        <v>8.964799565522924</v>
+      </c>
+      <c r="L1573" t="n">
+        <v>1.291984907032585</v>
+      </c>
+      <c r="M1573" t="n">
+        <v>5.390803897997651</v>
+      </c>
+      <c r="N1573" t="n">
+        <v>105.274409995972</v>
+      </c>
+      <c r="O1573" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" t="inlineStr">
+        <is>
+          <t>Cali</t>
+        </is>
+      </c>
+      <c r="B1574" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="C1574" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="D1574" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E1574" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1574" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1574" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1574" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I1574" t="n">
+        <v>5.582568106764727</v>
+      </c>
+      <c r="J1574" t="n">
+        <v>18.66653928992999</v>
+      </c>
+      <c r="K1574" t="n">
+        <v>20.31731112253784</v>
+      </c>
+      <c r="L1574" t="n">
+        <v>22.97098659178573</v>
+      </c>
+      <c r="M1574" t="n">
+        <v>21.41823366511191</v>
+      </c>
+      <c r="N1574" t="n">
+        <v>82.50480289049844</v>
+      </c>
+      <c r="O1574" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" t="inlineStr">
+        <is>
+          <t>Montería</t>
+        </is>
+      </c>
+      <c r="B1575" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1575" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D1575" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E1575" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1575" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1575" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1575" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1575" t="n">
+        <v>25.25246654619439</v>
+      </c>
+      <c r="J1575" t="n">
+        <v>2.664420961954023</v>
+      </c>
+      <c r="K1575" t="n">
+        <v>2.743069676475609</v>
+      </c>
+      <c r="L1575" t="n">
+        <v>6.968645851239681</v>
+      </c>
+      <c r="M1575" t="n">
+        <v>2.759577262311506</v>
+      </c>
+      <c r="N1575" t="n">
+        <v>102.2951421133966</v>
+      </c>
+      <c r="O1575" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" t="inlineStr">
+        <is>
+          <t>Centroides Iteración 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" t="inlineStr">
+        <is>
+          <t>GDP (USD Billion)</t>
+        </is>
+      </c>
+      <c r="B1578" t="inlineStr">
+        <is>
+          <t>Population (Millions)</t>
+        </is>
+      </c>
+      <c r="C1578" t="inlineStr">
+        <is>
+          <t>Unemployment Rate (%)</t>
+        </is>
+      </c>
+      <c r="D1578" t="inlineStr">
+        <is>
+          <t>Average Age</t>
+        </is>
+      </c>
+      <c r="E1578" t="inlineStr">
+        <is>
+          <t>Women (%)</t>
+        </is>
+      </c>
+      <c r="F1578" t="inlineStr">
+        <is>
+          <t>Men (%)</t>
+        </is>
+      </c>
+      <c r="G1578" t="inlineStr">
+        <is>
+          <t>Budget (USD Billion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" t="n">
+        <v>27.76666666666667</v>
+      </c>
+      <c r="B1579" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="C1579" t="n">
+        <v>12.46666666666667</v>
+      </c>
+      <c r="D1579" t="n">
+        <v>30</v>
+      </c>
+      <c r="E1579" t="n">
+        <v>52</v>
+      </c>
+      <c r="F1579" t="n">
+        <v>48</v>
+      </c>
+      <c r="G1579" t="n">
+        <v>4.933333333333334</v>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" t="n">
+        <v>4.237500000000001</v>
+      </c>
+      <c r="B1580" t="n">
+        <v>0.4812500000000001</v>
+      </c>
+      <c r="C1580" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="D1580" t="n">
+        <v>30.25</v>
+      </c>
+      <c r="E1580" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="F1580" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="G1580" t="n">
+        <v>0.9875</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" t="n">
+        <v>2.525</v>
+      </c>
+      <c r="B1581" t="n">
+        <v>0.3575</v>
+      </c>
+      <c r="C1581" t="n">
+        <v>13.875</v>
+      </c>
+      <c r="D1581" t="n">
+        <v>31</v>
+      </c>
+      <c r="E1581" t="n">
+        <v>52.25</v>
+      </c>
+      <c r="F1581" t="n">
+        <v>47.75</v>
+      </c>
+      <c r="G1581" t="n">
+        <v>0.575</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1582" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C1582" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D1582" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E1582" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="F1582" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="G1582" t="n">
+        <v>0.175</v>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="B1583" t="n">
+        <v>0.2166666666666667</v>
+      </c>
+      <c r="C1583" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="D1583" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="E1583" t="n">
+        <v>50.83333333333334</v>
+      </c>
+      <c r="F1583" t="n">
+        <v>49.16666666666666</v>
+      </c>
+      <c r="G1583" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="B1584" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="C1584" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D1584" t="n">
+        <v>32</v>
+      </c>
+      <c r="E1584" t="n">
+        <v>52</v>
+      </c>
+      <c r="F1584" t="n">
+        <v>48</v>
+      </c>
+      <c r="G1584" t="n">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tarea1/src/kmeans_resultado_final.xlsx
+++ b/tarea1/src/kmeans_resultado_final.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1584"/>
+  <dimension ref="A1:O1800"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63869,6 +63869,8658 @@
         <v>18</v>
       </c>
     </row>
+    <row r="1585">
+      <c r="A1585" t="inlineStr">
+        <is>
+          <t>Iteración 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B1587" t="inlineStr">
+        <is>
+          <t>GDP (USD Billion)</t>
+        </is>
+      </c>
+      <c r="C1587" t="inlineStr">
+        <is>
+          <t>Population (Millions)</t>
+        </is>
+      </c>
+      <c r="D1587" t="inlineStr">
+        <is>
+          <t>Unemployment Rate (%)</t>
+        </is>
+      </c>
+      <c r="E1587" t="inlineStr">
+        <is>
+          <t>Average Age</t>
+        </is>
+      </c>
+      <c r="F1587" t="inlineStr">
+        <is>
+          <t>Women (%)</t>
+        </is>
+      </c>
+      <c r="G1587" t="inlineStr">
+        <is>
+          <t>Men (%)</t>
+        </is>
+      </c>
+      <c r="H1587" t="inlineStr">
+        <is>
+          <t>Budget (USD Billion)</t>
+        </is>
+      </c>
+      <c r="I1587" t="inlineStr">
+        <is>
+          <t>dis_C0</t>
+        </is>
+      </c>
+      <c r="J1587" t="inlineStr">
+        <is>
+          <t>dis_C1</t>
+        </is>
+      </c>
+      <c r="K1587" t="inlineStr">
+        <is>
+          <t>dis_C2</t>
+        </is>
+      </c>
+      <c r="L1587" t="inlineStr">
+        <is>
+          <t>dis_C3</t>
+        </is>
+      </c>
+      <c r="M1587" t="inlineStr">
+        <is>
+          <t>dis_C4</t>
+        </is>
+      </c>
+      <c r="N1587" t="inlineStr">
+        <is>
+          <t>dis_C5</t>
+        </is>
+      </c>
+      <c r="O1587" t="inlineStr">
+        <is>
+          <t>Cluster</t>
+        </is>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" t="inlineStr">
+        <is>
+          <t>Pasto</t>
+        </is>
+      </c>
+      <c r="B1588" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C1588" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D1588" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E1588" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1588" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1588" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1588" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1588" t="n">
+        <v>3.565108693995178</v>
+      </c>
+      <c r="J1588" t="n">
+        <v>5.379860592989376</v>
+      </c>
+      <c r="K1588" t="n">
+        <v>41.5744440732525</v>
+      </c>
+      <c r="L1588" t="n">
+        <v>5.73149195236284</v>
+      </c>
+      <c r="M1588" t="n">
+        <v>7.547343903652462</v>
+      </c>
+      <c r="N1588" t="n">
+        <v>3.342289634367435</v>
+      </c>
+      <c r="O1588" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" t="inlineStr">
+        <is>
+          <t>Riohacha</t>
+        </is>
+      </c>
+      <c r="B1589" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C1589" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D1589" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E1589" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1589" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1589" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1589" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1589" t="n">
+        <v>4.670642354109336</v>
+      </c>
+      <c r="J1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="K1589" t="n">
+        <v>43.7763920395457</v>
+      </c>
+      <c r="L1589" t="n">
+        <v>2.393512063892722</v>
+      </c>
+      <c r="M1589" t="n">
+        <v>3.04927860321093</v>
+      </c>
+      <c r="N1589" t="n">
+        <v>7.990469322887111</v>
+      </c>
+      <c r="O1589" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" t="inlineStr">
+        <is>
+          <t>Villavicencio</t>
+        </is>
+      </c>
+      <c r="B1590" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C1590" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D1590" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1590" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1590" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1590" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1590" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1590" t="n">
+        <v>3.080990100600779</v>
+      </c>
+      <c r="J1590" t="n">
+        <v>4.540748836921065</v>
+      </c>
+      <c r="K1590" t="n">
+        <v>41.3494244216289</v>
+      </c>
+      <c r="L1590" t="n">
+        <v>4.827266307134919</v>
+      </c>
+      <c r="M1590" t="n">
+        <v>7.089915373260811</v>
+      </c>
+      <c r="N1590" t="n">
+        <v>3.813187642904556</v>
+      </c>
+      <c r="O1590" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" t="inlineStr">
+        <is>
+          <t>San Andrés</t>
+        </is>
+      </c>
+      <c r="B1591" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C1591" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D1591" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1591" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1591" t="n">
+        <v>50</v>
+      </c>
+      <c r="G1591" t="n">
+        <v>50</v>
+      </c>
+      <c r="H1591" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1591" t="n">
+        <v>3.502127924562437</v>
+      </c>
+      <c r="J1591" t="n">
+        <v>2.238213573366044</v>
+      </c>
+      <c r="K1591" t="n">
+        <v>44.06518013125556</v>
+      </c>
+      <c r="L1591" t="n">
+        <v>1.791898434621784</v>
+      </c>
+      <c r="M1591" t="n">
+        <v>5.163574343417551</v>
+      </c>
+      <c r="N1591" t="n">
+        <v>7.960527620704547</v>
+      </c>
+      <c r="O1591" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" t="inlineStr">
+        <is>
+          <t>Sincelejo</t>
+        </is>
+      </c>
+      <c r="B1592" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1592" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D1592" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E1592" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1592" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1592" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1592" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1592" t="n">
+        <v>5.090864366686663</v>
+      </c>
+      <c r="J1592" t="n">
+        <v>2.221170862405682</v>
+      </c>
+      <c r="K1592" t="n">
+        <v>43.20583409679762</v>
+      </c>
+      <c r="L1592" t="n">
+        <v>4.315425819082052</v>
+      </c>
+      <c r="M1592" t="n">
+        <v>3.800328933131973</v>
+      </c>
+      <c r="N1592" t="n">
+        <v>7.040596565632773</v>
+      </c>
+      <c r="O1592" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" t="inlineStr">
+        <is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+      <c r="B1593" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C1593" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D1593" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E1593" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1593" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1593" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1593" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I1593" t="n">
+        <v>9.861764547990385</v>
+      </c>
+      <c r="J1593" t="n">
+        <v>10.95199068662862</v>
+      </c>
+      <c r="K1593" t="n">
+        <v>34.0956243526937</v>
+      </c>
+      <c r="L1593" t="n">
+        <v>11.03586879226099</v>
+      </c>
+      <c r="M1593" t="n">
+        <v>12.76675369857193</v>
+      </c>
+      <c r="N1593" t="n">
+        <v>5.315308081381549</v>
+      </c>
+      <c r="O1593" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="B1594" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="C1594" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D1594" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E1594" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1594" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1594" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1594" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I1594" t="n">
+        <v>16.02736410018816</v>
+      </c>
+      <c r="J1594" t="n">
+        <v>16.05740016316465</v>
+      </c>
+      <c r="K1594" t="n">
+        <v>27.92643192389605</v>
+      </c>
+      <c r="L1594" t="n">
+        <v>16.44604511729188</v>
+      </c>
+      <c r="M1594" t="n">
+        <v>17.14467847467546</v>
+      </c>
+      <c r="N1594" t="n">
+        <v>11.28372722109144</v>
+      </c>
+      <c r="O1594" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" t="inlineStr">
+        <is>
+          <t>Yopal</t>
+        </is>
+      </c>
+      <c r="B1595" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C1595" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D1595" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E1595" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1595" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1595" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1595" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1595" t="n">
+        <v>4.670642354109336</v>
+      </c>
+      <c r="K1595" t="n">
+        <v>43.82050205098066</v>
+      </c>
+      <c r="L1595" t="n">
+        <v>3.666060555964672</v>
+      </c>
+      <c r="M1595" t="n">
+        <v>7.479331520931533</v>
+      </c>
+      <c r="N1595" t="n">
+        <v>6.211191512101362</v>
+      </c>
+      <c r="O1595" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" t="inlineStr">
+        <is>
+          <t>Popayán</t>
+        </is>
+      </c>
+      <c r="B1596" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C1596" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D1596" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E1596" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1596" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1596" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1596" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1596" t="n">
+        <v>4.610032537846125</v>
+      </c>
+      <c r="J1596" t="n">
+        <v>4.352252290481332</v>
+      </c>
+      <c r="K1596" t="n">
+        <v>42.65275606569874</v>
+      </c>
+      <c r="L1596" t="n">
+        <v>5.611452574868649</v>
+      </c>
+      <c r="M1596" t="n">
+        <v>5.922837157984339</v>
+      </c>
+      <c r="N1596" t="n">
+        <v>5.206966487312934</v>
+      </c>
+      <c r="O1596" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" t="inlineStr">
+        <is>
+          <t>Valledupar</t>
+        </is>
+      </c>
+      <c r="B1597" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C1597" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D1597" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E1597" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1597" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1597" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1597" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1597" t="n">
+        <v>3.878453299963789</v>
+      </c>
+      <c r="J1597" t="n">
+        <v>1.911151485361638</v>
+      </c>
+      <c r="K1597" t="n">
+        <v>42.28084672756685</v>
+      </c>
+      <c r="L1597" t="n">
+        <v>3.017681229023371</v>
+      </c>
+      <c r="M1597" t="n">
+        <v>4.473879748048665</v>
+      </c>
+      <c r="N1597" t="n">
+        <v>6.155493481435912</v>
+      </c>
+      <c r="O1597" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="B1598" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C1598" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D1598" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E1598" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1598" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1598" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1598" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1598" t="n">
+        <v>6.115758334008955</v>
+      </c>
+      <c r="J1598" t="n">
+        <v>2.071328076379983</v>
+      </c>
+      <c r="K1598" t="n">
+        <v>43.70900250520481</v>
+      </c>
+      <c r="L1598" t="n">
+        <v>4.451123453691214</v>
+      </c>
+      <c r="M1598" t="n">
+        <v>2.581646761274671</v>
+      </c>
+      <c r="N1598" t="n">
+        <v>8.329969987941134</v>
+      </c>
+      <c r="O1598" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" t="inlineStr">
+        <is>
+          <t>Santa Marta</t>
+        </is>
+      </c>
+      <c r="B1599" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1599" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D1599" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E1599" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1599" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1599" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1599" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1599" t="n">
+        <v>3.007806509734295</v>
+      </c>
+      <c r="J1599" t="n">
+        <v>5.244997616777342</v>
+      </c>
+      <c r="K1599" t="n">
+        <v>40.84032933265843</v>
+      </c>
+      <c r="L1599" t="n">
+        <v>4.781307352597195</v>
+      </c>
+      <c r="M1599" t="n">
+        <v>7.896967772506103</v>
+      </c>
+      <c r="N1599" t="n">
+        <v>4.020149250960715</v>
+      </c>
+      <c r="O1599" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" t="inlineStr">
+        <is>
+          <t>Neiva</t>
+        </is>
+      </c>
+      <c r="B1600" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C1600" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D1600" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E1600" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1600" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1600" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1600" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1600" t="n">
+        <v>3.452535300326414</v>
+      </c>
+      <c r="J1600" t="n">
+        <v>3.829738894493984</v>
+      </c>
+      <c r="K1600" t="n">
+        <v>42.36163830637338</v>
+      </c>
+      <c r="L1600" t="n">
+        <v>4.565084884205331</v>
+      </c>
+      <c r="M1600" t="n">
+        <v>5.864162344273904</v>
+      </c>
+      <c r="N1600" t="n">
+        <v>4.75467138717283</v>
+      </c>
+      <c r="O1600" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" t="inlineStr">
+        <is>
+          <t>Leticia</t>
+        </is>
+      </c>
+      <c r="B1601" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1601" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D1601" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E1601" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1601" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1601" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1601" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1601" t="n">
+        <v>3.666060555964672</v>
+      </c>
+      <c r="J1601" t="n">
+        <v>2.393512063892722</v>
+      </c>
+      <c r="K1601" t="n">
+        <v>44.2434221099589</v>
+      </c>
+      <c r="L1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1601" t="n">
+        <v>4.826634438198111</v>
+      </c>
+      <c r="N1601" t="n">
+        <v>8.320150239028138</v>
+      </c>
+      <c r="O1601" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="B1602" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="C1602" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="D1602" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E1602" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1602" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1602" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1602" t="n">
+        <v>18</v>
+      </c>
+      <c r="I1602" t="n">
+        <v>104.2306140248632</v>
+      </c>
+      <c r="J1602" t="n">
+        <v>104.0181311118403</v>
+      </c>
+      <c r="K1602" t="n">
+        <v>60.52563176043683</v>
+      </c>
+      <c r="L1602" t="n">
+        <v>104.5232361726329</v>
+      </c>
+      <c r="M1602" t="n">
+        <v>104.4180180811722</v>
+      </c>
+      <c r="N1602" t="n">
+        <v>98.96120451975106</v>
+      </c>
+      <c r="O1602" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" t="inlineStr">
+        <is>
+          <t>Medellín</t>
+        </is>
+      </c>
+      <c r="B1603" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="C1603" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D1603" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E1603" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1603" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1603" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1603" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I1603" t="n">
+        <v>43.82050205098066</v>
+      </c>
+      <c r="J1603" t="n">
+        <v>43.7763920395457</v>
+      </c>
+      <c r="K1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1603" t="n">
+        <v>44.2434221099589</v>
+      </c>
+      <c r="M1603" t="n">
+        <v>44.33546661534082</v>
+      </c>
+      <c r="N1603" t="n">
+        <v>38.50789659277692</v>
+      </c>
+      <c r="O1603" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" t="inlineStr">
+        <is>
+          <t>Quibdó</t>
+        </is>
+      </c>
+      <c r="B1604" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C1604" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D1604" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E1604" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1604" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1604" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1604" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1604" t="n">
+        <v>7.479331520931533</v>
+      </c>
+      <c r="J1604" t="n">
+        <v>3.04927860321093</v>
+      </c>
+      <c r="K1604" t="n">
+        <v>44.33546661534082</v>
+      </c>
+      <c r="L1604" t="n">
+        <v>4.826634438198111</v>
+      </c>
+      <c r="M1604" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1604" t="n">
+        <v>9.978602106507704</v>
+      </c>
+      <c r="O1604" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" t="inlineStr">
+        <is>
+          <t>Manizales</t>
+        </is>
+      </c>
+      <c r="B1605" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C1605" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D1605" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E1605" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1605" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1605" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1605" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1605" t="n">
+        <v>5.036705272298549</v>
+      </c>
+      <c r="J1605" t="n">
+        <v>7.973963882536715</v>
+      </c>
+      <c r="K1605" t="n">
+        <v>40.92443768703487</v>
+      </c>
+      <c r="L1605" t="n">
+        <v>7.802845634766845</v>
+      </c>
+      <c r="M1605" t="n">
+        <v>10.04191216850655</v>
+      </c>
+      <c r="N1605" t="n">
+        <v>3.114883625434505</v>
+      </c>
+      <c r="O1605" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="B1606" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C1606" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D1606" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1606" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1606" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1606" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1606" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1606" t="n">
+        <v>2.964793416074718</v>
+      </c>
+      <c r="J1606" t="n">
+        <v>7.112728027979138</v>
+      </c>
+      <c r="K1606" t="n">
+        <v>42.9944461529626</v>
+      </c>
+      <c r="L1606" t="n">
+        <v>6.382005954243541</v>
+      </c>
+      <c r="M1606" t="n">
+        <v>9.618440622055115</v>
+      </c>
+      <c r="N1606" t="n">
+        <v>5.022240535856482</v>
+      </c>
+      <c r="O1606" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="B1607" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C1607" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D1607" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E1607" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1607" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1607" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1607" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1607" t="n">
+        <v>4.620876540224809</v>
+      </c>
+      <c r="J1607" t="n">
+        <v>6.258306480190946</v>
+      </c>
+      <c r="K1607" t="n">
+        <v>42.70319543078715</v>
+      </c>
+      <c r="L1607" t="n">
+        <v>6.747036386444051</v>
+      </c>
+      <c r="M1607" t="n">
+        <v>7.919526500997391</v>
+      </c>
+      <c r="N1607" t="n">
+        <v>4.601347628684449</v>
+      </c>
+      <c r="O1607" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608" t="inlineStr">
+        <is>
+          <t>Pereira</t>
+        </is>
+      </c>
+      <c r="B1608" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C1608" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D1608" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1608" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1608" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1608" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1608" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I1608" t="n">
+        <v>6.211191512101362</v>
+      </c>
+      <c r="J1608" t="n">
+        <v>7.990469322887111</v>
+      </c>
+      <c r="K1608" t="n">
+        <v>38.50789659277692</v>
+      </c>
+      <c r="L1608" t="n">
+        <v>8.320150239028138</v>
+      </c>
+      <c r="M1608" t="n">
+        <v>9.978602106507704</v>
+      </c>
+      <c r="N1608" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1608" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609" t="inlineStr">
+        <is>
+          <t>Mitú</t>
+        </is>
+      </c>
+      <c r="B1609" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C1609" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1609" t="n">
+        <v>20</v>
+      </c>
+      <c r="E1609" t="n">
+        <v>25</v>
+      </c>
+      <c r="F1609" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1609" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1609" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1609" t="n">
+        <v>9.404897660261913</v>
+      </c>
+      <c r="J1609" t="n">
+        <v>4.820435664958096</v>
+      </c>
+      <c r="K1609" t="n">
+        <v>45.464888650474</v>
+      </c>
+      <c r="L1609" t="n">
+        <v>6.484913260792315</v>
+      </c>
+      <c r="M1609" t="n">
+        <v>2.583969814065173</v>
+      </c>
+      <c r="N1609" t="n">
+        <v>12.12573296753644</v>
+      </c>
+      <c r="O1609" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610" t="inlineStr">
+        <is>
+          <t>Cali</t>
+        </is>
+      </c>
+      <c r="B1610" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="C1610" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="D1610" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E1610" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1610" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1610" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1610" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I1610" t="n">
+        <v>21.96147536027577</v>
+      </c>
+      <c r="J1610" t="n">
+        <v>21.69493258804922</v>
+      </c>
+      <c r="K1610" t="n">
+        <v>22.17330827819791</v>
+      </c>
+      <c r="L1610" t="n">
+        <v>22.30610678715584</v>
+      </c>
+      <c r="M1610" t="n">
+        <v>22.36492790062154</v>
+      </c>
+      <c r="N1610" t="n">
+        <v>16.76760269090367</v>
+      </c>
+      <c r="O1610" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611" t="inlineStr">
+        <is>
+          <t>Montería</t>
+        </is>
+      </c>
+      <c r="B1611" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1611" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D1611" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E1611" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1611" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1611" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1611" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1611" t="n">
+        <v>2.824110479425336</v>
+      </c>
+      <c r="J1611" t="n">
+        <v>3.364951708420196</v>
+      </c>
+      <c r="K1611" t="n">
+        <v>41.91737587206527</v>
+      </c>
+      <c r="L1611" t="n">
+        <v>3.682879308367299</v>
+      </c>
+      <c r="M1611" t="n">
+        <v>6.022424760841765</v>
+      </c>
+      <c r="N1611" t="n">
+        <v>4.883656417071127</v>
+      </c>
+      <c r="O1611" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612" t="inlineStr">
+        <is>
+          <t>Centroides Iteración 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614" t="inlineStr">
+        <is>
+          <t>GDP (USD Billion)</t>
+        </is>
+      </c>
+      <c r="B1614" t="inlineStr">
+        <is>
+          <t>Population (Millions)</t>
+        </is>
+      </c>
+      <c r="C1614" t="inlineStr">
+        <is>
+          <t>Unemployment Rate (%)</t>
+        </is>
+      </c>
+      <c r="D1614" t="inlineStr">
+        <is>
+          <t>Average Age</t>
+        </is>
+      </c>
+      <c r="E1614" t="inlineStr">
+        <is>
+          <t>Women (%)</t>
+        </is>
+      </c>
+      <c r="F1614" t="inlineStr">
+        <is>
+          <t>Men (%)</t>
+        </is>
+      </c>
+      <c r="G1614" t="inlineStr">
+        <is>
+          <t>Budget (USD Billion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="B1615" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C1615" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D1615" t="n">
+        <v>29</v>
+      </c>
+      <c r="E1615" t="n">
+        <v>51</v>
+      </c>
+      <c r="F1615" t="n">
+        <v>49</v>
+      </c>
+      <c r="G1615" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B1616" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="C1616" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D1616" t="n">
+        <v>27</v>
+      </c>
+      <c r="E1616" t="n">
+        <v>51</v>
+      </c>
+      <c r="F1616" t="n">
+        <v>49</v>
+      </c>
+      <c r="G1616" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="B1617" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="C1617" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D1617" t="n">
+        <v>31</v>
+      </c>
+      <c r="E1617" t="n">
+        <v>53</v>
+      </c>
+      <c r="F1617" t="n">
+        <v>47</v>
+      </c>
+      <c r="G1617" t="n">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1618" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C1618" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="D1618" t="n">
+        <v>26</v>
+      </c>
+      <c r="E1618" t="n">
+        <v>51</v>
+      </c>
+      <c r="F1618" t="n">
+        <v>49</v>
+      </c>
+      <c r="G1618" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="B1619" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="C1619" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D1619" t="n">
+        <v>26</v>
+      </c>
+      <c r="E1619" t="n">
+        <v>52</v>
+      </c>
+      <c r="F1619" t="n">
+        <v>48</v>
+      </c>
+      <c r="G1619" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="B1620" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="C1620" t="n">
+        <v>12</v>
+      </c>
+      <c r="D1620" t="n">
+        <v>32</v>
+      </c>
+      <c r="E1620" t="n">
+        <v>52</v>
+      </c>
+      <c r="F1620" t="n">
+        <v>48</v>
+      </c>
+      <c r="G1620" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621" t="inlineStr">
+        <is>
+          <t>Iteración 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B1623" t="inlineStr">
+        <is>
+          <t>GDP (USD Billion)</t>
+        </is>
+      </c>
+      <c r="C1623" t="inlineStr">
+        <is>
+          <t>Population (Millions)</t>
+        </is>
+      </c>
+      <c r="D1623" t="inlineStr">
+        <is>
+          <t>Unemployment Rate (%)</t>
+        </is>
+      </c>
+      <c r="E1623" t="inlineStr">
+        <is>
+          <t>Average Age</t>
+        </is>
+      </c>
+      <c r="F1623" t="inlineStr">
+        <is>
+          <t>Women (%)</t>
+        </is>
+      </c>
+      <c r="G1623" t="inlineStr">
+        <is>
+          <t>Men (%)</t>
+        </is>
+      </c>
+      <c r="H1623" t="inlineStr">
+        <is>
+          <t>Budget (USD Billion)</t>
+        </is>
+      </c>
+      <c r="I1623" t="inlineStr">
+        <is>
+          <t>dis_C0</t>
+        </is>
+      </c>
+      <c r="J1623" t="inlineStr">
+        <is>
+          <t>dis_C1</t>
+        </is>
+      </c>
+      <c r="K1623" t="inlineStr">
+        <is>
+          <t>dis_C2</t>
+        </is>
+      </c>
+      <c r="L1623" t="inlineStr">
+        <is>
+          <t>dis_C3</t>
+        </is>
+      </c>
+      <c r="M1623" t="inlineStr">
+        <is>
+          <t>dis_C4</t>
+        </is>
+      </c>
+      <c r="N1623" t="inlineStr">
+        <is>
+          <t>dis_C5</t>
+        </is>
+      </c>
+      <c r="O1623" t="inlineStr">
+        <is>
+          <t>Cluster</t>
+        </is>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624" t="inlineStr">
+        <is>
+          <t>Pasto</t>
+        </is>
+      </c>
+      <c r="B1624" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C1624" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D1624" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E1624" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1624" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1624" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1624" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1624" t="n">
+        <v>1.834345175320668</v>
+      </c>
+      <c r="J1624" t="n">
+        <v>4.202534949289535</v>
+      </c>
+      <c r="K1624" t="n">
+        <v>71.79203037245847</v>
+      </c>
+      <c r="L1624" t="n">
+        <v>5.515498617532235</v>
+      </c>
+      <c r="M1624" t="n">
+        <v>8.628442791141401</v>
+      </c>
+      <c r="N1624" t="n">
+        <v>6.252346498291172</v>
+      </c>
+      <c r="O1624" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625" t="inlineStr">
+        <is>
+          <t>Riohacha</t>
+        </is>
+      </c>
+      <c r="B1625" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C1625" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D1625" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E1625" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1625" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1625" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1625" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1625" t="n">
+        <v>4.521502945801196</v>
+      </c>
+      <c r="J1625" t="n">
+        <v>1.744476998988524</v>
+      </c>
+      <c r="K1625" t="n">
+        <v>73.83924447744573</v>
+      </c>
+      <c r="L1625" t="n">
+        <v>2.136942909859783</v>
+      </c>
+      <c r="M1625" t="n">
+        <v>3.820749272066935</v>
+      </c>
+      <c r="N1625" t="n">
+        <v>9.601660251843779</v>
+      </c>
+      <c r="O1625" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626" t="inlineStr">
+        <is>
+          <t>Villavicencio</t>
+        </is>
+      </c>
+      <c r="B1626" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C1626" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D1626" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1626" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1626" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1626" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1626" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1626" t="n">
+        <v>1.274619769011747</v>
+      </c>
+      <c r="J1626" t="n">
+        <v>3.593438464757677</v>
+      </c>
+      <c r="K1626" t="n">
+        <v>71.52206390338579</v>
+      </c>
+      <c r="L1626" t="n">
+        <v>4.445416178492178</v>
+      </c>
+      <c r="M1626" t="n">
+        <v>8.048945583118327</v>
+      </c>
+      <c r="N1626" t="n">
+        <v>6.172871028516138</v>
+      </c>
+      <c r="O1626" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627" t="inlineStr">
+        <is>
+          <t>San Andrés</t>
+        </is>
+      </c>
+      <c r="B1627" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C1627" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D1627" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1627" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1627" t="n">
+        <v>50</v>
+      </c>
+      <c r="G1627" t="n">
+        <v>50</v>
+      </c>
+      <c r="H1627" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1627" t="n">
+        <v>3.995512760863396</v>
+      </c>
+      <c r="J1627" t="n">
+        <v>3.171624189591198</v>
+      </c>
+      <c r="K1627" t="n">
+        <v>74.12102957325942</v>
+      </c>
+      <c r="L1627" t="n">
+        <v>0.8959492173108918</v>
+      </c>
+      <c r="M1627" t="n">
+        <v>5.727191720206337</v>
+      </c>
+      <c r="N1627" t="n">
+        <v>9.735070306759528</v>
+      </c>
+      <c r="O1627" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628" t="inlineStr">
+        <is>
+          <t>Sincelejo</t>
+        </is>
+      </c>
+      <c r="B1628" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1628" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D1628" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E1628" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1628" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1628" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1628" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1628" t="n">
+        <v>4.346123432311708</v>
+      </c>
+      <c r="J1628" t="n">
+        <v>0.7477967638335965</v>
+      </c>
+      <c r="K1628" t="n">
+        <v>73.27406788898784</v>
+      </c>
+      <c r="L1628" t="n">
+        <v>3.875399979356969</v>
+      </c>
+      <c r="M1628" t="n">
+        <v>4.545297019997704</v>
+      </c>
+      <c r="N1628" t="n">
+        <v>8.868444517685461</v>
+      </c>
+      <c r="O1628" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629" t="inlineStr">
+        <is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+      <c r="B1629" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C1629" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D1629" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E1629" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1629" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1629" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1629" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I1629" t="n">
+        <v>8.314823443037675</v>
+      </c>
+      <c r="J1629" t="n">
+        <v>10.23150526559998</v>
+      </c>
+      <c r="K1629" t="n">
+        <v>64.24507004432324</v>
+      </c>
+      <c r="L1629" t="n">
+        <v>10.83852965120269</v>
+      </c>
+      <c r="M1629" t="n">
+        <v>13.64009622400077</v>
+      </c>
+      <c r="N1629" t="n">
+        <v>2.633782102465067</v>
+      </c>
+      <c r="O1629" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="B1630" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="C1630" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D1630" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E1630" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1630" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1630" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1630" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I1630" t="n">
+        <v>14.41807738762542</v>
+      </c>
+      <c r="J1630" t="n">
+        <v>15.42315467081881</v>
+      </c>
+      <c r="K1630" t="n">
+        <v>58.03930586249287</v>
+      </c>
+      <c r="L1630" t="n">
+        <v>16.28679603236929</v>
+      </c>
+      <c r="M1630" t="n">
+        <v>17.80958239263347</v>
+      </c>
+      <c r="N1630" t="n">
+        <v>7.965924366977643</v>
+      </c>
+      <c r="O1630" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631" t="inlineStr">
+        <is>
+          <t>Yopal</t>
+        </is>
+      </c>
+      <c r="B1631" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C1631" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D1631" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E1631" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1631" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1631" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1631" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1631" t="n">
+        <v>1.973361486285663</v>
+      </c>
+      <c r="J1631" t="n">
+        <v>4.578788049254957</v>
+      </c>
+      <c r="K1631" t="n">
+        <v>74.00196365637873</v>
+      </c>
+      <c r="L1631" t="n">
+        <v>3.47127138092083</v>
+      </c>
+      <c r="M1631" t="n">
+        <v>8.398036973007443</v>
+      </c>
+      <c r="N1631" t="n">
+        <v>8.748819162303784</v>
+      </c>
+      <c r="O1631" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632" t="inlineStr">
+        <is>
+          <t>Popayán</t>
+        </is>
+      </c>
+      <c r="B1632" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C1632" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D1632" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E1632" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1632" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1632" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1632" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1632" t="n">
+        <v>3.362779934650627</v>
+      </c>
+      <c r="J1632" t="n">
+        <v>2.765447522553988</v>
+      </c>
+      <c r="K1632" t="n">
+        <v>72.81924213420515</v>
+      </c>
+      <c r="L1632" t="n">
+        <v>5.323788594600653</v>
+      </c>
+      <c r="M1632" t="n">
+        <v>6.915433825870942</v>
+      </c>
+      <c r="N1632" t="n">
+        <v>7.721062631740874</v>
+      </c>
+      <c r="O1632" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633" t="inlineStr">
+        <is>
+          <t>Valledupar</t>
+        </is>
+      </c>
+      <c r="B1633" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C1633" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D1633" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E1633" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1633" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1633" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1633" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1633" t="n">
+        <v>3.060199702996887</v>
+      </c>
+      <c r="J1633" t="n">
+        <v>1.528299708826775</v>
+      </c>
+      <c r="K1633" t="n">
+        <v>72.39046225159775</v>
+      </c>
+      <c r="L1633" t="n">
+        <v>2.646984132933176</v>
+      </c>
+      <c r="M1633" t="n">
+        <v>5.368484423000592</v>
+      </c>
+      <c r="N1633" t="n">
+        <v>7.774552418378981</v>
+      </c>
+      <c r="O1633" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="B1634" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C1634" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D1634" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E1634" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1634" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1634" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1634" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1634" t="n">
+        <v>5.584561059046829</v>
+      </c>
+      <c r="J1634" t="n">
+        <v>1.736893779135615</v>
+      </c>
+      <c r="K1634" t="n">
+        <v>73.71404632090142</v>
+      </c>
+      <c r="L1634" t="n">
+        <v>4.108615947006972</v>
+      </c>
+      <c r="M1634" t="n">
+        <v>3.141261689194328</v>
+      </c>
+      <c r="N1634" t="n">
+        <v>9.881731753542979</v>
+      </c>
+      <c r="O1634" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635" t="inlineStr">
+        <is>
+          <t>Santa Marta</t>
+        </is>
+      </c>
+      <c r="B1635" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1635" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D1635" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E1635" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1635" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1635" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1635" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1635" t="n">
+        <v>1.751186899093172</v>
+      </c>
+      <c r="J1635" t="n">
+        <v>4.804289749796531</v>
+      </c>
+      <c r="K1635" t="n">
+        <v>71.01225968098747</v>
+      </c>
+      <c r="L1635" t="n">
+        <v>4.557359432829498</v>
+      </c>
+      <c r="M1635" t="n">
+        <v>8.872887072424625</v>
+      </c>
+      <c r="N1635" t="n">
+        <v>5.917373417595456</v>
+      </c>
+      <c r="O1635" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636" t="inlineStr">
+        <is>
+          <t>Neiva</t>
+        </is>
+      </c>
+      <c r="B1636" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C1636" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D1636" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E1636" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1636" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1636" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1636" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1636" t="n">
+        <v>2.079300095919029</v>
+      </c>
+      <c r="J1636" t="n">
+        <v>2.615587888028233</v>
+      </c>
+      <c r="K1636" t="n">
+        <v>72.5610131199944</v>
+      </c>
+      <c r="L1636" t="n">
+        <v>4.368492302843167</v>
+      </c>
+      <c r="M1636" t="n">
+        <v>6.946871598064845</v>
+      </c>
+      <c r="N1636" t="n">
+        <v>7.216576722507476</v>
+      </c>
+      <c r="O1636" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637" t="inlineStr">
+        <is>
+          <t>Leticia</t>
+        </is>
+      </c>
+      <c r="B1637" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1637" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D1637" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E1637" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1637" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1637" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1637" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1637" t="n">
+        <v>4.298777604027557</v>
+      </c>
+      <c r="J1637" t="n">
+        <v>3.692059046115056</v>
+      </c>
+      <c r="K1637" t="n">
+        <v>74.33340853882594</v>
+      </c>
+      <c r="L1637" t="n">
+        <v>0.8959492173108922</v>
+      </c>
+      <c r="M1637" t="n">
+        <v>5.568305397515479</v>
+      </c>
+      <c r="N1637" t="n">
+        <v>9.997520100668231</v>
+      </c>
+      <c r="O1637" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="B1638" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="C1638" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="D1638" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E1638" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1638" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1638" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1638" t="n">
+        <v>18</v>
+      </c>
+      <c r="I1638" t="n">
+        <v>102.6122870593749</v>
+      </c>
+      <c r="J1638" t="n">
+        <v>103.3803327524147</v>
+      </c>
+      <c r="K1638" t="n">
+        <v>30.26281588021842</v>
+      </c>
+      <c r="L1638" t="n">
+        <v>104.406157505197</v>
+      </c>
+      <c r="M1638" t="n">
+        <v>104.8391278340296</v>
+      </c>
+      <c r="N1638" t="n">
+        <v>95.80858383639062</v>
+      </c>
+      <c r="O1638" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639" t="inlineStr">
+        <is>
+          <t>Medellín</t>
+        </is>
+      </c>
+      <c r="B1639" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="C1639" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D1639" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E1639" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1639" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1639" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1639" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I1639" t="n">
+        <v>42.17855089444819</v>
+      </c>
+      <c r="J1639" t="n">
+        <v>43.09041308690368</v>
+      </c>
+      <c r="K1639" t="n">
+        <v>30.26281588021841</v>
+      </c>
+      <c r="L1639" t="n">
+        <v>44.14530014622168</v>
+      </c>
+      <c r="M1639" t="n">
+        <v>44.88513813056612</v>
+      </c>
+      <c r="N1639" t="n">
+        <v>35.34536473377047</v>
+      </c>
+      <c r="O1639" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640" t="inlineStr">
+        <is>
+          <t>Quibdó</t>
+        </is>
+      </c>
+      <c r="B1640" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C1640" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D1640" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E1640" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1640" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1640" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1640" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1640" t="n">
+        <v>7.163352722170131</v>
+      </c>
+      <c r="J1640" t="n">
+        <v>3.712101830499803</v>
+      </c>
+      <c r="K1640" t="n">
+        <v>74.28687653280356</v>
+      </c>
+      <c r="L1640" t="n">
+        <v>4.916983323136249</v>
+      </c>
+      <c r="M1640" t="n">
+        <v>1.291984907032588</v>
+      </c>
+      <c r="N1640" t="n">
+        <v>11.2030586202599</v>
+      </c>
+      <c r="O1640" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641" t="inlineStr">
+        <is>
+          <t>Manizales</t>
+        </is>
+      </c>
+      <c r="B1641" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C1641" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D1641" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E1641" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1641" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1641" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1641" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1641" t="n">
+        <v>3.856460668655765</v>
+      </c>
+      <c r="J1641" t="n">
+        <v>6.975507150021422</v>
+      </c>
+      <c r="K1641" t="n">
+        <v>71.15710101599137</v>
+      </c>
+      <c r="L1641" t="n">
+        <v>7.759234820521931</v>
+      </c>
+      <c r="M1641" t="n">
+        <v>11.21027319024831</v>
+      </c>
+      <c r="N1641" t="n">
+        <v>6.111998236990878</v>
+      </c>
+      <c r="O1641" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="B1642" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C1642" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D1642" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1642" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1642" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1642" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1642" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1642" t="n">
+        <v>2.942587674517483</v>
+      </c>
+      <c r="J1642" t="n">
+        <v>6.511320910537276</v>
+      </c>
+      <c r="K1642" t="n">
+        <v>73.20782488914692</v>
+      </c>
+      <c r="L1642" t="n">
+        <v>6.306879180704194</v>
+      </c>
+      <c r="M1642" t="n">
+        <v>10.69032389593505</v>
+      </c>
+      <c r="N1642" t="n">
+        <v>7.998060989504691</v>
+      </c>
+      <c r="O1642" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="B1643" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C1643" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D1643" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E1643" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1643" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1643" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1643" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1643" t="n">
+        <v>3.514539641103635</v>
+      </c>
+      <c r="J1643" t="n">
+        <v>5.001279836201927</v>
+      </c>
+      <c r="K1643" t="n">
+        <v>72.92897657995758</v>
+      </c>
+      <c r="L1643" t="n">
+        <v>6.646632606064518</v>
+      </c>
+      <c r="M1643" t="n">
+        <v>9.0420420813</v>
+      </c>
+      <c r="N1643" t="n">
+        <v>7.635727649326808</v>
+      </c>
+      <c r="O1643" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644" t="inlineStr">
+        <is>
+          <t>Pereira</t>
+        </is>
+      </c>
+      <c r="B1644" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C1644" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D1644" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1644" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1644" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1644" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1644" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I1644" t="n">
+        <v>4.417780991503413</v>
+      </c>
+      <c r="J1644" t="n">
+        <v>6.800088234721663</v>
+      </c>
+      <c r="K1644" t="n">
+        <v>68.71863666429944</v>
+      </c>
+      <c r="L1644" t="n">
+        <v>8.092881130969365</v>
+      </c>
+      <c r="M1644" t="n">
+        <v>11.02876806356902</v>
+      </c>
+      <c r="N1644" t="n">
+        <v>3.383133736279283</v>
+      </c>
+      <c r="O1644" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645" t="inlineStr">
+        <is>
+          <t>Mitú</t>
+        </is>
+      </c>
+      <c r="B1645" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C1645" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1645" t="n">
+        <v>20</v>
+      </c>
+      <c r="E1645" t="n">
+        <v>25</v>
+      </c>
+      <c r="F1645" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1645" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1645" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1645" t="n">
+        <v>9.26209419563896</v>
+      </c>
+      <c r="J1645" t="n">
+        <v>5.623646503826499</v>
+      </c>
+      <c r="K1645" t="n">
+        <v>75.22659586210185</v>
+      </c>
+      <c r="L1645" t="n">
+        <v>6.431409254587986</v>
+      </c>
+      <c r="M1645" t="n">
+        <v>1.291984907032585</v>
+      </c>
+      <c r="N1645" t="n">
+        <v>13.18183575521828</v>
+      </c>
+      <c r="O1645" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646" t="inlineStr">
+        <is>
+          <t>Cali</t>
+        </is>
+      </c>
+      <c r="B1646" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="C1646" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="D1646" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E1646" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1646" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1646" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1646" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I1646" t="n">
+        <v>20.24247075389322</v>
+      </c>
+      <c r="J1646" t="n">
+        <v>20.95823704417907</v>
+      </c>
+      <c r="K1646" t="n">
+        <v>52.28298982460739</v>
+      </c>
+      <c r="L1646" t="n">
+        <v>22.17046966124083</v>
+      </c>
+      <c r="M1646" t="n">
+        <v>22.97098659178573</v>
+      </c>
+      <c r="N1646" t="n">
+        <v>13.49307577528382</v>
+      </c>
+      <c r="O1646" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647" t="inlineStr">
+        <is>
+          <t>Montería</t>
+        </is>
+      </c>
+      <c r="B1647" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1647" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D1647" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E1647" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1647" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1647" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1647" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1647" t="n">
+        <v>1.514030676336808</v>
+      </c>
+      <c r="J1647" t="n">
+        <v>2.677853618105368</v>
+      </c>
+      <c r="K1647" t="n">
+        <v>72.07526083893141</v>
+      </c>
+      <c r="L1647" t="n">
+        <v>3.306527634845957</v>
+      </c>
+      <c r="M1647" t="n">
+        <v>6.968645851239681</v>
+      </c>
+      <c r="N1647" t="n">
+        <v>6.932470773137683</v>
+      </c>
+      <c r="O1647" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648" t="inlineStr">
+        <is>
+          <t>Centroides Iteración 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650" t="inlineStr">
+        <is>
+          <t>GDP (USD Billion)</t>
+        </is>
+      </c>
+      <c r="B1650" t="inlineStr">
+        <is>
+          <t>Population (Millions)</t>
+        </is>
+      </c>
+      <c r="C1650" t="inlineStr">
+        <is>
+          <t>Unemployment Rate (%)</t>
+        </is>
+      </c>
+      <c r="D1650" t="inlineStr">
+        <is>
+          <t>Average Age</t>
+        </is>
+      </c>
+      <c r="E1650" t="inlineStr">
+        <is>
+          <t>Women (%)</t>
+        </is>
+      </c>
+      <c r="F1650" t="inlineStr">
+        <is>
+          <t>Men (%)</t>
+        </is>
+      </c>
+      <c r="G1650" t="inlineStr">
+        <is>
+          <t>Budget (USD Billion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="B1651" t="n">
+        <v>0.3766666666666666</v>
+      </c>
+      <c r="C1651" t="n">
+        <v>12.28333333333333</v>
+      </c>
+      <c r="D1651" t="n">
+        <v>29.66666666666667</v>
+      </c>
+      <c r="E1651" t="n">
+        <v>51.33333333333334</v>
+      </c>
+      <c r="F1651" t="n">
+        <v>48.66666666666666</v>
+      </c>
+      <c r="G1651" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="B1652" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C1652" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="D1652" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E1652" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="F1652" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="G1652" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="B1653" t="n">
+        <v>4.875</v>
+      </c>
+      <c r="C1653" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="D1653" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="E1653" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="F1653" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="G1653" t="n">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="B1654" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="C1654" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D1654" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E1654" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="F1654" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="G1654" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1655" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C1655" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D1655" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E1655" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="F1655" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="G1655" t="n">
+        <v>0.175</v>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656" t="n">
+        <v>9.285714285714286</v>
+      </c>
+      <c r="B1656" t="n">
+        <v>0.8785714285714287</v>
+      </c>
+      <c r="C1656" t="n">
+        <v>12.28571428571429</v>
+      </c>
+      <c r="D1656" t="n">
+        <v>30.85714285714286</v>
+      </c>
+      <c r="E1656" t="n">
+        <v>52</v>
+      </c>
+      <c r="F1656" t="n">
+        <v>48</v>
+      </c>
+      <c r="G1656" t="n">
+        <v>1.914285714285714</v>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657" t="inlineStr">
+        <is>
+          <t>Iteración 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B1659" t="inlineStr">
+        <is>
+          <t>GDP (USD Billion)</t>
+        </is>
+      </c>
+      <c r="C1659" t="inlineStr">
+        <is>
+          <t>Population (Millions)</t>
+        </is>
+      </c>
+      <c r="D1659" t="inlineStr">
+        <is>
+          <t>Unemployment Rate (%)</t>
+        </is>
+      </c>
+      <c r="E1659" t="inlineStr">
+        <is>
+          <t>Average Age</t>
+        </is>
+      </c>
+      <c r="F1659" t="inlineStr">
+        <is>
+          <t>Women (%)</t>
+        </is>
+      </c>
+      <c r="G1659" t="inlineStr">
+        <is>
+          <t>Men (%)</t>
+        </is>
+      </c>
+      <c r="H1659" t="inlineStr">
+        <is>
+          <t>Budget (USD Billion)</t>
+        </is>
+      </c>
+      <c r="I1659" t="inlineStr">
+        <is>
+          <t>dis_C0</t>
+        </is>
+      </c>
+      <c r="J1659" t="inlineStr">
+        <is>
+          <t>dis_C1</t>
+        </is>
+      </c>
+      <c r="K1659" t="inlineStr">
+        <is>
+          <t>dis_C2</t>
+        </is>
+      </c>
+      <c r="L1659" t="inlineStr">
+        <is>
+          <t>dis_C3</t>
+        </is>
+      </c>
+      <c r="M1659" t="inlineStr">
+        <is>
+          <t>dis_C4</t>
+        </is>
+      </c>
+      <c r="N1659" t="inlineStr">
+        <is>
+          <t>dis_C5</t>
+        </is>
+      </c>
+      <c r="O1659" t="inlineStr">
+        <is>
+          <t>Cluster</t>
+        </is>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660" t="inlineStr">
+        <is>
+          <t>Pasto</t>
+        </is>
+      </c>
+      <c r="B1660" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C1660" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D1660" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E1660" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1660" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1660" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1660" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1660" t="n">
+        <v>1.051466348240153</v>
+      </c>
+      <c r="J1660" t="n">
+        <v>4.202534949289535</v>
+      </c>
+      <c r="K1660" t="n">
+        <v>71.79203037245847</v>
+      </c>
+      <c r="L1660" t="n">
+        <v>5.515498617532235</v>
+      </c>
+      <c r="M1660" t="n">
+        <v>8.628442791141401</v>
+      </c>
+      <c r="N1660" t="n">
+        <v>11.08171043882667</v>
+      </c>
+      <c r="O1660" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661" t="inlineStr">
+        <is>
+          <t>Riohacha</t>
+        </is>
+      </c>
+      <c r="B1661" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C1661" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D1661" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E1661" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1661" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1661" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1661" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1661" t="n">
+        <v>5.07144219388587</v>
+      </c>
+      <c r="J1661" t="n">
+        <v>1.744476998988524</v>
+      </c>
+      <c r="K1661" t="n">
+        <v>73.83924447744573</v>
+      </c>
+      <c r="L1661" t="n">
+        <v>2.136942909859783</v>
+      </c>
+      <c r="M1661" t="n">
+        <v>3.820749272066935</v>
+      </c>
+      <c r="N1661" t="n">
+        <v>13.63696286751562</v>
+      </c>
+      <c r="O1661" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662" t="inlineStr">
+        <is>
+          <t>Villavicencio</t>
+        </is>
+      </c>
+      <c r="B1662" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C1662" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D1662" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1662" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1662" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1662" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1662" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1662" t="n">
+        <v>1.547174246214094</v>
+      </c>
+      <c r="J1662" t="n">
+        <v>3.593438464757677</v>
+      </c>
+      <c r="K1662" t="n">
+        <v>71.52206390338579</v>
+      </c>
+      <c r="L1662" t="n">
+        <v>4.445416178492178</v>
+      </c>
+      <c r="M1662" t="n">
+        <v>8.048945583118327</v>
+      </c>
+      <c r="N1662" t="n">
+        <v>10.75023517184624</v>
+      </c>
+      <c r="O1662" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663" t="inlineStr">
+        <is>
+          <t>San Andrés</t>
+        </is>
+      </c>
+      <c r="B1663" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C1663" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D1663" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1663" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1663" t="n">
+        <v>50</v>
+      </c>
+      <c r="G1663" t="n">
+        <v>50</v>
+      </c>
+      <c r="H1663" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1663" t="n">
+        <v>4.808221354367184</v>
+      </c>
+      <c r="J1663" t="n">
+        <v>3.171624189591198</v>
+      </c>
+      <c r="K1663" t="n">
+        <v>74.12102957325942</v>
+      </c>
+      <c r="L1663" t="n">
+        <v>0.8959492173108918</v>
+      </c>
+      <c r="M1663" t="n">
+        <v>5.727191720206337</v>
+      </c>
+      <c r="N1663" t="n">
+        <v>13.76999114923463</v>
+      </c>
+      <c r="O1663" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664" t="inlineStr">
+        <is>
+          <t>Sincelejo</t>
+        </is>
+      </c>
+      <c r="B1664" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1664" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D1664" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E1664" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1664" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1664" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1664" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1664" t="n">
+        <v>4.620761521333582</v>
+      </c>
+      <c r="J1664" t="n">
+        <v>0.7477967638335965</v>
+      </c>
+      <c r="K1664" t="n">
+        <v>73.27406788898784</v>
+      </c>
+      <c r="L1664" t="n">
+        <v>3.875399979356969</v>
+      </c>
+      <c r="M1664" t="n">
+        <v>4.545297019997704</v>
+      </c>
+      <c r="N1664" t="n">
+        <v>13.02929991403989</v>
+      </c>
+      <c r="O1664" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665" t="inlineStr">
+        <is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+      <c r="B1665" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C1665" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D1665" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E1665" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1665" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1665" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1665" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I1665" t="n">
+        <v>8.248942244200048</v>
+      </c>
+      <c r="J1665" t="n">
+        <v>10.23150526559998</v>
+      </c>
+      <c r="K1665" t="n">
+        <v>64.24507004432324</v>
+      </c>
+      <c r="L1665" t="n">
+        <v>10.83852965120269</v>
+      </c>
+      <c r="M1665" t="n">
+        <v>13.64009622400077</v>
+      </c>
+      <c r="N1665" t="n">
+        <v>3.817906003295523</v>
+      </c>
+      <c r="O1665" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="B1666" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="C1666" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D1666" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E1666" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1666" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1666" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1666" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I1666" t="n">
+        <v>14.36944069635022</v>
+      </c>
+      <c r="J1666" t="n">
+        <v>15.42315467081881</v>
+      </c>
+      <c r="K1666" t="n">
+        <v>58.03930586249287</v>
+      </c>
+      <c r="L1666" t="n">
+        <v>16.28679603236929</v>
+      </c>
+      <c r="M1666" t="n">
+        <v>17.80958239263347</v>
+      </c>
+      <c r="N1666" t="n">
+        <v>3.181415761889666</v>
+      </c>
+      <c r="O1666" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667" t="inlineStr">
+        <is>
+          <t>Yopal</t>
+        </is>
+      </c>
+      <c r="B1667" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C1667" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D1667" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E1667" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1667" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1667" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1667" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1667" t="n">
+        <v>2.580142832681368</v>
+      </c>
+      <c r="J1667" t="n">
+        <v>4.578788049254957</v>
+      </c>
+      <c r="K1667" t="n">
+        <v>74.00196365637873</v>
+      </c>
+      <c r="L1667" t="n">
+        <v>3.47127138092083</v>
+      </c>
+      <c r="M1667" t="n">
+        <v>8.398036973007443</v>
+      </c>
+      <c r="N1667" t="n">
+        <v>13.29077899334723</v>
+      </c>
+      <c r="O1667" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668" t="inlineStr">
+        <is>
+          <t>Popayán</t>
+        </is>
+      </c>
+      <c r="B1668" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C1668" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D1668" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E1668" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1668" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1668" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1668" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1668" t="n">
+        <v>3.043635131682972</v>
+      </c>
+      <c r="J1668" t="n">
+        <v>2.765447522553988</v>
+      </c>
+      <c r="K1668" t="n">
+        <v>72.81924213420515</v>
+      </c>
+      <c r="L1668" t="n">
+        <v>5.323788594600653</v>
+      </c>
+      <c r="M1668" t="n">
+        <v>6.915433825870942</v>
+      </c>
+      <c r="N1668" t="n">
+        <v>12.34013396402162</v>
+      </c>
+      <c r="O1668" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669" t="inlineStr">
+        <is>
+          <t>Valledupar</t>
+        </is>
+      </c>
+      <c r="B1669" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C1669" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D1669" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E1669" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1669" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1669" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1669" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1669" t="n">
+        <v>3.60120710215236</v>
+      </c>
+      <c r="J1669" t="n">
+        <v>1.528299708826775</v>
+      </c>
+      <c r="K1669" t="n">
+        <v>72.39046225159775</v>
+      </c>
+      <c r="L1669" t="n">
+        <v>2.646984132933176</v>
+      </c>
+      <c r="M1669" t="n">
+        <v>5.368484423000592</v>
+      </c>
+      <c r="N1669" t="n">
+        <v>11.93641513395039</v>
+      </c>
+      <c r="O1669" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="B1670" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C1670" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D1670" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E1670" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1670" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1670" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1670" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1670" t="n">
+        <v>5.920658121576738</v>
+      </c>
+      <c r="J1670" t="n">
+        <v>1.736893779135615</v>
+      </c>
+      <c r="K1670" t="n">
+        <v>73.71404632090142</v>
+      </c>
+      <c r="L1670" t="n">
+        <v>4.108615947006972</v>
+      </c>
+      <c r="M1670" t="n">
+        <v>3.141261689194328</v>
+      </c>
+      <c r="N1670" t="n">
+        <v>13.80681195098999</v>
+      </c>
+      <c r="O1670" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671" t="inlineStr">
+        <is>
+          <t>Santa Marta</t>
+        </is>
+      </c>
+      <c r="B1671" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1671" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D1671" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E1671" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1671" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1671" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1671" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1671" t="n">
+        <v>2.247708297932049</v>
+      </c>
+      <c r="J1671" t="n">
+        <v>4.804289749796531</v>
+      </c>
+      <c r="K1671" t="n">
+        <v>71.01225968098747</v>
+      </c>
+      <c r="L1671" t="n">
+        <v>4.557359432829498</v>
+      </c>
+      <c r="M1671" t="n">
+        <v>8.872887072424625</v>
+      </c>
+      <c r="N1671" t="n">
+        <v>10.31228666446002</v>
+      </c>
+      <c r="O1671" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672" t="inlineStr">
+        <is>
+          <t>Neiva</t>
+        </is>
+      </c>
+      <c r="B1672" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C1672" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D1672" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E1672" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1672" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1672" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1672" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1672" t="n">
+        <v>1.88909835439889</v>
+      </c>
+      <c r="J1672" t="n">
+        <v>2.615587888028233</v>
+      </c>
+      <c r="K1672" t="n">
+        <v>72.5610131199944</v>
+      </c>
+      <c r="L1672" t="n">
+        <v>4.368492302843167</v>
+      </c>
+      <c r="M1672" t="n">
+        <v>6.946871598064845</v>
+      </c>
+      <c r="N1672" t="n">
+        <v>11.89234233656263</v>
+      </c>
+      <c r="O1672" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673" t="inlineStr">
+        <is>
+          <t>Leticia</t>
+        </is>
+      </c>
+      <c r="B1673" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1673" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D1673" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E1673" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1673" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1673" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1673" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1673" t="n">
+        <v>5.024962502163389</v>
+      </c>
+      <c r="J1673" t="n">
+        <v>3.692059046115056</v>
+      </c>
+      <c r="K1673" t="n">
+        <v>74.33340853882594</v>
+      </c>
+      <c r="L1673" t="n">
+        <v>0.8959492173108922</v>
+      </c>
+      <c r="M1673" t="n">
+        <v>5.568305397515479</v>
+      </c>
+      <c r="N1673" t="n">
+        <v>14.05892265609282</v>
+      </c>
+      <c r="O1673" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="B1674" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="C1674" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="D1674" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E1674" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1674" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1674" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1674" t="n">
+        <v>18</v>
+      </c>
+      <c r="I1674" t="n">
+        <v>102.4657975095069</v>
+      </c>
+      <c r="J1674" t="n">
+        <v>103.3803327524147</v>
+      </c>
+      <c r="K1674" t="n">
+        <v>30.26281588021842</v>
+      </c>
+      <c r="L1674" t="n">
+        <v>104.406157505197</v>
+      </c>
+      <c r="M1674" t="n">
+        <v>104.8391278340296</v>
+      </c>
+      <c r="N1674" t="n">
+        <v>91.02865019459533</v>
+      </c>
+      <c r="O1674" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675" t="inlineStr">
+        <is>
+          <t>Medellín</t>
+        </is>
+      </c>
+      <c r="B1675" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="C1675" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D1675" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E1675" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1675" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1675" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1675" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I1675" t="n">
+        <v>42.00278593052996</v>
+      </c>
+      <c r="J1675" t="n">
+        <v>43.09041308690368</v>
+      </c>
+      <c r="K1675" t="n">
+        <v>30.26281588021841</v>
+      </c>
+      <c r="L1675" t="n">
+        <v>44.14530014622168</v>
+      </c>
+      <c r="M1675" t="n">
+        <v>44.88513813056612</v>
+      </c>
+      <c r="N1675" t="n">
+        <v>30.61239138404577</v>
+      </c>
+      <c r="O1675" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676" t="inlineStr">
+        <is>
+          <t>Quibdó</t>
+        </is>
+      </c>
+      <c r="B1676" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C1676" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D1676" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E1676" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1676" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1676" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1676" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1676" t="n">
+        <v>7.494601266788524</v>
+      </c>
+      <c r="J1676" t="n">
+        <v>3.712101830499803</v>
+      </c>
+      <c r="K1676" t="n">
+        <v>74.28687653280356</v>
+      </c>
+      <c r="L1676" t="n">
+        <v>4.916983323136249</v>
+      </c>
+      <c r="M1676" t="n">
+        <v>1.291984907032588</v>
+      </c>
+      <c r="N1676" t="n">
+        <v>14.90180882477023</v>
+      </c>
+      <c r="O1676" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677" t="inlineStr">
+        <is>
+          <t>Manizales</t>
+        </is>
+      </c>
+      <c r="B1677" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C1677" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D1677" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E1677" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1677" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1677" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1677" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1677" t="n">
+        <v>3.060853790354241</v>
+      </c>
+      <c r="J1677" t="n">
+        <v>6.975507150021422</v>
+      </c>
+      <c r="K1677" t="n">
+        <v>71.15710101599137</v>
+      </c>
+      <c r="L1677" t="n">
+        <v>7.759234820521931</v>
+      </c>
+      <c r="M1677" t="n">
+        <v>11.21027319024831</v>
+      </c>
+      <c r="N1677" t="n">
+        <v>10.88284917886856</v>
+      </c>
+      <c r="O1677" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="B1678" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C1678" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D1678" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1678" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1678" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1678" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1678" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1678" t="n">
+        <v>2.608665758014436</v>
+      </c>
+      <c r="J1678" t="n">
+        <v>6.511320910537276</v>
+      </c>
+      <c r="K1678" t="n">
+        <v>73.20782488914692</v>
+      </c>
+      <c r="L1678" t="n">
+        <v>6.306879180704194</v>
+      </c>
+      <c r="M1678" t="n">
+        <v>10.69032389593505</v>
+      </c>
+      <c r="N1678" t="n">
+        <v>12.70654580324645</v>
+      </c>
+      <c r="O1678" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="B1679" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C1679" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D1679" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E1679" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1679" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1679" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1679" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1679" t="n">
+        <v>2.696082205582623</v>
+      </c>
+      <c r="J1679" t="n">
+        <v>5.001279836201927</v>
+      </c>
+      <c r="K1679" t="n">
+        <v>72.92897657995758</v>
+      </c>
+      <c r="L1679" t="n">
+        <v>6.646632606064518</v>
+      </c>
+      <c r="M1679" t="n">
+        <v>9.0420420813</v>
+      </c>
+      <c r="N1679" t="n">
+        <v>12.49157941374909</v>
+      </c>
+      <c r="O1679" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680" t="inlineStr">
+        <is>
+          <t>Pereira</t>
+        </is>
+      </c>
+      <c r="B1680" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C1680" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D1680" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1680" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1680" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1680" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1680" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I1680" t="n">
+        <v>3.891085728707111</v>
+      </c>
+      <c r="J1680" t="n">
+        <v>6.800088234721663</v>
+      </c>
+      <c r="K1680" t="n">
+        <v>68.71863666429944</v>
+      </c>
+      <c r="L1680" t="n">
+        <v>8.092881130969365</v>
+      </c>
+      <c r="M1680" t="n">
+        <v>11.02876806356902</v>
+      </c>
+      <c r="N1680" t="n">
+        <v>8.189789756153695</v>
+      </c>
+      <c r="O1680" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681" t="inlineStr">
+        <is>
+          <t>Mitú</t>
+        </is>
+      </c>
+      <c r="B1681" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C1681" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1681" t="n">
+        <v>20</v>
+      </c>
+      <c r="E1681" t="n">
+        <v>25</v>
+      </c>
+      <c r="F1681" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1681" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1681" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1681" t="n">
+        <v>9.690134349104955</v>
+      </c>
+      <c r="J1681" t="n">
+        <v>5.623646503826499</v>
+      </c>
+      <c r="K1681" t="n">
+        <v>75.22659586210185</v>
+      </c>
+      <c r="L1681" t="n">
+        <v>6.431409254587986</v>
+      </c>
+      <c r="M1681" t="n">
+        <v>1.291984907032585</v>
+      </c>
+      <c r="N1681" t="n">
+        <v>16.53247731738955</v>
+      </c>
+      <c r="O1681" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682" t="inlineStr">
+        <is>
+          <t>Cali</t>
+        </is>
+      </c>
+      <c r="B1682" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="C1682" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="D1682" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E1682" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1682" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1682" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1682" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I1682" t="n">
+        <v>20.09327536303663</v>
+      </c>
+      <c r="J1682" t="n">
+        <v>20.95823704417907</v>
+      </c>
+      <c r="K1682" t="n">
+        <v>52.28298982460739</v>
+      </c>
+      <c r="L1682" t="n">
+        <v>22.17046966124083</v>
+      </c>
+      <c r="M1682" t="n">
+        <v>22.97098659178573</v>
+      </c>
+      <c r="N1682" t="n">
+        <v>8.755935486856901</v>
+      </c>
+      <c r="O1682" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683" t="inlineStr">
+        <is>
+          <t>Montería</t>
+        </is>
+      </c>
+      <c r="B1683" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1683" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D1683" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E1683" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1683" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1683" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1683" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1683" t="n">
+        <v>2.126380161822574</v>
+      </c>
+      <c r="J1683" t="n">
+        <v>2.677853618105368</v>
+      </c>
+      <c r="K1683" t="n">
+        <v>72.07526083893141</v>
+      </c>
+      <c r="L1683" t="n">
+        <v>3.306527634845957</v>
+      </c>
+      <c r="M1683" t="n">
+        <v>6.968645851239681</v>
+      </c>
+      <c r="N1683" t="n">
+        <v>11.36672803624684</v>
+      </c>
+      <c r="O1683" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684" t="inlineStr">
+        <is>
+          <t>Centroides Iteración 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686" t="inlineStr">
+        <is>
+          <t>GDP (USD Billion)</t>
+        </is>
+      </c>
+      <c r="B1686" t="inlineStr">
+        <is>
+          <t>Population (Millions)</t>
+        </is>
+      </c>
+      <c r="C1686" t="inlineStr">
+        <is>
+          <t>Unemployment Rate (%)</t>
+        </is>
+      </c>
+      <c r="D1686" t="inlineStr">
+        <is>
+          <t>Average Age</t>
+        </is>
+      </c>
+      <c r="E1686" t="inlineStr">
+        <is>
+          <t>Women (%)</t>
+        </is>
+      </c>
+      <c r="F1686" t="inlineStr">
+        <is>
+          <t>Men (%)</t>
+        </is>
+      </c>
+      <c r="G1686" t="inlineStr">
+        <is>
+          <t>Budget (USD Billion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687" t="n">
+        <v>2.777777777777778</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>0.3822222222222222</v>
+      </c>
+      <c r="C1687" t="n">
+        <v>12.28888888888889</v>
+      </c>
+      <c r="D1687" t="n">
+        <v>30.33333333333333</v>
+      </c>
+      <c r="E1687" t="n">
+        <v>51.77777777777778</v>
+      </c>
+      <c r="F1687" t="n">
+        <v>48.22222222222222</v>
+      </c>
+      <c r="G1687" t="n">
+        <v>0.6222222222222222</v>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C1688" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="D1688" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E1688" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="F1688" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="G1688" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>4.875</v>
+      </c>
+      <c r="C1689" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="D1689" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="E1689" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="F1689" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="G1689" t="n">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="C1690" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D1690" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E1690" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="F1690" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="G1690" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C1691" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D1691" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E1691" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="F1691" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="G1691" t="n">
+        <v>0.175</v>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692" t="n">
+        <v>13.975</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>1.2425</v>
+      </c>
+      <c r="C1692" t="n">
+        <v>12.275</v>
+      </c>
+      <c r="D1692" t="n">
+        <v>30.25</v>
+      </c>
+      <c r="E1692" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="F1692" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="G1692" t="n">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693" t="inlineStr">
+        <is>
+          <t>Iteración 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B1695" t="inlineStr">
+        <is>
+          <t>GDP (USD Billion)</t>
+        </is>
+      </c>
+      <c r="C1695" t="inlineStr">
+        <is>
+          <t>Population (Millions)</t>
+        </is>
+      </c>
+      <c r="D1695" t="inlineStr">
+        <is>
+          <t>Unemployment Rate (%)</t>
+        </is>
+      </c>
+      <c r="E1695" t="inlineStr">
+        <is>
+          <t>Average Age</t>
+        </is>
+      </c>
+      <c r="F1695" t="inlineStr">
+        <is>
+          <t>Women (%)</t>
+        </is>
+      </c>
+      <c r="G1695" t="inlineStr">
+        <is>
+          <t>Men (%)</t>
+        </is>
+      </c>
+      <c r="H1695" t="inlineStr">
+        <is>
+          <t>Budget (USD Billion)</t>
+        </is>
+      </c>
+      <c r="I1695" t="inlineStr">
+        <is>
+          <t>dis_C0</t>
+        </is>
+      </c>
+      <c r="J1695" t="inlineStr">
+        <is>
+          <t>dis_C1</t>
+        </is>
+      </c>
+      <c r="K1695" t="inlineStr">
+        <is>
+          <t>dis_C2</t>
+        </is>
+      </c>
+      <c r="L1695" t="inlineStr">
+        <is>
+          <t>dis_C3</t>
+        </is>
+      </c>
+      <c r="M1695" t="inlineStr">
+        <is>
+          <t>dis_C4</t>
+        </is>
+      </c>
+      <c r="N1695" t="inlineStr">
+        <is>
+          <t>dis_C5</t>
+        </is>
+      </c>
+      <c r="O1695" t="inlineStr">
+        <is>
+          <t>Cluster</t>
+        </is>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696" t="inlineStr">
+        <is>
+          <t>Pasto</t>
+        </is>
+      </c>
+      <c r="B1696" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C1696" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D1696" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E1696" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1696" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1696" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1696" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1696" t="n">
+        <v>0.865715888730248</v>
+      </c>
+      <c r="J1696" t="n">
+        <v>4.202534949289535</v>
+      </c>
+      <c r="K1696" t="n">
+        <v>71.79203037245847</v>
+      </c>
+      <c r="L1696" t="n">
+        <v>5.515498617532235</v>
+      </c>
+      <c r="M1696" t="n">
+        <v>8.628442791141401</v>
+      </c>
+      <c r="N1696" t="n">
+        <v>13.77771792101693</v>
+      </c>
+      <c r="O1696" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697" t="inlineStr">
+        <is>
+          <t>Riohacha</t>
+        </is>
+      </c>
+      <c r="B1697" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C1697" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D1697" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E1697" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1697" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1697" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1697" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1697" t="n">
+        <v>5.307512034842691</v>
+      </c>
+      <c r="J1697" t="n">
+        <v>1.744476998988524</v>
+      </c>
+      <c r="K1697" t="n">
+        <v>73.83924447744573</v>
+      </c>
+      <c r="L1697" t="n">
+        <v>2.136942909859783</v>
+      </c>
+      <c r="M1697" t="n">
+        <v>3.820749272066935</v>
+      </c>
+      <c r="N1697" t="n">
+        <v>16.01509322829908</v>
+      </c>
+      <c r="O1697" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698" t="inlineStr">
+        <is>
+          <t>Villavicencio</t>
+        </is>
+      </c>
+      <c r="B1698" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C1698" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D1698" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1698" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1698" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1698" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1698" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1698" t="n">
+        <v>1.498587334792334</v>
+      </c>
+      <c r="J1698" t="n">
+        <v>3.593438464757677</v>
+      </c>
+      <c r="K1698" t="n">
+        <v>71.52206390338579</v>
+      </c>
+      <c r="L1698" t="n">
+        <v>4.445416178492178</v>
+      </c>
+      <c r="M1698" t="n">
+        <v>8.048945583118327</v>
+      </c>
+      <c r="N1698" t="n">
+        <v>13.38108158724266</v>
+      </c>
+      <c r="O1698" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699" t="inlineStr">
+        <is>
+          <t>San Andrés</t>
+        </is>
+      </c>
+      <c r="B1699" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C1699" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D1699" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1699" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1699" t="n">
+        <v>50</v>
+      </c>
+      <c r="G1699" t="n">
+        <v>50</v>
+      </c>
+      <c r="H1699" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1699" t="n">
+        <v>5.077543106660936</v>
+      </c>
+      <c r="J1699" t="n">
+        <v>3.171624189591198</v>
+      </c>
+      <c r="K1699" t="n">
+        <v>74.12102957325942</v>
+      </c>
+      <c r="L1699" t="n">
+        <v>0.8959492173108918</v>
+      </c>
+      <c r="M1699" t="n">
+        <v>5.727191720206337</v>
+      </c>
+      <c r="N1699" t="n">
+        <v>16.17107328259665</v>
+      </c>
+      <c r="O1699" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700" t="inlineStr">
+        <is>
+          <t>Sincelejo</t>
+        </is>
+      </c>
+      <c r="B1700" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1700" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D1700" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E1700" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1700" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1700" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1700" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1700" t="n">
+        <v>4.776048994723567</v>
+      </c>
+      <c r="J1700" t="n">
+        <v>0.7477967638335965</v>
+      </c>
+      <c r="K1700" t="n">
+        <v>73.27406788898784</v>
+      </c>
+      <c r="L1700" t="n">
+        <v>3.875399979356969</v>
+      </c>
+      <c r="M1700" t="n">
+        <v>4.545297019997704</v>
+      </c>
+      <c r="N1700" t="n">
+        <v>15.48021138242125</v>
+      </c>
+      <c r="O1700" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701" t="inlineStr">
+        <is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+      <c r="B1701" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C1701" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D1701" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E1701" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1701" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1701" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1701" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I1701" t="n">
+        <v>7.918531682073387</v>
+      </c>
+      <c r="J1701" t="n">
+        <v>10.23150526559998</v>
+      </c>
+      <c r="K1701" t="n">
+        <v>64.24507004432324</v>
+      </c>
+      <c r="L1701" t="n">
+        <v>10.83852965120269</v>
+      </c>
+      <c r="M1701" t="n">
+        <v>13.64009622400077</v>
+      </c>
+      <c r="N1701" t="n">
+        <v>6.310925271129249</v>
+      </c>
+      <c r="O1701" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="B1702" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="C1702" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D1702" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E1702" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1702" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1702" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1702" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I1702" t="n">
+        <v>14.04287520417382</v>
+      </c>
+      <c r="J1702" t="n">
+        <v>15.42315467081881</v>
+      </c>
+      <c r="K1702" t="n">
+        <v>58.03930586249287</v>
+      </c>
+      <c r="L1702" t="n">
+        <v>16.28679603236929</v>
+      </c>
+      <c r="M1702" t="n">
+        <v>17.80958239263347</v>
+      </c>
+      <c r="N1702" t="n">
+        <v>0.9297550453987599</v>
+      </c>
+      <c r="O1702" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703" t="inlineStr">
+        <is>
+          <t>Yopal</t>
+        </is>
+      </c>
+      <c r="B1703" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C1703" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D1703" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E1703" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1703" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1703" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1703" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1703" t="n">
+        <v>2.913187944503408</v>
+      </c>
+      <c r="J1703" t="n">
+        <v>4.578788049254957</v>
+      </c>
+      <c r="K1703" t="n">
+        <v>74.00196365637873</v>
+      </c>
+      <c r="L1703" t="n">
+        <v>3.47127138092083</v>
+      </c>
+      <c r="M1703" t="n">
+        <v>8.398036973007443</v>
+      </c>
+      <c r="N1703" t="n">
+        <v>15.88951995638775</v>
+      </c>
+      <c r="O1703" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="inlineStr">
+        <is>
+          <t>Popayán</t>
+        </is>
+      </c>
+      <c r="B1704" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C1704" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D1704" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E1704" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1704" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1704" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1704" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1704" t="n">
+        <v>3.112224927604045</v>
+      </c>
+      <c r="J1704" t="n">
+        <v>2.765447522553988</v>
+      </c>
+      <c r="K1704" t="n">
+        <v>72.81924213420515</v>
+      </c>
+      <c r="L1704" t="n">
+        <v>5.323788594600653</v>
+      </c>
+      <c r="M1704" t="n">
+        <v>6.915433825870942</v>
+      </c>
+      <c r="N1704" t="n">
+        <v>14.96031788135236</v>
+      </c>
+      <c r="O1704" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="inlineStr">
+        <is>
+          <t>Valledupar</t>
+        </is>
+      </c>
+      <c r="B1705" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C1705" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D1705" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E1705" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1705" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1705" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1705" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1705" t="n">
+        <v>3.754754852184094</v>
+      </c>
+      <c r="J1705" t="n">
+        <v>1.528299708826775</v>
+      </c>
+      <c r="K1705" t="n">
+        <v>72.39046225159775</v>
+      </c>
+      <c r="L1705" t="n">
+        <v>2.646984132933176</v>
+      </c>
+      <c r="M1705" t="n">
+        <v>5.368484423000592</v>
+      </c>
+      <c r="N1705" t="n">
+        <v>14.39273119012202</v>
+      </c>
+      <c r="O1705" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="B1706" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C1706" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D1706" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E1706" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1706" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1706" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1706" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1706" t="n">
+        <v>6.09302584928047</v>
+      </c>
+      <c r="J1706" t="n">
+        <v>1.736893779135615</v>
+      </c>
+      <c r="K1706" t="n">
+        <v>73.71404632090142</v>
+      </c>
+      <c r="L1706" t="n">
+        <v>4.108615947006972</v>
+      </c>
+      <c r="M1706" t="n">
+        <v>3.141261689194328</v>
+      </c>
+      <c r="N1706" t="n">
+        <v>16.15089299216747</v>
+      </c>
+      <c r="O1706" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" t="inlineStr">
+        <is>
+          <t>Santa Marta</t>
+        </is>
+      </c>
+      <c r="B1707" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1707" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D1707" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E1707" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1707" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1707" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1707" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1707" t="n">
+        <v>2.191000684618786</v>
+      </c>
+      <c r="J1707" t="n">
+        <v>4.804289749796531</v>
+      </c>
+      <c r="K1707" t="n">
+        <v>71.01225968098747</v>
+      </c>
+      <c r="L1707" t="n">
+        <v>4.557359432829498</v>
+      </c>
+      <c r="M1707" t="n">
+        <v>8.872887072424625</v>
+      </c>
+      <c r="N1707" t="n">
+        <v>12.89239612243503</v>
+      </c>
+      <c r="O1707" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" t="inlineStr">
+        <is>
+          <t>Neiva</t>
+        </is>
+      </c>
+      <c r="B1708" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C1708" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D1708" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E1708" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1708" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1708" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1708" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1708" t="n">
+        <v>2.02727995106744</v>
+      </c>
+      <c r="J1708" t="n">
+        <v>2.615587888028233</v>
+      </c>
+      <c r="K1708" t="n">
+        <v>72.5610131199944</v>
+      </c>
+      <c r="L1708" t="n">
+        <v>4.368492302843167</v>
+      </c>
+      <c r="M1708" t="n">
+        <v>6.946871598064845</v>
+      </c>
+      <c r="N1708" t="n">
+        <v>14.52049738970551</v>
+      </c>
+      <c r="O1708" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" t="inlineStr">
+        <is>
+          <t>Leticia</t>
+        </is>
+      </c>
+      <c r="B1709" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1709" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D1709" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E1709" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1709" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1709" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1709" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1709" t="n">
+        <v>5.318370427113929</v>
+      </c>
+      <c r="J1709" t="n">
+        <v>3.692059046115056</v>
+      </c>
+      <c r="K1709" t="n">
+        <v>74.33340853882594</v>
+      </c>
+      <c r="L1709" t="n">
+        <v>0.8959492173108922</v>
+      </c>
+      <c r="M1709" t="n">
+        <v>5.568305397515479</v>
+      </c>
+      <c r="N1709" t="n">
+        <v>16.43997702080037</v>
+      </c>
+      <c r="O1709" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="B1710" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="C1710" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="D1710" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E1710" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1710" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1710" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1710" t="n">
+        <v>18</v>
+      </c>
+      <c r="I1710" t="n">
+        <v>102.114078578813</v>
+      </c>
+      <c r="J1710" t="n">
+        <v>103.3803327524147</v>
+      </c>
+      <c r="K1710" t="n">
+        <v>30.26281588021842</v>
+      </c>
+      <c r="L1710" t="n">
+        <v>104.406157505197</v>
+      </c>
+      <c r="M1710" t="n">
+        <v>104.8391278340296</v>
+      </c>
+      <c r="N1710" t="n">
+        <v>88.39489207213528</v>
+      </c>
+      <c r="O1710" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" t="inlineStr">
+        <is>
+          <t>Medellín</t>
+        </is>
+      </c>
+      <c r="B1711" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1711" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1711" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1711" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I1711" t="n">
+        <v>41.65013546196459</v>
+      </c>
+      <c r="J1711" t="n">
+        <v>43.09041308690368</v>
+      </c>
+      <c r="K1711" t="n">
+        <v>30.26281588021841</v>
+      </c>
+      <c r="L1711" t="n">
+        <v>44.14530014622168</v>
+      </c>
+      <c r="M1711" t="n">
+        <v>44.88513813056612</v>
+      </c>
+      <c r="N1711" t="n">
+        <v>28.01812587911222</v>
+      </c>
+      <c r="O1711" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" t="inlineStr">
+        <is>
+          <t>Quibdó</t>
+        </is>
+      </c>
+      <c r="B1712" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1712" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1712" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1712" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1712" t="n">
+        <v>7.690692036481502</v>
+      </c>
+      <c r="J1712" t="n">
+        <v>3.712101830499803</v>
+      </c>
+      <c r="K1712" t="n">
+        <v>74.28687653280356</v>
+      </c>
+      <c r="L1712" t="n">
+        <v>4.916983323136249</v>
+      </c>
+      <c r="M1712" t="n">
+        <v>1.291984907032588</v>
+      </c>
+      <c r="N1712" t="n">
+        <v>17.10860732042338</v>
+      </c>
+      <c r="O1712" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" t="inlineStr">
+        <is>
+          <t>Manizales</t>
+        </is>
+      </c>
+      <c r="B1713" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1713" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1713" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1713" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1713" t="n">
+        <v>2.835408965211194</v>
+      </c>
+      <c r="J1713" t="n">
+        <v>6.975507150021422</v>
+      </c>
+      <c r="K1713" t="n">
+        <v>71.15710101599137</v>
+      </c>
+      <c r="L1713" t="n">
+        <v>7.759234820521931</v>
+      </c>
+      <c r="M1713" t="n">
+        <v>11.21027319024831</v>
+      </c>
+      <c r="N1713" t="n">
+        <v>13.58275049874329</v>
+      </c>
+      <c r="O1713" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="B1714" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1714" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1714" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1714" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1714" t="n">
+        <v>2.698937568748118</v>
+      </c>
+      <c r="J1714" t="n">
+        <v>6.511320910537276</v>
+      </c>
+      <c r="K1714" t="n">
+        <v>73.20782488914692</v>
+      </c>
+      <c r="L1714" t="n">
+        <v>6.306879180704194</v>
+      </c>
+      <c r="M1714" t="n">
+        <v>10.69032389593505</v>
+      </c>
+      <c r="N1714" t="n">
+        <v>15.38432680071218</v>
+      </c>
+      <c r="O1714" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="B1715" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1715" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1715" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1715" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1715" t="n">
+        <v>2.701215282053619</v>
+      </c>
+      <c r="J1715" t="n">
+        <v>5.001279836201927</v>
+      </c>
+      <c r="K1715" t="n">
+        <v>72.92897657995758</v>
+      </c>
+      <c r="L1715" t="n">
+        <v>6.646632606064518</v>
+      </c>
+      <c r="M1715" t="n">
+        <v>9.0420420813</v>
+      </c>
+      <c r="N1715" t="n">
+        <v>15.19227910632386</v>
+      </c>
+      <c r="O1715" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" t="inlineStr">
+        <is>
+          <t>Pereira</t>
+        </is>
+      </c>
+      <c r="B1716" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1716" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1716" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1716" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I1716" t="n">
+        <v>3.5019771558364</v>
+      </c>
+      <c r="J1716" t="n">
+        <v>6.800088234721663</v>
+      </c>
+      <c r="K1716" t="n">
+        <v>68.71863666429944</v>
+      </c>
+      <c r="L1716" t="n">
+        <v>8.092881130969365</v>
+      </c>
+      <c r="M1716" t="n">
+        <v>11.02876806356902</v>
+      </c>
+      <c r="N1716" t="n">
+        <v>10.91971967487159</v>
+      </c>
+      <c r="O1716" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" t="inlineStr">
+        <is>
+          <t>Mitú</t>
+        </is>
+      </c>
+      <c r="B1717" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>20</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>25</v>
+      </c>
+      <c r="F1717" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1717" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1717" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1717" t="n">
+        <v>9.891891831191847</v>
+      </c>
+      <c r="J1717" t="n">
+        <v>5.623646503826499</v>
+      </c>
+      <c r="K1717" t="n">
+        <v>75.22659586210185</v>
+      </c>
+      <c r="L1717" t="n">
+        <v>6.431409254587986</v>
+      </c>
+      <c r="M1717" t="n">
+        <v>1.291984907032585</v>
+      </c>
+      <c r="N1717" t="n">
+        <v>18.58034834023422</v>
+      </c>
+      <c r="O1717" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" t="inlineStr">
+        <is>
+          <t>Cali</t>
+        </is>
+      </c>
+      <c r="B1718" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1718" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1718" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1718" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I1718" t="n">
+        <v>19.75141372155421</v>
+      </c>
+      <c r="J1718" t="n">
+        <v>20.95823704417907</v>
+      </c>
+      <c r="K1718" t="n">
+        <v>52.28298982460739</v>
+      </c>
+      <c r="L1718" t="n">
+        <v>22.17046966124083</v>
+      </c>
+      <c r="M1718" t="n">
+        <v>22.97098659178573</v>
+      </c>
+      <c r="N1718" t="n">
+        <v>6.189866270319935</v>
+      </c>
+      <c r="O1718" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" t="inlineStr">
+        <is>
+          <t>Montería</t>
+        </is>
+      </c>
+      <c r="B1719" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1719" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1719" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1719" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1719" t="n">
+        <v>2.256480445295281</v>
+      </c>
+      <c r="J1719" t="n">
+        <v>2.677853618105368</v>
+      </c>
+      <c r="K1719" t="n">
+        <v>72.07526083893141</v>
+      </c>
+      <c r="L1719" t="n">
+        <v>3.306527634845957</v>
+      </c>
+      <c r="M1719" t="n">
+        <v>6.968645851239681</v>
+      </c>
+      <c r="N1719" t="n">
+        <v>13.93305581860793</v>
+      </c>
+      <c r="O1719" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" t="inlineStr">
+        <is>
+          <t>Centroides Iteración 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722" t="inlineStr">
+        <is>
+          <t>GDP (USD Billion)</t>
+        </is>
+      </c>
+      <c r="B1722" t="inlineStr">
+        <is>
+          <t>Population (Millions)</t>
+        </is>
+      </c>
+      <c r="C1722" t="inlineStr">
+        <is>
+          <t>Unemployment Rate (%)</t>
+        </is>
+      </c>
+      <c r="D1722" t="inlineStr">
+        <is>
+          <t>Average Age</t>
+        </is>
+      </c>
+      <c r="E1722" t="inlineStr">
+        <is>
+          <t>Women (%)</t>
+        </is>
+      </c>
+      <c r="F1722" t="inlineStr">
+        <is>
+          <t>Men (%)</t>
+        </is>
+      </c>
+      <c r="G1722" t="inlineStr">
+        <is>
+          <t>Budget (USD Billion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>0.392</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="F1723" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="G1723" t="n">
+        <v>0.6900000000000001</v>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C1724" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="D1724" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E1724" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="F1724" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="G1724" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>4.875</v>
+      </c>
+      <c r="C1725" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="D1725" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="E1725" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="F1725" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="G1725" t="n">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="C1726" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D1726" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E1726" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="F1726" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="G1726" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C1727" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D1727" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E1727" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="F1727" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="G1727" t="n">
+        <v>0.175</v>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728" t="n">
+        <v>16.56666666666667</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>1.496666666666667</v>
+      </c>
+      <c r="C1728" t="n">
+        <v>12.36666666666667</v>
+      </c>
+      <c r="D1728" t="n">
+        <v>29.66666666666667</v>
+      </c>
+      <c r="E1728" t="n">
+        <v>51.33333333333334</v>
+      </c>
+      <c r="F1728" t="n">
+        <v>48.66666666666666</v>
+      </c>
+      <c r="G1728" t="n">
+        <v>3.366666666666667</v>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729" t="inlineStr">
+        <is>
+          <t>Iteración 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B1731" t="inlineStr">
+        <is>
+          <t>GDP (USD Billion)</t>
+        </is>
+      </c>
+      <c r="C1731" t="inlineStr">
+        <is>
+          <t>Population (Millions)</t>
+        </is>
+      </c>
+      <c r="D1731" t="inlineStr">
+        <is>
+          <t>Unemployment Rate (%)</t>
+        </is>
+      </c>
+      <c r="E1731" t="inlineStr">
+        <is>
+          <t>Average Age</t>
+        </is>
+      </c>
+      <c r="F1731" t="inlineStr">
+        <is>
+          <t>Women (%)</t>
+        </is>
+      </c>
+      <c r="G1731" t="inlineStr">
+        <is>
+          <t>Men (%)</t>
+        </is>
+      </c>
+      <c r="H1731" t="inlineStr">
+        <is>
+          <t>Budget (USD Billion)</t>
+        </is>
+      </c>
+      <c r="I1731" t="inlineStr">
+        <is>
+          <t>dis_C0</t>
+        </is>
+      </c>
+      <c r="J1731" t="inlineStr">
+        <is>
+          <t>dis_C1</t>
+        </is>
+      </c>
+      <c r="K1731" t="inlineStr">
+        <is>
+          <t>dis_C2</t>
+        </is>
+      </c>
+      <c r="L1731" t="inlineStr">
+        <is>
+          <t>dis_C3</t>
+        </is>
+      </c>
+      <c r="M1731" t="inlineStr">
+        <is>
+          <t>dis_C4</t>
+        </is>
+      </c>
+      <c r="N1731" t="inlineStr">
+        <is>
+          <t>dis_C5</t>
+        </is>
+      </c>
+      <c r="O1731" t="inlineStr">
+        <is>
+          <t>Cluster</t>
+        </is>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732" t="inlineStr">
+        <is>
+          <t>Pasto</t>
+        </is>
+      </c>
+      <c r="B1732" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C1732" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D1732" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E1732" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1732" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1732" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1732" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1732" t="n">
+        <v>0.865715888730248</v>
+      </c>
+      <c r="J1732" t="n">
+        <v>4.202534949289535</v>
+      </c>
+      <c r="K1732" t="n">
+        <v>102.036429278959</v>
+      </c>
+      <c r="L1732" t="n">
+        <v>5.515498617532235</v>
+      </c>
+      <c r="M1732" t="n">
+        <v>8.628442791141401</v>
+      </c>
+      <c r="N1732" t="n">
+        <v>20.67093007099584</v>
+      </c>
+      <c r="O1732" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733" t="inlineStr">
+        <is>
+          <t>Riohacha</t>
+        </is>
+      </c>
+      <c r="B1733" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C1733" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D1733" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E1733" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1733" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1733" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1733" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1733" t="n">
+        <v>5.307512034842691</v>
+      </c>
+      <c r="J1733" t="n">
+        <v>1.744476998988524</v>
+      </c>
+      <c r="K1733" t="n">
+        <v>104.0181311118403</v>
+      </c>
+      <c r="L1733" t="n">
+        <v>2.136942909859783</v>
+      </c>
+      <c r="M1733" t="n">
+        <v>3.820749272066935</v>
+      </c>
+      <c r="N1733" t="n">
+        <v>22.89683711782045</v>
+      </c>
+      <c r="O1733" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734" t="inlineStr">
+        <is>
+          <t>Villavicencio</t>
+        </is>
+      </c>
+      <c r="B1734" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C1734" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D1734" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1734" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1734" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1734" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1734" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1734" t="n">
+        <v>1.498587334792334</v>
+      </c>
+      <c r="J1734" t="n">
+        <v>3.593438464757677</v>
+      </c>
+      <c r="K1734" t="n">
+        <v>101.7482795923351</v>
+      </c>
+      <c r="L1734" t="n">
+        <v>4.445416178492178</v>
+      </c>
+      <c r="M1734" t="n">
+        <v>8.048945583118327</v>
+      </c>
+      <c r="N1734" t="n">
+        <v>20.36033766910559</v>
+      </c>
+      <c r="O1734" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735" t="inlineStr">
+        <is>
+          <t>San Andrés</t>
+        </is>
+      </c>
+      <c r="B1735" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C1735" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D1735" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1735" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1735" t="n">
+        <v>50</v>
+      </c>
+      <c r="G1735" t="n">
+        <v>50</v>
+      </c>
+      <c r="H1735" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1735" t="n">
+        <v>5.077543106660936</v>
+      </c>
+      <c r="J1735" t="n">
+        <v>3.171624189591198</v>
+      </c>
+      <c r="K1735" t="n">
+        <v>104.2966442413178</v>
+      </c>
+      <c r="L1735" t="n">
+        <v>0.8959492173108918</v>
+      </c>
+      <c r="M1735" t="n">
+        <v>5.727191720206337</v>
+      </c>
+      <c r="N1735" t="n">
+        <v>23.11649519282714</v>
+      </c>
+      <c r="O1735" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736" t="inlineStr">
+        <is>
+          <t>Sincelejo</t>
+        </is>
+      </c>
+      <c r="B1736" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1736" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D1736" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E1736" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1736" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1736" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1736" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1736" t="n">
+        <v>4.776048994723567</v>
+      </c>
+      <c r="J1736" t="n">
+        <v>0.7477967638335965</v>
+      </c>
+      <c r="K1736" t="n">
+        <v>103.4558359881162</v>
+      </c>
+      <c r="L1736" t="n">
+        <v>3.875399979356969</v>
+      </c>
+      <c r="M1736" t="n">
+        <v>4.545297019997704</v>
+      </c>
+      <c r="N1736" t="n">
+        <v>22.34330660399217</v>
+      </c>
+      <c r="O1736" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737" t="inlineStr">
+        <is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+      <c r="B1737" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C1737" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D1737" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E1737" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1737" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1737" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1737" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I1737" t="n">
+        <v>7.918531682073387</v>
+      </c>
+      <c r="J1737" t="n">
+        <v>10.23150526559998</v>
+      </c>
+      <c r="K1737" t="n">
+        <v>94.46704451818105</v>
+      </c>
+      <c r="L1737" t="n">
+        <v>10.83852965120269</v>
+      </c>
+      <c r="M1737" t="n">
+        <v>13.64009622400077</v>
+      </c>
+      <c r="N1737" t="n">
+        <v>13.16466292770157</v>
+      </c>
+      <c r="O1737" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="B1738" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="C1738" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D1738" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E1738" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1738" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1738" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1738" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I1738" t="n">
+        <v>14.04287520417382</v>
+      </c>
+      <c r="J1738" t="n">
+        <v>15.42315467081881</v>
+      </c>
+      <c r="K1738" t="n">
+        <v>88.25481573262731</v>
+      </c>
+      <c r="L1738" t="n">
+        <v>16.28679603236929</v>
+      </c>
+      <c r="M1738" t="n">
+        <v>17.80958239263347</v>
+      </c>
+      <c r="N1738" t="n">
+        <v>6.959119915621517</v>
+      </c>
+      <c r="O1738" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739" t="inlineStr">
+        <is>
+          <t>Yopal</t>
+        </is>
+      </c>
+      <c r="B1739" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C1739" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D1739" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E1739" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1739" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1739" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1739" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1739" t="n">
+        <v>2.913187944503408</v>
+      </c>
+      <c r="J1739" t="n">
+        <v>4.578788049254957</v>
+      </c>
+      <c r="K1739" t="n">
+        <v>104.2306140248632</v>
+      </c>
+      <c r="L1739" t="n">
+        <v>3.47127138092083</v>
+      </c>
+      <c r="M1739" t="n">
+        <v>8.398036973007443</v>
+      </c>
+      <c r="N1739" t="n">
+        <v>22.85227231589892</v>
+      </c>
+      <c r="O1739" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740" t="inlineStr">
+        <is>
+          <t>Popayán</t>
+        </is>
+      </c>
+      <c r="B1740" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C1740" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D1740" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E1740" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1740" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1740" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1740" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1740" t="n">
+        <v>3.112224927604045</v>
+      </c>
+      <c r="J1740" t="n">
+        <v>2.765447522553988</v>
+      </c>
+      <c r="K1740" t="n">
+        <v>103.0422364858217</v>
+      </c>
+      <c r="L1740" t="n">
+        <v>5.323788594600653</v>
+      </c>
+      <c r="M1740" t="n">
+        <v>6.915433825870942</v>
+      </c>
+      <c r="N1740" t="n">
+        <v>21.80555777777767</v>
+      </c>
+      <c r="O1740" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741" t="inlineStr">
+        <is>
+          <t>Valledupar</t>
+        </is>
+      </c>
+      <c r="B1741" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C1741" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D1741" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E1741" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1741" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1741" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1741" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1741" t="n">
+        <v>3.754754852184094</v>
+      </c>
+      <c r="J1741" t="n">
+        <v>1.528299708826775</v>
+      </c>
+      <c r="K1741" t="n">
+        <v>102.5902729307219</v>
+      </c>
+      <c r="L1741" t="n">
+        <v>2.646984132933176</v>
+      </c>
+      <c r="M1741" t="n">
+        <v>5.368484423000592</v>
+      </c>
+      <c r="N1741" t="n">
+        <v>21.33284205163485</v>
+      </c>
+      <c r="O1741" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="B1742" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C1742" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D1742" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E1742" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1742" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1742" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1742" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1742" t="n">
+        <v>6.09302584928047</v>
+      </c>
+      <c r="J1742" t="n">
+        <v>1.736893779135615</v>
+      </c>
+      <c r="K1742" t="n">
+        <v>103.8687652761888</v>
+      </c>
+      <c r="L1742" t="n">
+        <v>4.108615947006972</v>
+      </c>
+      <c r="M1742" t="n">
+        <v>3.141261689194328</v>
+      </c>
+      <c r="N1742" t="n">
+        <v>22.93615813513676</v>
+      </c>
+      <c r="O1742" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743" t="inlineStr">
+        <is>
+          <t>Santa Marta</t>
+        </is>
+      </c>
+      <c r="B1743" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1743" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D1743" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E1743" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1743" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1743" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1743" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1743" t="n">
+        <v>2.191000684618786</v>
+      </c>
+      <c r="J1743" t="n">
+        <v>4.804289749796531</v>
+      </c>
+      <c r="K1743" t="n">
+        <v>101.2384590953458</v>
+      </c>
+      <c r="L1743" t="n">
+        <v>4.557359432829498</v>
+      </c>
+      <c r="M1743" t="n">
+        <v>8.872887072424625</v>
+      </c>
+      <c r="N1743" t="n">
+        <v>19.86084464467713</v>
+      </c>
+      <c r="O1743" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744" t="inlineStr">
+        <is>
+          <t>Neiva</t>
+        </is>
+      </c>
+      <c r="B1744" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C1744" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D1744" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E1744" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1744" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1744" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1744" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1744" t="n">
+        <v>2.02727995106744</v>
+      </c>
+      <c r="J1744" t="n">
+        <v>2.615587888028233</v>
+      </c>
+      <c r="K1744" t="n">
+        <v>102.7977086320507</v>
+      </c>
+      <c r="L1744" t="n">
+        <v>4.368492302843167</v>
+      </c>
+      <c r="M1744" t="n">
+        <v>6.946871598064845</v>
+      </c>
+      <c r="N1744" t="n">
+        <v>21.43759198230996</v>
+      </c>
+      <c r="O1744" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745" t="inlineStr">
+        <is>
+          <t>Leticia</t>
+        </is>
+      </c>
+      <c r="B1745" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1745" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D1745" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E1745" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1745" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1745" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1745" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1745" t="n">
+        <v>5.318370427113929</v>
+      </c>
+      <c r="J1745" t="n">
+        <v>3.692059046115056</v>
+      </c>
+      <c r="K1745" t="n">
+        <v>104.5232361726329</v>
+      </c>
+      <c r="L1745" t="n">
+        <v>0.8959492173108922</v>
+      </c>
+      <c r="M1745" t="n">
+        <v>5.568305397515479</v>
+      </c>
+      <c r="N1745" t="n">
+        <v>23.34275797758269</v>
+      </c>
+      <c r="O1745" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="B1746" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="C1746" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="D1746" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E1746" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1746" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1746" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1746" t="n">
+        <v>18</v>
+      </c>
+      <c r="I1746" t="n">
+        <v>102.114078578813</v>
+      </c>
+      <c r="J1746" t="n">
+        <v>103.3803327524147</v>
+      </c>
+      <c r="K1746" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1746" t="n">
+        <v>104.406157505197</v>
+      </c>
+      <c r="M1746" t="n">
+        <v>104.8391278340296</v>
+      </c>
+      <c r="N1746" t="n">
+        <v>81.41799770321056</v>
+      </c>
+      <c r="O1746" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747" t="inlineStr">
+        <is>
+          <t>Medellín</t>
+        </is>
+      </c>
+      <c r="B1747" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="C1747" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D1747" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E1747" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1747" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1747" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1747" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I1747" t="n">
+        <v>41.65013546196459</v>
+      </c>
+      <c r="J1747" t="n">
+        <v>43.09041308690368</v>
+      </c>
+      <c r="K1747" t="n">
+        <v>60.52563176043683</v>
+      </c>
+      <c r="L1747" t="n">
+        <v>44.14530014622168</v>
+      </c>
+      <c r="M1747" t="n">
+        <v>44.88513813056612</v>
+      </c>
+      <c r="N1747" t="n">
+        <v>21.01359440933416</v>
+      </c>
+      <c r="O1747" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748" t="inlineStr">
+        <is>
+          <t>Quibdó</t>
+        </is>
+      </c>
+      <c r="B1748" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C1748" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D1748" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E1748" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1748" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1748" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1748" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1748" t="n">
+        <v>7.690692036481502</v>
+      </c>
+      <c r="J1748" t="n">
+        <v>3.712101830499803</v>
+      </c>
+      <c r="K1748" t="n">
+        <v>104.4180180811722</v>
+      </c>
+      <c r="L1748" t="n">
+        <v>4.916983323136249</v>
+      </c>
+      <c r="M1748" t="n">
+        <v>1.291984907032588</v>
+      </c>
+      <c r="N1748" t="n">
+        <v>23.74334327764311</v>
+      </c>
+      <c r="O1748" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749" t="inlineStr">
+        <is>
+          <t>Manizales</t>
+        </is>
+      </c>
+      <c r="B1749" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C1749" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D1749" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E1749" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1749" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1749" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1749" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1749" t="n">
+        <v>2.835408965211194</v>
+      </c>
+      <c r="J1749" t="n">
+        <v>6.975507150021422</v>
+      </c>
+      <c r="K1749" t="n">
+        <v>101.4077536483281</v>
+      </c>
+      <c r="L1749" t="n">
+        <v>7.759234820521931</v>
+      </c>
+      <c r="M1749" t="n">
+        <v>11.21027319024831</v>
+      </c>
+      <c r="N1749" t="n">
+        <v>20.24550196957339</v>
+      </c>
+      <c r="O1749" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="B1750" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C1750" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D1750" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1750" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1750" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1750" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1750" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1750" t="n">
+        <v>2.698937568748118</v>
+      </c>
+      <c r="J1750" t="n">
+        <v>6.511320910537276</v>
+      </c>
+      <c r="K1750" t="n">
+        <v>103.4501082648056</v>
+      </c>
+      <c r="L1750" t="n">
+        <v>6.306879180704194</v>
+      </c>
+      <c r="M1750" t="n">
+        <v>10.69032389593505</v>
+      </c>
+      <c r="N1750" t="n">
+        <v>22.19117730090047</v>
+      </c>
+      <c r="O1750" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="B1751" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C1751" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D1751" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E1751" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1751" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1751" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1751" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1751" t="n">
+        <v>2.701215282053619</v>
+      </c>
+      <c r="J1751" t="n">
+        <v>5.001279836201927</v>
+      </c>
+      <c r="K1751" t="n">
+        <v>103.1764721242203</v>
+      </c>
+      <c r="L1751" t="n">
+        <v>6.646632606064518</v>
+      </c>
+      <c r="M1751" t="n">
+        <v>9.0420420813</v>
+      </c>
+      <c r="N1751" t="n">
+        <v>21.95004214118962</v>
+      </c>
+      <c r="O1751" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752" t="inlineStr">
+        <is>
+          <t>Pereira</t>
+        </is>
+      </c>
+      <c r="B1752" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C1752" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D1752" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1752" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1752" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1752" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1752" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I1752" t="n">
+        <v>3.5019771558364</v>
+      </c>
+      <c r="J1752" t="n">
+        <v>6.800088234721663</v>
+      </c>
+      <c r="K1752" t="n">
+        <v>98.96120451975106</v>
+      </c>
+      <c r="L1752" t="n">
+        <v>8.092881130969365</v>
+      </c>
+      <c r="M1752" t="n">
+        <v>11.02876806356902</v>
+      </c>
+      <c r="N1752" t="n">
+        <v>17.69051582063113</v>
+      </c>
+      <c r="O1752" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753" t="inlineStr">
+        <is>
+          <t>Mitú</t>
+        </is>
+      </c>
+      <c r="B1753" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C1753" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1753" t="n">
+        <v>20</v>
+      </c>
+      <c r="E1753" t="n">
+        <v>25</v>
+      </c>
+      <c r="F1753" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1753" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1753" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1753" t="n">
+        <v>9.891891831191847</v>
+      </c>
+      <c r="J1753" t="n">
+        <v>5.623646503826499</v>
+      </c>
+      <c r="K1753" t="n">
+        <v>105.274409995972</v>
+      </c>
+      <c r="L1753" t="n">
+        <v>6.431409254587986</v>
+      </c>
+      <c r="M1753" t="n">
+        <v>1.291984907032585</v>
+      </c>
+      <c r="N1753" t="n">
+        <v>25.06981551587486</v>
+      </c>
+      <c r="O1753" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754" t="inlineStr">
+        <is>
+          <t>Cali</t>
+        </is>
+      </c>
+      <c r="B1754" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="C1754" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="D1754" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E1754" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1754" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1754" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1754" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I1754" t="n">
+        <v>19.75141372155421</v>
+      </c>
+      <c r="J1754" t="n">
+        <v>20.95823704417907</v>
+      </c>
+      <c r="K1754" t="n">
+        <v>82.50480289049844</v>
+      </c>
+      <c r="L1754" t="n">
+        <v>22.17046966124083</v>
+      </c>
+      <c r="M1754" t="n">
+        <v>22.97098659178573</v>
+      </c>
+      <c r="N1754" t="n">
+        <v>2.111717310626594</v>
+      </c>
+      <c r="O1754" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755" t="inlineStr">
+        <is>
+          <t>Montería</t>
+        </is>
+      </c>
+      <c r="B1755" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1755" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D1755" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E1755" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1755" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1755" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1755" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1755" t="n">
+        <v>2.256480445295281</v>
+      </c>
+      <c r="J1755" t="n">
+        <v>2.677853618105368</v>
+      </c>
+      <c r="K1755" t="n">
+        <v>102.2951421133966</v>
+      </c>
+      <c r="L1755" t="n">
+        <v>3.306527634845957</v>
+      </c>
+      <c r="M1755" t="n">
+        <v>6.968645851239681</v>
+      </c>
+      <c r="N1755" t="n">
+        <v>20.92065367047598</v>
+      </c>
+      <c r="O1755" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756" t="inlineStr">
+        <is>
+          <t>Centroides Iteración 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758" t="inlineStr">
+        <is>
+          <t>GDP (USD Billion)</t>
+        </is>
+      </c>
+      <c r="B1758" t="inlineStr">
+        <is>
+          <t>Population (Millions)</t>
+        </is>
+      </c>
+      <c r="C1758" t="inlineStr">
+        <is>
+          <t>Unemployment Rate (%)</t>
+        </is>
+      </c>
+      <c r="D1758" t="inlineStr">
+        <is>
+          <t>Average Age</t>
+        </is>
+      </c>
+      <c r="E1758" t="inlineStr">
+        <is>
+          <t>Women (%)</t>
+        </is>
+      </c>
+      <c r="F1758" t="inlineStr">
+        <is>
+          <t>Men (%)</t>
+        </is>
+      </c>
+      <c r="G1758" t="inlineStr">
+        <is>
+          <t>Budget (USD Billion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="B1759" t="n">
+        <v>0.392</v>
+      </c>
+      <c r="C1759" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="D1759" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E1759" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="F1759" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="G1759" t="n">
+        <v>0.6900000000000001</v>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="B1760" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C1760" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="D1760" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E1760" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="F1760" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="G1760" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="B1761" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="C1761" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D1761" t="n">
+        <v>32</v>
+      </c>
+      <c r="E1761" t="n">
+        <v>52</v>
+      </c>
+      <c r="F1761" t="n">
+        <v>48</v>
+      </c>
+      <c r="G1761" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="B1762" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="C1762" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D1762" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E1762" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="F1762" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="G1762" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1763" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C1763" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D1763" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E1763" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="F1763" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="G1763" t="n">
+        <v>0.175</v>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764" t="n">
+        <v>23.45</v>
+      </c>
+      <c r="B1764" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="C1764" t="n">
+        <v>12.075</v>
+      </c>
+      <c r="D1764" t="n">
+        <v>30</v>
+      </c>
+      <c r="E1764" t="n">
+        <v>51.75</v>
+      </c>
+      <c r="F1764" t="n">
+        <v>48.25</v>
+      </c>
+      <c r="G1764" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765" t="inlineStr">
+        <is>
+          <t>Iteración 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B1767" t="inlineStr">
+        <is>
+          <t>GDP (USD Billion)</t>
+        </is>
+      </c>
+      <c r="C1767" t="inlineStr">
+        <is>
+          <t>Population (Millions)</t>
+        </is>
+      </c>
+      <c r="D1767" t="inlineStr">
+        <is>
+          <t>Unemployment Rate (%)</t>
+        </is>
+      </c>
+      <c r="E1767" t="inlineStr">
+        <is>
+          <t>Average Age</t>
+        </is>
+      </c>
+      <c r="F1767" t="inlineStr">
+        <is>
+          <t>Women (%)</t>
+        </is>
+      </c>
+      <c r="G1767" t="inlineStr">
+        <is>
+          <t>Men (%)</t>
+        </is>
+      </c>
+      <c r="H1767" t="inlineStr">
+        <is>
+          <t>Budget (USD Billion)</t>
+        </is>
+      </c>
+      <c r="I1767" t="inlineStr">
+        <is>
+          <t>dis_C0</t>
+        </is>
+      </c>
+      <c r="J1767" t="inlineStr">
+        <is>
+          <t>dis_C1</t>
+        </is>
+      </c>
+      <c r="K1767" t="inlineStr">
+        <is>
+          <t>dis_C2</t>
+        </is>
+      </c>
+      <c r="L1767" t="inlineStr">
+        <is>
+          <t>dis_C3</t>
+        </is>
+      </c>
+      <c r="M1767" t="inlineStr">
+        <is>
+          <t>dis_C4</t>
+        </is>
+      </c>
+      <c r="N1767" t="inlineStr">
+        <is>
+          <t>dis_C5</t>
+        </is>
+      </c>
+      <c r="O1767" t="inlineStr">
+        <is>
+          <t>Cluster</t>
+        </is>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768" t="inlineStr">
+        <is>
+          <t>Pasto</t>
+        </is>
+      </c>
+      <c r="B1768" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D1768" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="E1768" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1768" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1768" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1768" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1768" t="n">
+        <v>1.188129998174436</v>
+      </c>
+      <c r="J1768" t="n">
+        <v>4.202534949289535</v>
+      </c>
+      <c r="K1768" t="n">
+        <v>102.036429278959</v>
+      </c>
+      <c r="L1768" t="n">
+        <v>5.515498617532235</v>
+      </c>
+      <c r="M1768" t="n">
+        <v>8.628442791141401</v>
+      </c>
+      <c r="N1768" t="n">
+        <v>25.00127196764197</v>
+      </c>
+      <c r="O1768" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769" t="inlineStr">
+        <is>
+          <t>Riohacha</t>
+        </is>
+      </c>
+      <c r="B1769" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="D1769" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E1769" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1769" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1769" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1769" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1769" t="n">
+        <v>5.597402659173771</v>
+      </c>
+      <c r="J1769" t="n">
+        <v>1.744476998988524</v>
+      </c>
+      <c r="K1769" t="n">
+        <v>104.0181311118403</v>
+      </c>
+      <c r="L1769" t="n">
+        <v>2.136942909859783</v>
+      </c>
+      <c r="M1769" t="n">
+        <v>3.820749272066935</v>
+      </c>
+      <c r="N1769" t="n">
+        <v>27.13050128545361</v>
+      </c>
+      <c r="O1769" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770" t="inlineStr">
+        <is>
+          <t>Villavicencio</t>
+        </is>
+      </c>
+      <c r="B1770" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D1770" t="n">
+        <v>13</v>
+      </c>
+      <c r="E1770" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1770" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1770" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1770" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1770" t="n">
+        <v>1.450569850976498</v>
+      </c>
+      <c r="J1770" t="n">
+        <v>3.593438464757677</v>
+      </c>
+      <c r="K1770" t="n">
+        <v>101.7482795923351</v>
+      </c>
+      <c r="L1770" t="n">
+        <v>4.445416178492178</v>
+      </c>
+      <c r="M1770" t="n">
+        <v>8.048945583118327</v>
+      </c>
+      <c r="N1770" t="n">
+        <v>24.70870494380473</v>
+      </c>
+      <c r="O1770" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771" t="inlineStr">
+        <is>
+          <t>San Andrés</t>
+        </is>
+      </c>
+      <c r="B1771" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D1771" t="n">
+        <v>14</v>
+      </c>
+      <c r="E1771" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1771" t="n">
+        <v>50</v>
+      </c>
+      <c r="G1771" t="n">
+        <v>50</v>
+      </c>
+      <c r="H1771" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1771" t="n">
+        <v>5.356169610137637</v>
+      </c>
+      <c r="J1771" t="n">
+        <v>3.171624189591198</v>
+      </c>
+      <c r="K1771" t="n">
+        <v>104.2966442413178</v>
+      </c>
+      <c r="L1771" t="n">
+        <v>0.8959492173108918</v>
+      </c>
+      <c r="M1771" t="n">
+        <v>5.727191720206337</v>
+      </c>
+      <c r="N1771" t="n">
+        <v>27.4092727618471</v>
+      </c>
+      <c r="O1771" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772" t="inlineStr">
+        <is>
+          <t>Sincelejo</t>
+        </is>
+      </c>
+      <c r="B1772" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="D1772" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E1772" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1772" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1772" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1772" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1772" t="n">
+        <v>5.059339534852906</v>
+      </c>
+      <c r="J1772" t="n">
+        <v>0.7477967638335965</v>
+      </c>
+      <c r="K1772" t="n">
+        <v>103.4558359881162</v>
+      </c>
+      <c r="L1772" t="n">
+        <v>3.875399979356969</v>
+      </c>
+      <c r="M1772" t="n">
+        <v>4.545297019997704</v>
+      </c>
+      <c r="N1772" t="n">
+        <v>26.567578612537</v>
+      </c>
+      <c r="O1772" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773" t="inlineStr">
+        <is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+      <c r="B1773" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D1773" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="E1773" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1773" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1773" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1773" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I1773" t="n">
+        <v>7.198665165521261</v>
+      </c>
+      <c r="J1773" t="n">
+        <v>10.23150526559998</v>
+      </c>
+      <c r="K1773" t="n">
+        <v>94.46704451818105</v>
+      </c>
+      <c r="L1773" t="n">
+        <v>10.83852965120269</v>
+      </c>
+      <c r="M1773" t="n">
+        <v>13.64009622400077</v>
+      </c>
+      <c r="N1773" t="n">
+        <v>17.55288390360209</v>
+      </c>
+      <c r="O1773" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774" t="inlineStr">
+        <is>
+          <t>Barranquilla</t>
+        </is>
+      </c>
+      <c r="B1774" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D1774" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E1774" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1774" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1774" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1774" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I1774" t="n">
+        <v>13.34197266938978</v>
+      </c>
+      <c r="J1774" t="n">
+        <v>15.42315467081881</v>
+      </c>
+      <c r="K1774" t="n">
+        <v>88.25481573262731</v>
+      </c>
+      <c r="L1774" t="n">
+        <v>16.28679603236929</v>
+      </c>
+      <c r="M1774" t="n">
+        <v>17.80958239263347</v>
+      </c>
+      <c r="N1774" t="n">
+        <v>11.28014775316943</v>
+      </c>
+      <c r="O1774" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775" t="inlineStr">
+        <is>
+          <t>Yopal</t>
+        </is>
+      </c>
+      <c r="B1775" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="C1775" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D1775" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E1775" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1775" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1775" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1775" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1775" t="n">
+        <v>3.37259249914502</v>
+      </c>
+      <c r="J1775" t="n">
+        <v>4.578788049254957</v>
+      </c>
+      <c r="K1775" t="n">
+        <v>104.2306140248632</v>
+      </c>
+      <c r="L1775" t="n">
+        <v>3.47127138092083</v>
+      </c>
+      <c r="M1775" t="n">
+        <v>8.398036973007443</v>
+      </c>
+      <c r="N1775" t="n">
+        <v>27.21965466349638</v>
+      </c>
+      <c r="O1775" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776" t="inlineStr">
+        <is>
+          <t>Popayán</t>
+        </is>
+      </c>
+      <c r="B1776" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C1776" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D1776" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E1776" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1776" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1776" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1776" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1776" t="n">
+        <v>3.495016995903295</v>
+      </c>
+      <c r="J1776" t="n">
+        <v>2.765447522553988</v>
+      </c>
+      <c r="K1776" t="n">
+        <v>103.0422364858217</v>
+      </c>
+      <c r="L1776" t="n">
+        <v>5.323788594600653</v>
+      </c>
+      <c r="M1776" t="n">
+        <v>6.915433825870942</v>
+      </c>
+      <c r="N1776" t="n">
+        <v>26.06720289303528</v>
+      </c>
+      <c r="O1776" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777" t="inlineStr">
+        <is>
+          <t>Valledupar</t>
+        </is>
+      </c>
+      <c r="B1777" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C1777" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D1777" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="E1777" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1777" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1777" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1777" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1777" t="n">
+        <v>3.903757884376887</v>
+      </c>
+      <c r="J1777" t="n">
+        <v>1.528299708826775</v>
+      </c>
+      <c r="K1777" t="n">
+        <v>102.5902729307219</v>
+      </c>
+      <c r="L1777" t="n">
+        <v>2.646984132933176</v>
+      </c>
+      <c r="M1777" t="n">
+        <v>5.368484423000592</v>
+      </c>
+      <c r="N1777" t="n">
+        <v>25.61109655338222</v>
+      </c>
+      <c r="O1777" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778" t="inlineStr">
+        <is>
+          <t>Florencia</t>
+        </is>
+      </c>
+      <c r="B1778" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="C1778" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D1778" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E1778" t="n">
+        <v>28</v>
+      </c>
+      <c r="F1778" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1778" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1778" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1778" t="n">
+        <v>6.365358533201278</v>
+      </c>
+      <c r="J1778" t="n">
+        <v>1.736893779135615</v>
+      </c>
+      <c r="K1778" t="n">
+        <v>103.8687652761888</v>
+      </c>
+      <c r="L1778" t="n">
+        <v>4.108615947006972</v>
+      </c>
+      <c r="M1778" t="n">
+        <v>3.141261689194328</v>
+      </c>
+      <c r="N1778" t="n">
+        <v>27.10410977447271</v>
+      </c>
+      <c r="O1778" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779" t="inlineStr">
+        <is>
+          <t>Santa Marta</t>
+        </is>
+      </c>
+      <c r="B1779" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1779" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D1779" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E1779" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1779" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1779" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1779" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1779" t="n">
+        <v>1.873549907581419</v>
+      </c>
+      <c r="J1779" t="n">
+        <v>4.804289749796531</v>
+      </c>
+      <c r="K1779" t="n">
+        <v>101.2384590953458</v>
+      </c>
+      <c r="L1779" t="n">
+        <v>4.557359432829498</v>
+      </c>
+      <c r="M1779" t="n">
+        <v>8.872887072424625</v>
+      </c>
+      <c r="N1779" t="n">
+        <v>24.23001100563789</v>
+      </c>
+      <c r="O1779" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" t="inlineStr">
+        <is>
+          <t>Neiva</t>
+        </is>
+      </c>
+      <c r="B1780" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C1780" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D1780" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E1780" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1780" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1780" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1780" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I1780" t="n">
+        <v>2.442766349452302</v>
+      </c>
+      <c r="J1780" t="n">
+        <v>2.615587888028233</v>
+      </c>
+      <c r="K1780" t="n">
+        <v>102.7977086320507</v>
+      </c>
+      <c r="L1780" t="n">
+        <v>4.368492302843167</v>
+      </c>
+      <c r="M1780" t="n">
+        <v>6.946871598064845</v>
+      </c>
+      <c r="N1780" t="n">
+        <v>25.74112662647073</v>
+      </c>
+      <c r="O1780" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" t="inlineStr">
+        <is>
+          <t>Leticia</t>
+        </is>
+      </c>
+      <c r="B1781" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1781" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D1781" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E1781" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1781" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1781" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1781" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1781" t="n">
+        <v>5.621696458755146</v>
+      </c>
+      <c r="J1781" t="n">
+        <v>3.692059046115056</v>
+      </c>
+      <c r="K1781" t="n">
+        <v>104.5232361726329</v>
+      </c>
+      <c r="L1781" t="n">
+        <v>0.8959492173108922</v>
+      </c>
+      <c r="M1781" t="n">
+        <v>5.568305397515479</v>
+      </c>
+      <c r="N1781" t="n">
+        <v>27.62139750266087</v>
+      </c>
+      <c r="O1781" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782" t="inlineStr">
+        <is>
+          <t>Bogotá</t>
+        </is>
+      </c>
+      <c r="B1782" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="C1782" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="D1782" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E1782" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1782" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1782" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1782" t="n">
+        <v>18</v>
+      </c>
+      <c r="I1782" t="n">
+        <v>101.417171794084</v>
+      </c>
+      <c r="J1782" t="n">
+        <v>103.3803327524147</v>
+      </c>
+      <c r="K1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1782" t="n">
+        <v>104.406157505197</v>
+      </c>
+      <c r="M1782" t="n">
+        <v>104.8391278340296</v>
+      </c>
+      <c r="N1782" t="n">
+        <v>77.07705387035323</v>
+      </c>
+      <c r="O1782" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783" t="inlineStr">
+        <is>
+          <t>Medellín</t>
+        </is>
+      </c>
+      <c r="B1783" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="C1783" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D1783" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E1783" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1783" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1783" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1783" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I1783" t="n">
+        <v>40.95767946842224</v>
+      </c>
+      <c r="J1783" t="n">
+        <v>43.09041308690368</v>
+      </c>
+      <c r="K1783" t="n">
+        <v>60.52563176043683</v>
+      </c>
+      <c r="L1783" t="n">
+        <v>44.14530014622168</v>
+      </c>
+      <c r="M1783" t="n">
+        <v>44.88513813056612</v>
+      </c>
+      <c r="N1783" t="n">
+        <v>16.68183443150063</v>
+      </c>
+      <c r="O1783" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784" t="inlineStr">
+        <is>
+          <t>Quibdó</t>
+        </is>
+      </c>
+      <c r="B1784" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="C1784" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D1784" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E1784" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1784" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1784" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1784" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I1784" t="n">
+        <v>7.962723276836327</v>
+      </c>
+      <c r="J1784" t="n">
+        <v>3.712101830499803</v>
+      </c>
+      <c r="K1784" t="n">
+        <v>104.4180180811722</v>
+      </c>
+      <c r="L1784" t="n">
+        <v>4.916983323136249</v>
+      </c>
+      <c r="M1784" t="n">
+        <v>1.291984907032588</v>
+      </c>
+      <c r="N1784" t="n">
+        <v>27.82728397334769</v>
+      </c>
+      <c r="O1784" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785" t="inlineStr">
+        <is>
+          <t>Manizales</t>
+        </is>
+      </c>
+      <c r="B1785" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C1785" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D1785" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1785" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1785" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1785" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I1785" t="n">
+        <v>2.774602048749628</v>
+      </c>
+      <c r="J1785" t="n">
+        <v>6.975507150021422</v>
+      </c>
+      <c r="K1785" t="n">
+        <v>101.4077536483281</v>
+      </c>
+      <c r="L1785" t="n">
+        <v>7.759234820521931</v>
+      </c>
+      <c r="M1785" t="n">
+        <v>11.21027319024831</v>
+      </c>
+      <c r="N1785" t="n">
+        <v>24.55815682551658</v>
+      </c>
+      <c r="O1785" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786" t="inlineStr">
+        <is>
+          <t>Tunja</t>
+        </is>
+      </c>
+      <c r="B1786" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="C1786" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D1786" t="n">
+        <v>10</v>
+      </c>
+      <c r="E1786" t="n">
+        <v>31</v>
+      </c>
+      <c r="F1786" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1786" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1786" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I1786" t="n">
+        <v>3.040756213034422</v>
+      </c>
+      <c r="J1786" t="n">
+        <v>6.511320910537276</v>
+      </c>
+      <c r="K1786" t="n">
+        <v>103.4501082648056</v>
+      </c>
+      <c r="L1786" t="n">
+        <v>6.306879180704194</v>
+      </c>
+      <c r="M1786" t="n">
+        <v>10.69032389593505</v>
+      </c>
+      <c r="N1786" t="n">
+        <v>26.55185367038116</v>
+      </c>
+      <c r="O1786" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="B1787" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C1787" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D1787" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="E1787" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1787" t="n">
+        <v>53</v>
+      </c>
+      <c r="G1787" t="n">
+        <v>47</v>
+      </c>
+      <c r="H1787" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1787" t="n">
+        <v>3.163796364814988</v>
+      </c>
+      <c r="J1787" t="n">
+        <v>5.001279836201927</v>
+      </c>
+      <c r="K1787" t="n">
+        <v>103.1764721242203</v>
+      </c>
+      <c r="L1787" t="n">
+        <v>6.646632606064518</v>
+      </c>
+      <c r="M1787" t="n">
+        <v>9.0420420813</v>
+      </c>
+      <c r="N1787" t="n">
+        <v>26.23072180986766</v>
+      </c>
+      <c r="O1787" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788" t="inlineStr">
+        <is>
+          <t>Pereira</t>
+        </is>
+      </c>
+      <c r="B1788" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="C1788" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D1788" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1788" t="n">
+        <v>32</v>
+      </c>
+      <c r="F1788" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1788" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1788" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I1788" t="n">
+        <v>2.921520180537738</v>
+      </c>
+      <c r="J1788" t="n">
+        <v>6.800088234721663</v>
+      </c>
+      <c r="K1788" t="n">
+        <v>98.96120451975106</v>
+      </c>
+      <c r="L1788" t="n">
+        <v>8.092881130969365</v>
+      </c>
+      <c r="M1788" t="n">
+        <v>11.02876806356902</v>
+      </c>
+      <c r="N1788" t="n">
+        <v>22.02001135331225</v>
+      </c>
+      <c r="O1788" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789" t="inlineStr">
+        <is>
+          <t>Mitú</t>
+        </is>
+      </c>
+      <c r="B1789" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>20</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>25</v>
+      </c>
+      <c r="F1789" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1789" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1789" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I1789" t="n">
+        <v>10.15312438172328</v>
+      </c>
+      <c r="J1789" t="n">
+        <v>5.623646503826499</v>
+      </c>
+      <c r="K1789" t="n">
+        <v>105.274409995972</v>
+      </c>
+      <c r="L1789" t="n">
+        <v>6.431409254587986</v>
+      </c>
+      <c r="M1789" t="n">
+        <v>1.291984907032585</v>
+      </c>
+      <c r="N1789" t="n">
+        <v>29.05516305237333</v>
+      </c>
+      <c r="O1789" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790" t="inlineStr">
+        <is>
+          <t>Cali</t>
+        </is>
+      </c>
+      <c r="B1790" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>30</v>
+      </c>
+      <c r="F1790" t="n">
+        <v>52</v>
+      </c>
+      <c r="G1790" t="n">
+        <v>48</v>
+      </c>
+      <c r="H1790" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I1790" t="n">
+        <v>19.06829968540882</v>
+      </c>
+      <c r="J1790" t="n">
+        <v>20.95823704417907</v>
+      </c>
+      <c r="K1790" t="n">
+        <v>82.50480289049844</v>
+      </c>
+      <c r="L1790" t="n">
+        <v>22.17046966124083</v>
+      </c>
+      <c r="M1790" t="n">
+        <v>22.97098659178573</v>
+      </c>
+      <c r="N1790" t="n">
+        <v>5.582568106764727</v>
+      </c>
+      <c r="O1790" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791" t="inlineStr">
+        <is>
+          <t>Montería</t>
+        </is>
+      </c>
+      <c r="B1791" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>29</v>
+      </c>
+      <c r="F1791" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1791" t="n">
+        <v>49</v>
+      </c>
+      <c r="H1791" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I1791" t="n">
+        <v>2.386053832704111</v>
+      </c>
+      <c r="J1791" t="n">
+        <v>2.677853618105368</v>
+      </c>
+      <c r="K1791" t="n">
+        <v>102.2951421133966</v>
+      </c>
+      <c r="L1791" t="n">
+        <v>3.306527634845957</v>
+      </c>
+      <c r="M1791" t="n">
+        <v>6.968645851239681</v>
+      </c>
+      <c r="N1791" t="n">
+        <v>25.25246654619439</v>
+      </c>
+      <c r="O1791" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792" t="inlineStr">
+        <is>
+          <t>Centroides Iteración 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794" t="inlineStr">
+        <is>
+          <t>GDP (USD Billion)</t>
+        </is>
+      </c>
+      <c r="B1794" t="inlineStr">
+        <is>
+          <t>Population (Millions)</t>
+        </is>
+      </c>
+      <c r="C1794" t="inlineStr">
+        <is>
+          <t>Unemployment Rate (%)</t>
+        </is>
+      </c>
+      <c r="D1794" t="inlineStr">
+        <is>
+          <t>Average Age</t>
+        </is>
+      </c>
+      <c r="E1794" t="inlineStr">
+        <is>
+          <t>Women (%)</t>
+        </is>
+      </c>
+      <c r="F1794" t="inlineStr">
+        <is>
+          <t>Men (%)</t>
+        </is>
+      </c>
+      <c r="G1794" t="inlineStr">
+        <is>
+          <t>Budget (USD Billion)</t>
+        </is>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795" t="n">
+        <v>3.790909090909091</v>
+      </c>
+      <c r="B1795" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="C1795" t="n">
+        <v>12.13636363636364</v>
+      </c>
+      <c r="D1795" t="n">
+        <v>30.45454545454545</v>
+      </c>
+      <c r="E1795" t="n">
+        <v>51.72727272727273</v>
+      </c>
+      <c r="F1795" t="n">
+        <v>48.27272727272727</v>
+      </c>
+      <c r="G1795" t="n">
+        <v>0.8818181818181817</v>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="B1796" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C1796" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="D1796" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E1796" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="F1796" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="G1796" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="B1797" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="C1797" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D1797" t="n">
+        <v>32</v>
+      </c>
+      <c r="E1797" t="n">
+        <v>52</v>
+      </c>
+      <c r="F1797" t="n">
+        <v>48</v>
+      </c>
+      <c r="G1797" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="B1798" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="C1798" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D1798" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="E1798" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="F1798" t="n">
+        <v>49.5</v>
+      </c>
+      <c r="G1798" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1799" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="D1799" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="F1799" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="G1799" t="n">
+        <v>0.175</v>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800" t="n">
+        <v>27.76666666666667</v>
+      </c>
+      <c r="B1800" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>12.46666666666667</v>
+      </c>
+      <c r="D1800" t="n">
+        <v>30</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>52</v>
+      </c>
+      <c r="F1800" t="n">
+        <v>48</v>
+      </c>
+      <c r="G1800" t="n">
+        <v>4.933333333333334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
